--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.9000000000000021</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-24.99999999999989</v>
+      </c>
       <c r="L12" t="n">
         <v>25.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.200000000000003</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-60.00000000000014</v>
+      </c>
       <c r="L13" t="n">
         <v>25.85</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.400000000000002</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-66.66666666666676</v>
+      </c>
       <c r="L14" t="n">
         <v>25.77</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.400000000000002</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-66.66666666666676</v>
+      </c>
       <c r="L15" t="n">
         <v>25.69</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L16" t="n">
         <v>25.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.599999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-53.84615384615405</v>
+      </c>
       <c r="L17" t="n">
         <v>25.53</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-25</v>
+      </c>
       <c r="L18" t="n">
         <v>25.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.400000000000002</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-40.00000000000011</v>
+      </c>
       <c r="L19" t="n">
         <v>25.42</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.500000000000004</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-17.64705882352946</v>
+      </c>
       <c r="L20" t="n">
         <v>25.35</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.600000000000005</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-29.41176470588231</v>
+      </c>
       <c r="L21" t="n">
         <v>25.31</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.600000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-14.28571428571421</v>
+      </c>
       <c r="L22" t="n">
         <v>25.26</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.000000000000007</v>
       </c>
       <c r="K23" t="n">
-        <v>-10.34482758620678</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L23" t="n">
         <v>25.28</v>
@@ -1466,7 +1488,7 @@
         <v>3.400000000000006</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.99999999999996</v>
       </c>
       <c r="L24" t="n">
         <v>25.36000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>3.400000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>47.36842105263136</v>
       </c>
       <c r="L25" t="n">
         <v>25.44000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>-13.5135135135135</v>
+        <v>13.04347826086955</v>
       </c>
       <c r="L26" t="n">
         <v>25.48000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>4.200000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.564102564102508</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L27" t="n">
         <v>25.54000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>36.84210526315781</v>
       </c>
       <c r="L28" t="n">
         <v>25.57000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>36.84210526315781</v>
       </c>
       <c r="L29" t="n">
         <v>25.65000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K30" t="n">
-        <v>2.439024390243936</v>
+        <v>47.36842105263164</v>
       </c>
       <c r="L30" t="n">
         <v>25.73000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>4.900000000000009</v>
       </c>
       <c r="K31" t="n">
-        <v>2.439024390243847</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L31" t="n">
         <v>25.78000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>5.300000000000011</v>
       </c>
       <c r="K32" t="n">
-        <v>9.09090909090912</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L32" t="n">
         <v>25.87000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>5.800000000000011</v>
       </c>
       <c r="K33" t="n">
-        <v>4.347826086956576</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L33" t="n">
         <v>25.87000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>6.20000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>16.66666666666665</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>25.87000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K35" t="n">
-        <v>14.28571428571424</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L35" t="n">
         <v>25.86000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>6.70000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>7.69230769230765</v>
+        <v>-12.00000000000001</v>
       </c>
       <c r="L36" t="n">
         <v>25.86000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>6.800000000000011</v>
       </c>
       <c r="K37" t="n">
-        <v>3.846153846153823</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L37" t="n">
         <v>25.82</v>
@@ -2166,7 +2188,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.122448979591839</v>
+        <v>-27.99999999999993</v>
       </c>
       <c r="L38" t="n">
         <v>25.76000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K39" t="n">
-        <v>2.22222222222225</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>25.69000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L40" t="n">
         <v>25.61000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K41" t="n">
-        <v>2.325581395348868</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L41" t="n">
         <v>25.57000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>7.000000000000011</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L42" t="n">
         <v>25.48000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>7.20000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.761904761904826</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L43" t="n">
         <v>25.46000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>7.300000000000011</v>
       </c>
       <c r="K44" t="n">
-        <v>-12.8205128205128</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L44" t="n">
         <v>25.41000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>7.400000000000013</v>
       </c>
       <c r="K45" t="n">
-        <v>-9.999999999999947</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L45" t="n">
         <v>25.38000000000002</v>
@@ -2574,7 +2596,7 @@
         <v>7.600000000000016</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.702702702702734</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>25.37000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>7.600000000000016</v>
       </c>
       <c r="K47" t="n">
-        <v>-11.76470588235297</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L47" t="n">
         <v>25.37000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>7.700000000000014</v>
       </c>
       <c r="K48" t="n">
-        <v>-17.6470588235293</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>25.37000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>7.800000000000011</v>
       </c>
       <c r="K49" t="n">
-        <v>-17.64705882352942</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L49" t="n">
         <v>25.38000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>8.000000000000011</v>
       </c>
       <c r="K50" t="n">
-        <v>-25.71428571428575</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L50" t="n">
         <v>25.37</v>
@@ -2829,7 +2851,7 @@
         <v>8.100000000000012</v>
       </c>
       <c r="K51" t="n">
-        <v>-12.49999999999994</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L51" t="n">
         <v>25.37</v>
@@ -2880,7 +2902,7 @@
         <v>8.100000000000012</v>
       </c>
       <c r="K52" t="n">
-        <v>-28.57142857142859</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L52" t="n">
         <v>25.38000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>8.100000000000012</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.04347826086959</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L53" t="n">
         <v>25.37000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>8.20000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-30.00000000000007</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L54" t="n">
         <v>25.36000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>8.20000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>-26.31578947368423</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>25.34000000000001</v>
@@ -3088,7 +3110,7 @@
         <v>8.400000000000013</v>
       </c>
       <c r="K56" t="n">
-        <v>5.882352941176544</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L56" t="n">
         <v>25.36000000000001</v>
@@ -3145,7 +3167,7 @@
         <v>8.400000000000013</v>
       </c>
       <c r="K57" t="n">
-        <v>12.50000000000017</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L57" t="n">
         <v>25.38</v>
@@ -3204,7 +3226,7 @@
         <v>8.800000000000011</v>
       </c>
       <c r="K58" t="n">
-        <v>36.84210526315781</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L58" t="n">
         <v>25.45000000000001</v>
@@ -3263,7 +3285,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>64.70588235294112</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>25.66000000000001</v>
@@ -3322,7 +3344,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>59.99999999999987</v>
+        <v>91.30434782608684</v>
       </c>
       <c r="L60" t="n">
         <v>25.88000000000001</v>
@@ -3381,7 +3403,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>55.55555555555554</v>
+        <v>83.33333333333339</v>
       </c>
       <c r="L61" t="n">
         <v>26.08000000000001</v>
@@ -3440,7 +3462,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>60.00000000000004</v>
+        <v>83.33333333333339</v>
       </c>
       <c r="L62" t="n">
         <v>26.28000000000001</v>
@@ -3499,7 +3521,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>13.04347826086959</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="L63" t="n">
         <v>26.35</v>
@@ -3558,7 +3580,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>11.11111111111111</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="L64" t="n">
         <v>26.41000000000001</v>
@@ -3617,7 +3639,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>13.04347826086953</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L65" t="n">
         <v>26.49000000000001</v>
@@ -3672,7 +3694,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>18.18181818181822</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L66" t="n">
         <v>26.55</v>
@@ -3729,7 +3751,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>26.530612244898</v>
+        <v>18.91891891891891</v>
       </c>
       <c r="L67" t="n">
         <v>26.66</v>
@@ -3786,7 +3808,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>24</v>
+        <v>-41.66666666666669</v>
       </c>
       <c r="L68" t="n">
         <v>26.71</v>
@@ -3843,7 +3865,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>25.4901960784314</v>
+        <v>-28.00000000000001</v>
       </c>
       <c r="L69" t="n">
         <v>26.63</v>
@@ -3900,7 +3922,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>30.61224489795919</v>
+        <v>-25.00000000000007</v>
       </c>
       <c r="L70" t="n">
         <v>26.56</v>
@@ -3957,7 +3979,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>33.33333333333333</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L71" t="n">
         <v>26.53</v>
@@ -4014,7 +4036,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>34.61538461538463</v>
+        <v>73.33333333333343</v>
       </c>
       <c r="L72" t="n">
         <v>26.51</v>
@@ -4071,7 +4093,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>34.61538461538463</v>
+        <v>73.33333333333343</v>
       </c>
       <c r="L73" t="n">
         <v>26.62</v>
@@ -4128,7 +4150,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>35.84905660377362</v>
+        <v>73.33333333333343</v>
       </c>
       <c r="L74" t="n">
         <v>26.75000000000001</v>
@@ -4185,7 +4207,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>24.13793103448279</v>
+        <v>30.00000000000007</v>
       </c>
       <c r="L75" t="n">
         <v>26.81000000000001</v>
@@ -4236,7 +4258,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>30.15873015873015</v>
+        <v>36.36363636363641</v>
       </c>
       <c r="L76" t="n">
         <v>26.94000000000001</v>
@@ -4287,7 +4309,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>32.30769230769229</v>
+        <v>54.54545454545453</v>
       </c>
       <c r="L77" t="n">
         <v>27.04000000000001</v>
@@ -4338,7 +4360,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>27.86885245901639</v>
+        <v>50</v>
       </c>
       <c r="L78" t="n">
         <v>27.16000000000001</v>
@@ -4389,7 +4411,7 @@
         <v>15.00000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>2.127659574468117</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L79" t="n">
         <v>27.25000000000001</v>
@@ -4440,7 +4462,7 @@
         <v>15.50000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.882352941176421</v>
+        <v>4.347826086956589</v>
       </c>
       <c r="L80" t="n">
         <v>27.29000000000001</v>
@@ -4491,7 +4513,7 @@
         <v>15.6</v>
       </c>
       <c r="K81" t="n">
-        <v>-1.96078431372552</v>
+        <v>4.347826086956442</v>
       </c>
       <c r="L81" t="n">
         <v>27.31000000000001</v>
@@ -4542,7 +4564,7 @@
         <v>15.6</v>
       </c>
       <c r="K82" t="n">
-        <v>-1.96078431372552</v>
+        <v>4.347826086956442</v>
       </c>
       <c r="L82" t="n">
         <v>27.32000000000001</v>
@@ -4593,7 +4615,7 @@
         <v>16.00000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>38.09523809523817</v>
+        <v>12.00000000000005</v>
       </c>
       <c r="L83" t="n">
         <v>27.37000000000001</v>
@@ -4644,7 +4666,7 @@
         <v>16.00000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>38.09523809523817</v>
+        <v>40.00000000000011</v>
       </c>
       <c r="L84" t="n">
         <v>27.40000000000001</v>
@@ -4695,7 +4717,7 @@
         <v>16.10000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>31.70731707317077</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>27.47000000000001</v>
@@ -4746,7 +4768,7 @@
         <v>16.20000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>33.33333333333339</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L86" t="n">
         <v>27.48000000000001</v>
@@ -4797,7 +4819,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>2.222222222222254</v>
+        <v>-42.85714285714276</v>
       </c>
       <c r="L87" t="n">
         <v>27.39000000000001</v>
@@ -4848,7 +4870,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>6.976744186046527</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L88" t="n">
         <v>27.30000000000002</v>
@@ -4899,7 +4921,7 @@
         <v>17.20000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.325581395348787</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L89" t="n">
         <v>27.20000000000002</v>
@@ -4950,7 +4972,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-6.666666666666678</v>
+        <v>-44.44444444444429</v>
       </c>
       <c r="L90" t="n">
         <v>27.13000000000001</v>
@@ -5001,7 +5023,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-16.27906976744184</v>
+        <v>-47.36842105263136</v>
       </c>
       <c r="L91" t="n">
         <v>27.04000000000001</v>
@@ -5052,7 +5074,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>-19.04761904761907</v>
+        <v>-86.66666666666652</v>
       </c>
       <c r="L92" t="n">
         <v>26.95000000000002</v>
@@ -5103,7 +5125,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-19.04761904761907</v>
+        <v>-86.66666666666652</v>
       </c>
       <c r="L93" t="n">
         <v>26.82000000000001</v>
@@ -5154,7 +5176,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-25</v>
+        <v>-85.71428571428554</v>
       </c>
       <c r="L94" t="n">
         <v>26.69000000000002</v>
@@ -5205,7 +5227,7 @@
         <v>17.60000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-16.6666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>26.56000000000001</v>
@@ -5256,7 +5278,7 @@
         <v>17.60000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>-44.82758620689654</v>
+        <v>-100</v>
       </c>
       <c r="L96" t="n">
         <v>26.42000000000001</v>
@@ -5307,7 +5329,7 @@
         <v>17.60000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>-55.5555555555555</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>26.36000000000001</v>
@@ -5358,7 +5380,7 @@
         <v>17.70000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>-57.14285714285705</v>
+        <v>-100</v>
       </c>
       <c r="L98" t="n">
         <v>26.29000000000001</v>
@@ -5409,7 +5431,7 @@
         <v>17.70000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>-55.5555555555555</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>26.24000000000001</v>
@@ -5460,7 +5482,7 @@
         <v>17.70000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>-45.4545454545454</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>26.21000000000002</v>
@@ -5511,7 +5533,7 @@
         <v>17.80000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>-45.4545454545454</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L101" t="n">
         <v>26.20000000000001</v>
@@ -5562,7 +5584,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>-3.22580645161283</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L102" t="n">
         <v>26.28000000000001</v>
@@ -5613,7 +5635,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>-18.5185185185185</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L103" t="n">
         <v>26.36000000000001</v>
@@ -5664,7 +5686,7 @@
         <v>19.60000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-38.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>26.35000000000001</v>
@@ -5715,7 +5737,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-38.88888888888884</v>
+        <v>-4.761904761904665</v>
       </c>
       <c r="L105" t="n">
         <v>26.34000000000001</v>
@@ -5766,7 +5788,7 @@
         <v>19.80000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-38.88888888888897</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>26.34000000000001</v>
@@ -5817,7 +5839,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-24.13793103448278</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>26.33000000000002</v>
@@ -5868,7 +5890,7 @@
         <v>20.40000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-5.882352941176458</v>
+        <v>18.51851851851855</v>
       </c>
       <c r="L108" t="n">
         <v>26.38000000000002</v>
@@ -5919,7 +5941,7 @@
         <v>20.8</v>
       </c>
       <c r="K109" t="n">
-        <v>11.11111111111109</v>
+        <v>29.03225806451614</v>
       </c>
       <c r="L109" t="n">
         <v>26.47000000000002</v>
@@ -5970,7 +5992,7 @@
         <v>21.7</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.976744186046462</v>
+        <v>-2.564102564102513</v>
       </c>
       <c r="L110" t="n">
         <v>26.47000000000002</v>
@@ -6021,7 +6043,7 @@
         <v>21.8</v>
       </c>
       <c r="K111" t="n">
-        <v>-2.325581395348876</v>
+        <v>-29.03225806451629</v>
       </c>
       <c r="L111" t="n">
         <v>26.47000000000002</v>
@@ -6072,7 +6094,7 @@
         <v>22.5</v>
       </c>
       <c r="K112" t="n">
-        <v>11.99999999999998</v>
+        <v>-5.26315789473693</v>
       </c>
       <c r="L112" t="n">
         <v>26.45000000000001</v>
@@ -6123,7 +6145,7 @@
         <v>22.5</v>
       </c>
       <c r="K113" t="n">
-        <v>11.99999999999998</v>
+        <v>24.13793103448284</v>
       </c>
       <c r="L113" t="n">
         <v>26.43000000000001</v>
@@ -6174,7 +6196,7 @@
         <v>22.9</v>
       </c>
       <c r="K114" t="n">
-        <v>3.703703703703699</v>
+        <v>12.5</v>
       </c>
       <c r="L114" t="n">
         <v>26.46000000000001</v>
@@ -6276,7 +6298,7 @@
         <v>23.2</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>3.030303030302972</v>
       </c>
       <c r="L116" t="n">
         <v>26.47000000000001</v>
@@ -6327,7 +6349,7 @@
         <v>23.7</v>
       </c>
       <c r="K117" t="n">
-        <v>8.196721311475427</v>
+        <v>3.030303030302972</v>
       </c>
       <c r="L117" t="n">
         <v>26.53</v>
@@ -6378,7 +6400,7 @@
         <v>23.8</v>
       </c>
       <c r="K118" t="n">
-        <v>11.47540983606558</v>
+        <v>-6.666666666666651</v>
       </c>
       <c r="L118" t="n">
         <v>26.55</v>
@@ -6429,7 +6451,7 @@
         <v>23.8</v>
       </c>
       <c r="K119" t="n">
-        <v>11.47540983606558</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>26.53</v>
@@ -6480,7 +6502,7 @@
         <v>23.9</v>
       </c>
       <c r="K120" t="n">
-        <v>12.90322580645159</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>26.61</v>
@@ -6531,7 +6553,7 @@
         <v>24.2</v>
       </c>
       <c r="K121" t="n">
-        <v>6.250000000000046</v>
+        <v>-17.64705882352929</v>
       </c>
       <c r="L121" t="n">
         <v>26.65</v>
@@ -6582,7 +6604,7 @@
         <v>24.5</v>
       </c>
       <c r="K122" t="n">
-        <v>-13.79310344827591</v>
+        <v>-29.99999999999995</v>
       </c>
       <c r="L122" t="n">
         <v>26.59</v>
@@ -6633,7 +6655,7 @@
         <v>24.6</v>
       </c>
       <c r="K123" t="n">
-        <v>-15.25423728813566</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L123" t="n">
         <v>26.52</v>
@@ -6684,7 +6706,7 @@
         <v>24.9</v>
       </c>
       <c r="K124" t="n">
-        <v>5.660377358490594</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L124" t="n">
         <v>26.52</v>
@@ -6735,7 +6757,7 @@
         <v>24.9</v>
       </c>
       <c r="K125" t="n">
-        <v>7.692307692307682</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L125" t="n">
         <v>26.55</v>
@@ -6786,7 +6808,7 @@
         <v>25.1</v>
       </c>
       <c r="K126" t="n">
-        <v>9.43396226415096</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>26.6</v>
@@ -6837,7 +6859,7 @@
         <v>25.2</v>
       </c>
       <c r="K127" t="n">
-        <v>13.20754716981132</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>26.61000000000001</v>
@@ -6888,7 +6910,7 @@
         <v>25.3</v>
       </c>
       <c r="K128" t="n">
-        <v>6.122448979591789</v>
+        <v>6.66666666666654</v>
       </c>
       <c r="L128" t="n">
         <v>26.62</v>
@@ -6939,7 +6961,7 @@
         <v>25.3</v>
       </c>
       <c r="K129" t="n">
-        <v>-2.222222222222257</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>26.63</v>
@@ -6990,7 +7012,7 @@
         <v>25.3</v>
       </c>
       <c r="K130" t="n">
-        <v>22.22222222222218</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L130" t="n">
         <v>26.63</v>
@@ -7041,7 +7063,7 @@
         <v>25.4</v>
       </c>
       <c r="K131" t="n">
-        <v>22.22222222222225</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L131" t="n">
         <v>26.67</v>
@@ -7092,7 +7114,7 @@
         <v>25.4</v>
       </c>
       <c r="K132" t="n">
-        <v>3.448275862069016</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>26.74</v>
@@ -7143,7 +7165,7 @@
         <v>25.6</v>
       </c>
       <c r="K133" t="n">
-        <v>9.67741935483874</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>26.84</v>
@@ -7194,7 +7216,7 @@
         <v>25.6</v>
       </c>
       <c r="K134" t="n">
-        <v>25.92592592592591</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>26.91</v>
@@ -7245,7 +7267,7 @@
         <v>25.7</v>
       </c>
       <c r="K135" t="n">
-        <v>44.00000000000006</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>26.99</v>
@@ -7296,7 +7318,7 @@
         <v>25.8</v>
       </c>
       <c r="K136" t="n">
-        <v>46.15384615384616</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>27.06</v>
@@ -7347,7 +7369,7 @@
         <v>26</v>
       </c>
       <c r="K137" t="n">
-        <v>39.13043478260877</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>27.14</v>
@@ -7398,7 +7420,7 @@
         <v>26.1</v>
       </c>
       <c r="K138" t="n">
-        <v>39.13043478260868</v>
+        <v>100</v>
       </c>
       <c r="L138" t="n">
         <v>27.22</v>
@@ -7449,7 +7471,7 @@
         <v>26.3</v>
       </c>
       <c r="K139" t="n">
-        <v>43.99999999999998</v>
+        <v>100</v>
       </c>
       <c r="L139" t="n">
         <v>27.32</v>
@@ -7500,7 +7522,7 @@
         <v>26.4</v>
       </c>
       <c r="K140" t="n">
-        <v>36.00000000000014</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L140" t="n">
         <v>27.41</v>
@@ -7551,7 +7573,7 @@
         <v>26.9</v>
       </c>
       <c r="K141" t="n">
-        <v>25.92592592592591</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L141" t="n">
         <v>27.44</v>
@@ -7602,7 +7624,7 @@
         <v>27.2</v>
       </c>
       <c r="K142" t="n">
-        <v>48.14814814814819</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L142" t="n">
         <v>27.50000000000001</v>
@@ -7653,7 +7675,7 @@
         <v>27.9</v>
       </c>
       <c r="K143" t="n">
-        <v>21.21212121212119</v>
+        <v>-13.04347826086959</v>
       </c>
       <c r="L143" t="n">
         <v>27.47000000000001</v>
@@ -7704,7 +7726,7 @@
         <v>27.9</v>
       </c>
       <c r="K144" t="n">
-        <v>13.33333333333329</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L144" t="n">
         <v>27.44</v>
@@ -7755,7 +7777,7 @@
         <v>27.9</v>
       </c>
       <c r="K145" t="n">
-        <v>13.33333333333329</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L145" t="n">
         <v>27.4</v>
@@ -7806,7 +7828,7 @@
         <v>27.9</v>
       </c>
       <c r="K146" t="n">
-        <v>7.142857142857116</v>
+        <v>-36.84210526315807</v>
       </c>
       <c r="L146" t="n">
         <v>27.35</v>
@@ -7857,7 +7879,7 @@
         <v>28.2</v>
       </c>
       <c r="K147" t="n">
-        <v>13.33333333333329</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L147" t="n">
         <v>27.31</v>
@@ -7908,7 +7930,7 @@
         <v>28.8</v>
       </c>
       <c r="K148" t="n">
-        <v>-8.571428571428489</v>
+        <v>-51.99999999999989</v>
       </c>
       <c r="L148" t="n">
         <v>27.2</v>
@@ -7959,7 +7981,7 @@
         <v>28.9</v>
       </c>
       <c r="K149" t="n">
-        <v>-5.555555555555539</v>
+        <v>-44.00000000000006</v>
       </c>
       <c r="L149" t="n">
         <v>27.08</v>
@@ -8010,7 +8032,7 @@
         <v>28.9</v>
       </c>
       <c r="K150" t="n">
-        <v>-5.555555555555539</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L150" t="n">
         <v>26.97</v>
@@ -8061,7 +8083,7 @@
         <v>29.09999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>-2.702702702702744</v>
+        <v>-36.84210526315807</v>
       </c>
       <c r="L151" t="n">
         <v>26.93</v>
@@ -8112,7 +8134,7 @@
         <v>29.79999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>-18.18181818181822</v>
+        <v>-36.84210526315795</v>
       </c>
       <c r="L152" t="n">
         <v>26.78999999999999</v>
@@ -8163,7 +8185,7 @@
         <v>29.99999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>-18.18181818181822</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L153" t="n">
         <v>26.73999999999999</v>
@@ -8214,7 +8236,7 @@
         <v>30.2</v>
       </c>
       <c r="K154" t="n">
-        <v>-13.04347826086953</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L154" t="n">
         <v>26.71</v>
@@ -8265,7 +8287,7 @@
         <v>30.49999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>-8.333333333333389</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>26.71</v>
@@ -8316,7 +8338,7 @@
         <v>30.59999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>-12.49999999999997</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L156" t="n">
         <v>26.7</v>
@@ -8367,7 +8389,7 @@
         <v>30.69999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>-19.14893617021284</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L157" t="n">
         <v>26.65</v>
@@ -8418,7 +8440,7 @@
         <v>30.79999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-19.14893617021275</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L158" t="n">
         <v>26.67</v>
@@ -8469,7 +8491,7 @@
         <v>31.2</v>
       </c>
       <c r="K159" t="n">
-        <v>-30.61224489795919</v>
+        <v>-13.04347826086959</v>
       </c>
       <c r="L159" t="n">
         <v>26.64</v>
@@ -8520,7 +8542,7 @@
         <v>31.6</v>
       </c>
       <c r="K160" t="n">
-        <v>-19.23076923076922</v>
+        <v>-3.999999999999909</v>
       </c>
       <c r="L160" t="n">
         <v>26.65</v>
@@ -8571,7 +8593,7 @@
         <v>31.8</v>
       </c>
       <c r="K161" t="n">
-        <v>-6.122448979591848</v>
+        <v>39.99999999999996</v>
       </c>
       <c r="L161" t="n">
         <v>26.66</v>
@@ -8622,7 +8644,7 @@
         <v>32</v>
       </c>
       <c r="K162" t="n">
-        <v>-8.333333333333377</v>
+        <v>39.99999999999996</v>
       </c>
       <c r="L162" t="n">
         <v>26.76</v>
@@ -8673,7 +8695,7 @@
         <v>32.09999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>9.523809523809584</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L163" t="n">
         <v>26.85</v>
@@ -8724,7 +8746,7 @@
         <v>32.2</v>
       </c>
       <c r="K164" t="n">
-        <v>6.976744186046532</v>
+        <v>17.64705882352942</v>
       </c>
       <c r="L164" t="n">
         <v>26.91</v>
@@ -8775,7 +8797,7 @@
         <v>32.3</v>
       </c>
       <c r="K165" t="n">
-        <v>9.090909090909143</v>
+        <v>29.41176470588224</v>
       </c>
       <c r="L165" t="n">
         <v>26.95000000000001</v>
@@ -8826,7 +8848,7 @@
         <v>32.3</v>
       </c>
       <c r="K166" t="n">
-        <v>9.090909090909143</v>
+        <v>37.49999999999997</v>
       </c>
       <c r="L166" t="n">
         <v>27.00000000000001</v>
@@ -8877,7 +8899,7 @@
         <v>32.5</v>
       </c>
       <c r="K167" t="n">
-        <v>6.976744186046527</v>
+        <v>41.1764705882351</v>
       </c>
       <c r="L167" t="n">
         <v>27.08000000000001</v>
@@ -8928,7 +8950,7 @@
         <v>32.7</v>
       </c>
       <c r="K168" t="n">
-        <v>28.20512820512811</v>
+        <v>86.6666666666663</v>
       </c>
       <c r="L168" t="n">
         <v>27.17000000000001</v>
@@ -8979,7 +9001,7 @@
         <v>33.10000000000001</v>
       </c>
       <c r="K169" t="n">
-        <v>33.33333333333328</v>
+        <v>86.6666666666661</v>
       </c>
       <c r="L169" t="n">
         <v>27.34000000000001</v>
@@ -9030,7 +9052,7 @@
         <v>33.30000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>27.27272727272715</v>
+        <v>59.99999999999933</v>
       </c>
       <c r="L170" t="n">
         <v>27.45000000000001</v>
@@ -9081,7 +9103,7 @@
         <v>33.50000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>18.18181818181812</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L171" t="n">
         <v>27.52</v>
@@ -9132,7 +9154,7 @@
         <v>33.50000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>40.54054054054031</v>
+        <v>28.57142857142806</v>
       </c>
       <c r="L172" t="n">
         <v>27.57</v>
@@ -9183,7 +9205,7 @@
         <v>33.60000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>38.8888888888887</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L173" t="n">
         <v>27.62</v>
@@ -9234,7 +9256,7 @@
         <v>33.60000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>35.2941176470586</v>
+        <v>38.46153846153791</v>
       </c>
       <c r="L174" t="n">
         <v>27.68000000000001</v>
@@ -9285,7 +9307,7 @@
         <v>33.70000000000002</v>
       </c>
       <c r="K175" t="n">
-        <v>31.24999999999977</v>
+        <v>42.85714285714209</v>
       </c>
       <c r="L175" t="n">
         <v>27.74</v>
@@ -9336,7 +9358,7 @@
         <v>34.00000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>41.17647058823497</v>
+        <v>46.66666666666618</v>
       </c>
       <c r="L176" t="n">
         <v>27.83</v>
@@ -9387,7 +9409,7 @@
         <v>34.20000000000002</v>
       </c>
       <c r="K177" t="n">
-        <v>37.1428571428569</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L177" t="n">
         <v>27.88</v>
@@ -9438,7 +9460,7 @@
         <v>34.30000000000002</v>
       </c>
       <c r="K178" t="n">
-        <v>37.1428571428569</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>27.92000000000001</v>
@@ -9489,7 +9511,7 @@
         <v>34.70000000000002</v>
       </c>
       <c r="K179" t="n">
-        <v>37.14285714285694</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L179" t="n">
         <v>27.88</v>
@@ -9540,7 +9562,7 @@
         <v>34.70000000000002</v>
       </c>
       <c r="K180" t="n">
-        <v>29.0322580645159</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>27.86</v>
@@ -9591,7 +9613,7 @@
         <v>34.90000000000002</v>
       </c>
       <c r="K181" t="n">
-        <v>29.03225806451587</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L181" t="n">
         <v>27.88</v>
@@ -9642,7 +9664,7 @@
         <v>35.00000000000002</v>
       </c>
       <c r="K182" t="n">
-        <v>26.66666666666647</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L182" t="n">
         <v>27.91</v>
@@ -9693,7 +9715,7 @@
         <v>35.20000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>29.03225806451587</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L183" t="n">
         <v>27.95</v>
@@ -9744,7 +9766,7 @@
         <v>35.30000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>29.03225806451605</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L184" t="n">
         <v>27.98</v>
@@ -9795,7 +9817,7 @@
         <v>35.70000000000002</v>
       </c>
       <c r="K185" t="n">
-        <v>11.76470588235283</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L185" t="n">
         <v>27.96</v>
@@ -9846,7 +9868,7 @@
         <v>35.70000000000002</v>
       </c>
       <c r="K186" t="n">
-        <v>11.76470588235283</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L186" t="n">
         <v>27.91</v>
@@ -9897,7 +9919,7 @@
         <v>35.70000000000002</v>
       </c>
       <c r="K187" t="n">
-        <v>6.249999999999945</v>
+        <v>-28.57142857142875</v>
       </c>
       <c r="L187" t="n">
         <v>27.88</v>
@@ -9948,7 +9970,7 @@
         <v>35.80000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>-3.225806451612825</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L188" t="n">
         <v>27.83</v>
@@ -9999,7 +10021,7 @@
         <v>35.80000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>-18.5185185185185</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L189" t="n">
         <v>27.82</v>
@@ -10050,7 +10072,7 @@
         <v>36.50000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>-31.24999999999997</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L190" t="n">
         <v>27.74</v>
@@ -10101,7 +10123,7 @@
         <v>37.30000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L191" t="n">
         <v>27.72000000000001</v>
@@ -10152,7 +10174,7 @@
         <v>37.60000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>7.317073170731734</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L192" t="n">
         <v>27.72000000000001</v>
@@ -10203,7 +10225,7 @@
         <v>37.70000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>2.439024390243854</v>
+        <v>-8.333333333333456</v>
       </c>
       <c r="L193" t="n">
         <v>27.69</v>
@@ -10254,7 +10276,7 @@
         <v>37.70000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>2.439024390243854</v>
+        <v>10</v>
       </c>
       <c r="L194" t="n">
         <v>27.67</v>
@@ -10305,7 +10327,7 @@
         <v>37.70000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L195" t="n">
         <v>27.69</v>
@@ -10356,7 +10378,7 @@
         <v>37.90000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>-12.82051282051285</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>27.69</v>
@@ -10407,7 +10429,7 @@
         <v>38.40000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>-19.04761904761911</v>
+        <v>-15.3846153846155</v>
       </c>
       <c r="L197" t="n">
         <v>27.64</v>
@@ -10458,7 +10480,7 @@
         <v>38.80000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>-11.11111111111113</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>27.64</v>
@@ -10509,7 +10531,7 @@
         <v>39.00000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-6.976744186046532</v>
+        <v>20</v>
       </c>
       <c r="L199" t="n">
         <v>27.61999999999999</v>
@@ -10560,7 +10582,7 @@
         <v>39.10000000000002</v>
       </c>
       <c r="K200" t="n">
-        <v>-4.545454545454531</v>
+        <v>-11.11111111111104</v>
       </c>
       <c r="L200" t="n">
         <v>27.68</v>
@@ -10611,7 +10633,7 @@
         <v>39.20000000000002</v>
       </c>
       <c r="K201" t="n">
-        <v>-6.97674418604645</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L201" t="n">
         <v>27.67</v>
@@ -10662,7 +10684,7 @@
         <v>39.20000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>-9.523809523809499</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L202" t="n">
         <v>27.63</v>
@@ -10713,7 +10735,7 @@
         <v>39.20000000000002</v>
       </c>
       <c r="K203" t="n">
-        <v>-14.99999999999995</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L203" t="n">
         <v>27.6</v>
@@ -10764,7 +10786,7 @@
         <v>39.30000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>-10.00000000000005</v>
+        <v>-12.49999999999994</v>
       </c>
       <c r="L204" t="n">
         <v>27.58000000000001</v>

--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="C2" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>58151.8033</v>
+        <v>9495.7233</v>
       </c>
       <c r="G2" t="n">
-        <v>26.07166666666668</v>
+        <v>26.07833333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D3" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F3" t="n">
-        <v>9495.7233</v>
+        <v>22185.4615</v>
       </c>
       <c r="G3" t="n">
-        <v>26.07833333333334</v>
+        <v>26.08333333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>22185.4615</v>
+        <v>52965.9746</v>
       </c>
       <c r="G4" t="n">
-        <v>26.08333333333335</v>
+        <v>26.09333333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>52965.9746</v>
+        <v>47979.7896</v>
       </c>
       <c r="G5" t="n">
-        <v>26.09333333333335</v>
+        <v>26.10666666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>47979.7896</v>
+        <v>17586.7782</v>
       </c>
       <c r="G6" t="n">
-        <v>26.10666666666668</v>
+        <v>26.11166666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,16 +611,16 @@
         <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D7" t="n">
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F7" t="n">
-        <v>17586.7782</v>
+        <v>115943.9089</v>
       </c>
       <c r="G7" t="n">
         <v>26.11166666666668</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C8" t="n">
         <v>25.9</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E8" t="n">
         <v>25.9</v>
       </c>
       <c r="F8" t="n">
-        <v>115943.9089</v>
+        <v>76440.969</v>
       </c>
       <c r="G8" t="n">
-        <v>26.11166666666668</v>
+        <v>26.10833333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="E9" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>76440.969</v>
+        <v>7418.9676</v>
       </c>
       <c r="G9" t="n">
-        <v>26.10833333333335</v>
+        <v>26.10500000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>7418.9676</v>
+        <v>1582.5196</v>
       </c>
       <c r="G10" t="n">
-        <v>26.10500000000001</v>
+        <v>26.11000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1582.5196</v>
+        <v>216747.3928</v>
       </c>
       <c r="G11" t="n">
-        <v>26.11000000000001</v>
+        <v>26.10833333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="D12" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E12" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="F12" t="n">
-        <v>216747.3928</v>
+        <v>105475.9203</v>
       </c>
       <c r="G12" t="n">
-        <v>26.10833333333334</v>
+        <v>26.11666666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="D13" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E13" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="F13" t="n">
-        <v>105475.9203</v>
+        <v>233937.9898</v>
       </c>
       <c r="G13" t="n">
-        <v>26.11666666666668</v>
+        <v>26.12000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="C14" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D14" t="n">
         <v>25.4</v>
       </c>
-      <c r="D14" t="n">
-        <v>25.8</v>
-      </c>
       <c r="E14" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="F14" t="n">
-        <v>233937.9898</v>
+        <v>118032.9229</v>
       </c>
       <c r="G14" t="n">
-        <v>26.12000000000001</v>
+        <v>26.11833333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="C15" t="n">
         <v>25.2</v>
       </c>
       <c r="D15" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E15" t="n">
         <v>25.2</v>
       </c>
       <c r="F15" t="n">
-        <v>118032.9229</v>
+        <v>85211.2629</v>
       </c>
       <c r="G15" t="n">
-        <v>26.11833333333335</v>
+        <v>26.11500000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C16" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D16" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E16" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F16" t="n">
-        <v>85211.2629</v>
+        <v>1787.1703</v>
       </c>
       <c r="G16" t="n">
-        <v>26.11500000000001</v>
+        <v>26.10666666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E17" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="F17" t="n">
-        <v>1787.1703</v>
+        <v>24086.7736</v>
       </c>
       <c r="G17" t="n">
-        <v>26.10666666666668</v>
+        <v>26.10000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="C18" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D18" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E18" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="F18" t="n">
-        <v>24086.7736</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>26.10000000000002</v>
+        <v>26.10166666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="C19" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="D19" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="E19" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>16469.1216</v>
       </c>
       <c r="G19" t="n">
-        <v>26.10166666666668</v>
+        <v>26.09500000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="C20" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D20" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="E20" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="F20" t="n">
-        <v>16469.1216</v>
+        <v>7358.3157</v>
       </c>
       <c r="G20" t="n">
-        <v>26.09500000000002</v>
+        <v>26.08166666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="C21" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D21" t="n">
         <v>25.3</v>
       </c>
-      <c r="D21" t="n">
-        <v>25.5</v>
-      </c>
       <c r="E21" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F21" t="n">
-        <v>7358.3157</v>
+        <v>99586.3921</v>
       </c>
       <c r="G21" t="n">
-        <v>26.08166666666668</v>
+        <v>26.06666666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C22" t="n">
         <v>25.2</v>
       </c>
       <c r="D22" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E22" t="n">
         <v>25.2</v>
       </c>
       <c r="F22" t="n">
-        <v>99586.3921</v>
+        <v>2103.0497</v>
       </c>
       <c r="G22" t="n">
-        <v>26.06666666666668</v>
+        <v>26.05666666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="C23" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D23" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E23" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="F23" t="n">
-        <v>2103.0497</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>26.05666666666669</v>
+        <v>26.05333333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
@@ -1221,13 +1221,17 @@
         <v>26.05333333333335</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>25.6</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1250,20 +1254,28 @@
         <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>22977</v>
       </c>
       <c r="G25" t="n">
-        <v>26.05333333333335</v>
+        <v>26.04166666666669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>26</v>
+      </c>
+      <c r="K25" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1285,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F26" t="n">
-        <v>22977</v>
+        <v>1037.409</v>
       </c>
       <c r="G26" t="n">
-        <v>26.04166666666669</v>
+        <v>26.02333333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1309,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1326,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="C27" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="D27" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="E27" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1037.409</v>
+        <v>1376.353707751938</v>
       </c>
       <c r="G27" t="n">
-        <v>26.02333333333335</v>
+        <v>26.01166666666669</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C28" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E28" t="n">
         <v>25.8</v>
       </c>
-      <c r="D28" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>25.7</v>
-      </c>
       <c r="F28" t="n">
-        <v>1376.353707751938</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>26.01166666666669</v>
+        <v>26.01000000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="C29" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E29" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>400.0337</v>
       </c>
       <c r="G29" t="n">
-        <v>26.01000000000002</v>
+        <v>26.00166666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D30" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F30" t="n">
-        <v>400.0337</v>
+        <v>400</v>
       </c>
       <c r="G30" t="n">
-        <v>26.00166666666669</v>
+        <v>26.00333333333335</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1466,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="C31" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="D31" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="E31" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="F31" t="n">
-        <v>400</v>
+        <v>1787.1704</v>
       </c>
       <c r="G31" t="n">
-        <v>26.00333333333335</v>
+        <v>26.00500000000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1501,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="C32" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="D32" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="E32" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>1787.1704</v>
+        <v>1387.17</v>
       </c>
       <c r="G32" t="n">
-        <v>26.00500000000002</v>
+        <v>26.01500000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1536,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="C33" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="D33" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="E33" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="F33" t="n">
-        <v>1387.17</v>
+        <v>2509.7656</v>
       </c>
       <c r="G33" t="n">
-        <v>26.01500000000002</v>
+        <v>26.01333333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="C34" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="E34" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="F34" t="n">
-        <v>2509.7656</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>26.01333333333335</v>
+        <v>26.01666666666669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,19 +1606,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C35" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D35" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E35" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>248.9189</v>
       </c>
       <c r="G35" t="n">
         <v>26.01666666666669</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="C36" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="D36" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E36" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="F36" t="n">
-        <v>248.9189</v>
+        <v>102541.7205</v>
       </c>
       <c r="G36" t="n">
-        <v>26.01666666666669</v>
+        <v>26.01000000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="C37" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D37" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="E37" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F37" t="n">
-        <v>102541.7205</v>
+        <v>26</v>
       </c>
       <c r="G37" t="n">
-        <v>26.01000000000002</v>
+        <v>26.00166666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C38" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D38" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E38" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F38" t="n">
-        <v>26</v>
+        <v>12384.9802</v>
       </c>
       <c r="G38" t="n">
-        <v>26.00166666666668</v>
+        <v>25.99833333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1758,10 @@
         <v>25.3</v>
       </c>
       <c r="F39" t="n">
-        <v>12384.9802</v>
+        <v>3937.1163</v>
       </c>
       <c r="G39" t="n">
-        <v>25.99833333333335</v>
+        <v>25.99000000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1793,10 @@
         <v>25.3</v>
       </c>
       <c r="F40" t="n">
-        <v>3937.1163</v>
+        <v>11623.0469</v>
       </c>
       <c r="G40" t="n">
-        <v>25.99000000000002</v>
+        <v>25.98000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1828,10 @@
         <v>25.3</v>
       </c>
       <c r="F41" t="n">
-        <v>11623.0469</v>
+        <v>7088.713</v>
       </c>
       <c r="G41" t="n">
-        <v>25.98000000000001</v>
+        <v>25.97000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C42" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D42" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E42" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F42" t="n">
-        <v>7088.713</v>
+        <v>20333.933</v>
       </c>
       <c r="G42" t="n">
-        <v>25.97000000000001</v>
+        <v>25.95833333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1886,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="C43" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="D43" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="E43" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="F43" t="n">
-        <v>20333.933</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>25.95833333333335</v>
+        <v>25.95166666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1921,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C44" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="D44" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E44" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>17.7555</v>
       </c>
       <c r="G44" t="n">
-        <v>25.95166666666668</v>
+        <v>25.94500000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,29 +1959,35 @@
         <v>25.5</v>
       </c>
       <c r="C45" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="D45" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="E45" t="n">
         <v>25.5</v>
       </c>
       <c r="F45" t="n">
-        <v>17.7555</v>
+        <v>3908.75</v>
       </c>
       <c r="G45" t="n">
-        <v>25.94500000000001</v>
+        <v>25.93166666666668</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>25.5</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,32 +1997,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C46" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>427.8882</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25.91666666666668</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>25.6</v>
       </c>
-      <c r="D46" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3908.75</v>
-      </c>
-      <c r="G46" t="n">
-        <v>25.93166666666668</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2050,10 @@
         <v>25.4</v>
       </c>
       <c r="F47" t="n">
-        <v>427.8882</v>
+        <v>14231.211</v>
       </c>
       <c r="G47" t="n">
-        <v>25.91666666666668</v>
+        <v>25.89000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2063,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2077,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C48" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D48" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E48" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F48" t="n">
-        <v>14231.211</v>
+        <v>11243.4778</v>
       </c>
       <c r="G48" t="n">
-        <v>25.89000000000001</v>
+        <v>25.86500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2102,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2116,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C49" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D49" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E49" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F49" t="n">
-        <v>11243.4778</v>
+        <v>23</v>
       </c>
       <c r="G49" t="n">
-        <v>25.86500000000001</v>
+        <v>25.84000000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2141,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2155,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C50" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="D50" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E50" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="F50" t="n">
-        <v>23</v>
+        <v>30677.6175</v>
       </c>
       <c r="G50" t="n">
-        <v>25.84000000000001</v>
+        <v>25.81500000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2180,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2151,19 +2197,19 @@
         <v>25.3</v>
       </c>
       <c r="C51" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D51" t="n">
         <v>25.3</v>
       </c>
       <c r="E51" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="F51" t="n">
-        <v>30677.6175</v>
+        <v>1180</v>
       </c>
       <c r="G51" t="n">
-        <v>25.81500000000001</v>
+        <v>25.80000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2219,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2245,10 @@
         <v>25.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1180</v>
+        <v>61.6625</v>
       </c>
       <c r="G52" t="n">
-        <v>25.80000000000001</v>
+        <v>25.77666666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2258,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2230,10 +2284,10 @@
         <v>25.3</v>
       </c>
       <c r="F53" t="n">
-        <v>61.6625</v>
+        <v>1626.7591</v>
       </c>
       <c r="G53" t="n">
-        <v>25.77666666666668</v>
+        <v>25.75000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2297,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2311,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C54" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D54" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E54" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F54" t="n">
-        <v>1626.7591</v>
+        <v>15.3732</v>
       </c>
       <c r="G54" t="n">
-        <v>25.75000000000001</v>
+        <v>25.72000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2336,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2362,10 @@
         <v>25.4</v>
       </c>
       <c r="F55" t="n">
-        <v>15.3732</v>
+        <v>30</v>
       </c>
       <c r="G55" t="n">
-        <v>25.72000000000001</v>
+        <v>25.69000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2375,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2326,29 +2392,35 @@
         <v>25.4</v>
       </c>
       <c r="C56" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="D56" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="E56" t="n">
         <v>25.4</v>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>71910.96831328125</v>
       </c>
       <c r="G56" t="n">
-        <v>25.69000000000001</v>
+        <v>25.67166666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>25.4</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,7 +2430,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="C57" t="n">
         <v>25.6</v>
@@ -2367,23 +2439,29 @@
         <v>25.6</v>
       </c>
       <c r="E57" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="F57" t="n">
-        <v>71910.96831328125</v>
+        <v>15.9319</v>
       </c>
       <c r="G57" t="n">
-        <v>25.67166666666667</v>
+        <v>25.65</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>25.6</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2396,19 +2474,19 @@
         <v>25.6</v>
       </c>
       <c r="C58" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="D58" t="n">
-        <v>25.6</v>
+        <v>27.5</v>
       </c>
       <c r="E58" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F58" t="n">
-        <v>15.9319</v>
+        <v>287184.2196867188</v>
       </c>
       <c r="G58" t="n">
-        <v>25.65</v>
+        <v>25.63833333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2496,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2510,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="C59" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="D59" t="n">
         <v>27.5</v>
       </c>
       <c r="E59" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="F59" t="n">
-        <v>287184.2196867188</v>
+        <v>16011</v>
       </c>
       <c r="G59" t="n">
-        <v>25.63833333333334</v>
+        <v>25.64833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2535,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2466,19 +2552,19 @@
         <v>26.1</v>
       </c>
       <c r="C60" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D60" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E60" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F60" t="n">
-        <v>16011</v>
+        <v>13000</v>
       </c>
       <c r="G60" t="n">
-        <v>25.64833333333333</v>
+        <v>25.66</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2574,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2588,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="C61" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D61" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E61" t="n">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="F61" t="n">
-        <v>13000</v>
+        <v>4011</v>
       </c>
       <c r="G61" t="n">
-        <v>25.66</v>
+        <v>25.67333333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,17 +2613,19 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.5</v>
+        <v>26.2</v>
       </c>
       <c r="C62" t="n">
         <v>27.3</v>
@@ -2542,19 +2634,19 @@
         <v>27.3</v>
       </c>
       <c r="E62" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="F62" t="n">
-        <v>4011</v>
+        <v>21500</v>
       </c>
       <c r="G62" t="n">
-        <v>25.67333333333334</v>
+        <v>25.695</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2568,22 +2660,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C63" t="n">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="D63" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E63" t="n">
         <v>26</v>
       </c>
       <c r="F63" t="n">
-        <v>21500</v>
+        <v>42663</v>
       </c>
       <c r="G63" t="n">
-        <v>25.695</v>
+        <v>25.69666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,19 +2695,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C64" t="n">
         <v>26</v>
       </c>
       <c r="D64" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="E64" t="n">
         <v>26</v>
       </c>
       <c r="F64" t="n">
-        <v>42663</v>
+        <v>6000</v>
       </c>
       <c r="G64" t="n">
         <v>25.69666666666667</v>
@@ -2638,22 +2730,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D65" t="n">
         <v>26.2</v>
       </c>
       <c r="E65" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F65" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="n">
-        <v>25.69666666666667</v>
+        <v>25.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2765,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C66" t="n">
         <v>26.2</v>
       </c>
       <c r="D66" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E66" t="n">
         <v>26.2</v>
       </c>
-      <c r="E66" t="n">
-        <v>26.1</v>
-      </c>
       <c r="F66" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="G66" t="n">
-        <v>25.7</v>
+        <v>25.70333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2800,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C67" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="D67" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="E67" t="n">
         <v>26.2</v>
       </c>
       <c r="F67" t="n">
-        <v>24000</v>
+        <v>14010</v>
       </c>
       <c r="G67" t="n">
-        <v>25.70333333333333</v>
+        <v>25.71666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2835,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="C68" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D68" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E68" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F68" t="n">
-        <v>14010</v>
+        <v>3668.16</v>
       </c>
       <c r="G68" t="n">
-        <v>25.71666666666667</v>
+        <v>25.72666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2873,19 @@
         <v>26.5</v>
       </c>
       <c r="C69" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D69" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E69" t="n">
         <v>26.5</v>
       </c>
       <c r="F69" t="n">
-        <v>3668.16</v>
+        <v>27617</v>
       </c>
       <c r="G69" t="n">
-        <v>25.72666666666667</v>
+        <v>25.73833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2905,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C70" t="n">
         <v>26.7</v>
@@ -2822,13 +2914,13 @@
         <v>26.7</v>
       </c>
       <c r="E70" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F70" t="n">
-        <v>27617</v>
+        <v>7762.9104</v>
       </c>
       <c r="G70" t="n">
-        <v>25.73833333333333</v>
+        <v>25.75</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2940,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C71" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E71" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F71" t="n">
-        <v>7762.9104</v>
+        <v>3100</v>
       </c>
       <c r="G71" t="n">
-        <v>25.75</v>
+        <v>25.77333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2975,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D72" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E72" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="F72" t="n">
-        <v>3100</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>25.77333333333333</v>
+        <v>25.79666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +3022,10 @@
         <v>27.1</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>89094.5202</v>
       </c>
       <c r="G73" t="n">
-        <v>25.79666666666667</v>
+        <v>25.825</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3045,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C74" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D74" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E74" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F74" t="n">
-        <v>89094.5202</v>
+        <v>1600</v>
       </c>
       <c r="G74" t="n">
-        <v>25.825</v>
+        <v>25.86</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3080,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="C75" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="D75" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E75" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="F75" t="n">
-        <v>1600</v>
+        <v>17000</v>
       </c>
       <c r="G75" t="n">
-        <v>25.86</v>
+        <v>25.88666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3115,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C76" t="n">
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="D76" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E76" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="F76" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="G76" t="n">
-        <v>25.88666666666666</v>
+        <v>25.92666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3150,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C77" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D77" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E77" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F77" t="n">
-        <v>24000</v>
+        <v>15800</v>
       </c>
       <c r="G77" t="n">
-        <v>25.92666666666666</v>
+        <v>25.96833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,7 +3185,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C78" t="n">
         <v>27.7</v>
@@ -3102,13 +3194,13 @@
         <v>27.7</v>
       </c>
       <c r="E78" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F78" t="n">
-        <v>15800</v>
+        <v>55662.0216</v>
       </c>
       <c r="G78" t="n">
-        <v>25.96833333333333</v>
+        <v>26.00333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3220,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C79" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D79" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E79" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F79" t="n">
-        <v>55662.0216</v>
+        <v>43585.6434</v>
       </c>
       <c r="G79" t="n">
-        <v>26.00333333333333</v>
+        <v>26.04333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3255,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C80" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="D80" t="n">
         <v>27.6</v>
       </c>
       <c r="E80" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F80" t="n">
-        <v>43585.6434</v>
+        <v>9424.519899999999</v>
       </c>
       <c r="G80" t="n">
-        <v>26.04333333333333</v>
+        <v>26.07333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3290,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C81" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D81" t="n">
         <v>27.6</v>
       </c>
       <c r="E81" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F81" t="n">
-        <v>9424.519899999999</v>
+        <v>62665.966</v>
       </c>
       <c r="G81" t="n">
-        <v>26.07333333333333</v>
+        <v>26.10666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3337,10 @@
         <v>27.2</v>
       </c>
       <c r="F82" t="n">
-        <v>62665.966</v>
+        <v>405.1101</v>
       </c>
       <c r="G82" t="n">
-        <v>26.10666666666666</v>
+        <v>26.13999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,10 +3360,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C83" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D83" t="n">
         <v>27.6</v>
@@ -3280,10 +3372,10 @@
         <v>27.2</v>
       </c>
       <c r="F83" t="n">
-        <v>405.1101</v>
+        <v>321.0692</v>
       </c>
       <c r="G83" t="n">
-        <v>26.13999999999999</v>
+        <v>26.17333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3407,10 @@
         <v>27.2</v>
       </c>
       <c r="F84" t="n">
-        <v>321.0692</v>
+        <v>805.9122</v>
       </c>
       <c r="G84" t="n">
-        <v>26.17333333333333</v>
+        <v>26.19999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3430,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C85" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D85" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E85" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F85" t="n">
-        <v>805.9122</v>
+        <v>8584.235699999999</v>
       </c>
       <c r="G85" t="n">
-        <v>26.19999999999999</v>
+        <v>26.22499999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3465,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C86" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D86" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E86" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F86" t="n">
-        <v>8584.235699999999</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>26.22499999999999</v>
+        <v>26.25999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3500,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C87" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="D87" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E87" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>146492.479</v>
       </c>
       <c r="G87" t="n">
-        <v>26.25999999999999</v>
+        <v>26.27666666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3535,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="C88" t="n">
         <v>26.8</v>
       </c>
       <c r="D88" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="E88" t="n">
         <v>26.8</v>
       </c>
       <c r="F88" t="n">
-        <v>146492.479</v>
+        <v>5094.1791</v>
       </c>
       <c r="G88" t="n">
-        <v>26.27666666666666</v>
+        <v>26.29166666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="C89" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="D89" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="E89" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="F89" t="n">
-        <v>5094.1791</v>
+        <v>569</v>
       </c>
       <c r="G89" t="n">
-        <v>26.29166666666665</v>
+        <v>26.30166666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3608,19 @@
         <v>26.6</v>
       </c>
       <c r="C90" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="D90" t="n">
         <v>26.6</v>
       </c>
       <c r="E90" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="F90" t="n">
-        <v>569</v>
+        <v>19497.1593</v>
       </c>
       <c r="G90" t="n">
-        <v>26.30166666666666</v>
+        <v>26.30666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3640,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="C91" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D91" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="E91" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F91" t="n">
-        <v>19497.1593</v>
+        <v>405.6009</v>
       </c>
       <c r="G91" t="n">
-        <v>26.30666666666666</v>
+        <v>26.31666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3687,10 @@
         <v>26.3</v>
       </c>
       <c r="F92" t="n">
-        <v>405.6009</v>
+        <v>8617.0299</v>
       </c>
       <c r="G92" t="n">
-        <v>26.31666666666666</v>
+        <v>26.31999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3722,10 @@
         <v>26.3</v>
       </c>
       <c r="F93" t="n">
-        <v>8617.0299</v>
+        <v>15403.3575</v>
       </c>
       <c r="G93" t="n">
-        <v>26.31999999999999</v>
+        <v>26.33166666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3757,10 @@
         <v>26.3</v>
       </c>
       <c r="F94" t="n">
-        <v>15403.3575</v>
+        <v>20732.2402</v>
       </c>
       <c r="G94" t="n">
-        <v>26.33166666666666</v>
+        <v>26.33666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3783,19 @@
         <v>26.3</v>
       </c>
       <c r="C95" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D95" t="n">
         <v>26.3</v>
       </c>
       <c r="E95" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F95" t="n">
-        <v>20732.2402</v>
+        <v>91864.9676</v>
       </c>
       <c r="G95" t="n">
-        <v>26.33666666666666</v>
+        <v>26.34166666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3815,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C96" t="n">
         <v>26.2</v>
       </c>
       <c r="D96" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E96" t="n">
         <v>26.2</v>
       </c>
       <c r="F96" t="n">
-        <v>91864.9676</v>
+        <v>14862.8059</v>
       </c>
       <c r="G96" t="n">
-        <v>26.34166666666665</v>
+        <v>26.35333333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3862,10 @@
         <v>26.2</v>
       </c>
       <c r="F97" t="n">
-        <v>14862.8059</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>26.35333333333332</v>
+        <v>26.36666666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3885,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C98" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D98" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E98" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>4858.7854</v>
       </c>
       <c r="G98" t="n">
-        <v>26.36666666666666</v>
+        <v>26.37999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3932,10 @@
         <v>26.1</v>
       </c>
       <c r="F99" t="n">
-        <v>4858.7854</v>
+        <v>2503.4912</v>
       </c>
       <c r="G99" t="n">
-        <v>26.37999999999999</v>
+        <v>26.39333333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3967,10 @@
         <v>26.1</v>
       </c>
       <c r="F100" t="n">
-        <v>2503.4912</v>
+        <v>11057.1334</v>
       </c>
       <c r="G100" t="n">
-        <v>26.39333333333332</v>
+        <v>26.40666666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3990,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C101" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D101" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E101" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F101" t="n">
-        <v>11057.1334</v>
+        <v>135573.8106</v>
       </c>
       <c r="G101" t="n">
-        <v>26.40666666666665</v>
+        <v>26.42166666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4025,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C102" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="D102" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="E102" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F102" t="n">
-        <v>135573.8106</v>
+        <v>16611.14920738007</v>
       </c>
       <c r="G102" t="n">
-        <v>26.42166666666666</v>
+        <v>26.45333333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,7 +4060,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="C103" t="n">
         <v>27.1</v>
@@ -3977,13 +4069,13 @@
         <v>27.1</v>
       </c>
       <c r="E103" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="F103" t="n">
-        <v>16611.14920738007</v>
+        <v>16585.26929630996</v>
       </c>
       <c r="G103" t="n">
-        <v>26.45333333333332</v>
+        <v>26.48166666666665</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4095,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C104" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="D104" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="E104" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="F104" t="n">
-        <v>16585.26929630996</v>
+        <v>56922.7285</v>
       </c>
       <c r="G104" t="n">
-        <v>26.48166666666665</v>
+        <v>26.49333333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4130,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="C105" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D105" t="n">
         <v>26.2</v>
       </c>
-      <c r="D105" t="n">
-        <v>26.5</v>
-      </c>
       <c r="E105" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F105" t="n">
-        <v>56922.7285</v>
+        <v>28461.3642</v>
       </c>
       <c r="G105" t="n">
-        <v>26.49333333333332</v>
+        <v>26.50166666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4168,19 @@
         <v>26.2</v>
       </c>
       <c r="C106" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D106" t="n">
         <v>26.2</v>
       </c>
       <c r="E106" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F106" t="n">
-        <v>28461.3642</v>
+        <v>4955.2004</v>
       </c>
       <c r="G106" t="n">
-        <v>26.50166666666665</v>
+        <v>26.51499999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4200,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C107" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D107" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E107" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F107" t="n">
-        <v>4955.2004</v>
+        <v>23506.1639</v>
       </c>
       <c r="G107" t="n">
-        <v>26.51499999999998</v>
+        <v>26.52666666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4235,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C108" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="D108" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="E108" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="F108" t="n">
-        <v>23506.1639</v>
+        <v>12315</v>
       </c>
       <c r="G108" t="n">
-        <v>26.52666666666665</v>
+        <v>26.54833333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,35 +4270,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C109" t="n">
+        <v>27</v>
+      </c>
+      <c r="D109" t="n">
+        <v>27</v>
+      </c>
+      <c r="E109" t="n">
         <v>26.6</v>
       </c>
-      <c r="D109" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E109" t="n">
-        <v>26.4</v>
-      </c>
       <c r="F109" t="n">
-        <v>12315</v>
+        <v>9404</v>
       </c>
       <c r="G109" t="n">
-        <v>26.54833333333331</v>
+        <v>26.57499999999998</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
@@ -4217,40 +4305,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="C110" t="n">
-        <v>27</v>
+        <v>26.1</v>
       </c>
       <c r="D110" t="n">
-        <v>27</v>
+        <v>26.1</v>
       </c>
       <c r="E110" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="F110" t="n">
-        <v>9404</v>
+        <v>67428.6361</v>
       </c>
       <c r="G110" t="n">
-        <v>26.57499999999998</v>
+        <v>26.58999999999997</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K110" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4260,40 +4340,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C111" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D111" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E111" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F111" t="n">
-        <v>67428.6361</v>
+        <v>18.7193</v>
       </c>
       <c r="G111" t="n">
-        <v>26.58999999999997</v>
+        <v>26.60499999999998</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>27</v>
-      </c>
-      <c r="K111" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4303,22 +4375,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="C112" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="D112" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="E112" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F112" t="n">
-        <v>18.7193</v>
+        <v>1980</v>
       </c>
       <c r="G112" t="n">
-        <v>26.60499999999998</v>
+        <v>26.63166666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4350,10 +4422,10 @@
         <v>26.9</v>
       </c>
       <c r="F113" t="n">
-        <v>1980</v>
+        <v>7010</v>
       </c>
       <c r="G113" t="n">
-        <v>26.63166666666665</v>
+        <v>26.65833333333331</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4373,22 +4445,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C114" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="D114" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="E114" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="F114" t="n">
-        <v>7010</v>
+        <v>3773.584</v>
       </c>
       <c r="G114" t="n">
-        <v>26.65833333333331</v>
+        <v>26.67666666666664</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4408,22 +4480,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="C115" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="D115" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="E115" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F115" t="n">
-        <v>3773.584</v>
+        <v>4315.7579</v>
       </c>
       <c r="G115" t="n">
-        <v>26.67666666666664</v>
+        <v>26.68999999999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4443,22 +4515,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C116" t="n">
         <v>26.2</v>
       </c>
       <c r="D116" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E116" t="n">
         <v>26.2</v>
       </c>
       <c r="F116" t="n">
-        <v>4315.7579</v>
+        <v>34075.3506</v>
       </c>
       <c r="G116" t="n">
-        <v>26.68999999999998</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4478,22 +4550,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="C117" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="D117" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="E117" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="F117" t="n">
-        <v>34075.3506</v>
+        <v>4160.2326</v>
       </c>
       <c r="G117" t="n">
-        <v>26.69999999999998</v>
+        <v>26.71833333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4513,22 +4585,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C118" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="D118" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E118" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F118" t="n">
-        <v>4160.2326</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>26.71833333333332</v>
+        <v>26.73166666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4548,7 +4620,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C119" t="n">
         <v>26.8</v>
@@ -4557,13 +4629,13 @@
         <v>26.8</v>
       </c>
       <c r="E119" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>16578.04192089552</v>
       </c>
       <c r="G119" t="n">
-        <v>26.73166666666665</v>
+        <v>26.71999999999998</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4583,22 +4655,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C120" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E120" t="n">
         <v>26.8</v>
       </c>
-      <c r="D120" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E120" t="n">
-        <v>26.7</v>
-      </c>
       <c r="F120" t="n">
-        <v>16578.04192089552</v>
+        <v>27019.82335456916</v>
       </c>
       <c r="G120" t="n">
-        <v>26.71999999999998</v>
+        <v>26.71166666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4618,22 +4690,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C121" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="D121" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E121" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="F121" t="n">
-        <v>27019.82335456916</v>
+        <v>519.3223</v>
       </c>
       <c r="G121" t="n">
-        <v>26.71166666666665</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4653,22 +4725,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C122" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="D122" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="E122" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="F122" t="n">
-        <v>519.3223</v>
+        <v>15828.1662</v>
       </c>
       <c r="G122" t="n">
-        <v>26.69999999999998</v>
+        <v>26.68333333333332</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4688,22 +4760,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C123" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D123" t="n">
         <v>26.3</v>
       </c>
-      <c r="D123" t="n">
-        <v>26.4</v>
-      </c>
       <c r="E123" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F123" t="n">
-        <v>15828.1662</v>
+        <v>10000.2444</v>
       </c>
       <c r="G123" t="n">
-        <v>26.68333333333332</v>
+        <v>26.68666666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4723,22 +4795,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="C124" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D124" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="E124" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F124" t="n">
-        <v>10000.2444</v>
+        <v>3067.3233</v>
       </c>
       <c r="G124" t="n">
-        <v>26.68666666666665</v>
+        <v>26.69499999999998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4758,22 +4830,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C125" t="n">
         <v>26.5</v>
       </c>
       <c r="D125" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="E125" t="n">
         <v>26.5</v>
       </c>
       <c r="F125" t="n">
-        <v>3067.3233</v>
+        <v>1013.2037</v>
       </c>
       <c r="G125" t="n">
-        <v>26.69499999999998</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4793,22 +4865,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C126" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D126" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E126" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="F126" t="n">
-        <v>1013.2037</v>
+        <v>8325</v>
       </c>
       <c r="G126" t="n">
-        <v>26.69999999999998</v>
+        <v>26.70833333333331</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4828,22 +4900,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="C127" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E127" t="n">
         <v>26.7</v>
       </c>
-      <c r="D127" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E127" t="n">
-        <v>26.6</v>
-      </c>
       <c r="F127" t="n">
-        <v>8325</v>
+        <v>780</v>
       </c>
       <c r="G127" t="n">
-        <v>26.70833333333331</v>
+        <v>26.70999999999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4866,19 +4938,19 @@
         <v>26.7</v>
       </c>
       <c r="C128" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D128" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E128" t="n">
         <v>26.7</v>
       </c>
       <c r="F128" t="n">
-        <v>780</v>
+        <v>19751.52691561338</v>
       </c>
       <c r="G128" t="n">
-        <v>26.70999999999998</v>
+        <v>26.71666666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4898,7 +4970,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C129" t="n">
         <v>26.9</v>
@@ -4907,13 +4979,13 @@
         <v>26.9</v>
       </c>
       <c r="E129" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F129" t="n">
-        <v>19751.52691561338</v>
+        <v>33187.3977</v>
       </c>
       <c r="G129" t="n">
-        <v>26.71666666666665</v>
+        <v>26.71999999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4945,10 +5017,10 @@
         <v>26.9</v>
       </c>
       <c r="F130" t="n">
-        <v>33187.3977</v>
+        <v>32065</v>
       </c>
       <c r="G130" t="n">
-        <v>26.71999999999998</v>
+        <v>26.72333333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4971,16 +5043,16 @@
         <v>26.9</v>
       </c>
       <c r="C131" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="D131" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E131" t="n">
         <v>26.9</v>
       </c>
       <c r="F131" t="n">
-        <v>32065</v>
+        <v>45575.2592</v>
       </c>
       <c r="G131" t="n">
         <v>26.72333333333331</v>
@@ -5003,7 +5075,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C132" t="n">
         <v>27</v>
@@ -5012,13 +5084,13 @@
         <v>27</v>
       </c>
       <c r="E132" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="F132" t="n">
-        <v>45575.2592</v>
+        <v>15545.96870892193</v>
       </c>
       <c r="G132" t="n">
-        <v>26.72333333333331</v>
+        <v>26.72166666666665</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5038,22 +5110,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C133" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D133" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E133" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F133" t="n">
-        <v>15545.96870892193</v>
+        <v>49730.5955</v>
       </c>
       <c r="G133" t="n">
-        <v>26.72166666666665</v>
+        <v>26.72333333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5073,7 +5145,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C134" t="n">
         <v>27.2</v>
@@ -5082,13 +5154,13 @@
         <v>27.2</v>
       </c>
       <c r="E134" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F134" t="n">
-        <v>49730.5955</v>
+        <v>71359.0514</v>
       </c>
       <c r="G134" t="n">
-        <v>26.72333333333332</v>
+        <v>26.72166666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5111,19 +5183,19 @@
         <v>27.2</v>
       </c>
       <c r="C135" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D135" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E135" t="n">
         <v>27.2</v>
       </c>
       <c r="F135" t="n">
-        <v>71359.0514</v>
+        <v>17804.125</v>
       </c>
       <c r="G135" t="n">
-        <v>26.72166666666665</v>
+        <v>26.72999999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5143,22 +5215,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C136" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D136" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E136" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F136" t="n">
-        <v>17804.125</v>
+        <v>109</v>
       </c>
       <c r="G136" t="n">
-        <v>26.72999999999999</v>
+        <v>26.72833333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5181,19 +5253,19 @@
         <v>27.4</v>
       </c>
       <c r="C137" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D137" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E137" t="n">
         <v>27.4</v>
       </c>
       <c r="F137" t="n">
-        <v>109</v>
+        <v>7000</v>
       </c>
       <c r="G137" t="n">
-        <v>26.72833333333332</v>
+        <v>26.72666666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5213,19 +5285,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C138" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E138" t="n">
         <v>27.6</v>
       </c>
-      <c r="D138" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.4</v>
-      </c>
       <c r="F138" t="n">
-        <v>7000</v>
+        <v>153211.6672</v>
       </c>
       <c r="G138" t="n">
         <v>26.72666666666665</v>
@@ -5248,22 +5320,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C139" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E139" t="n">
         <v>27.7</v>
       </c>
-      <c r="D139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.6</v>
-      </c>
       <c r="F139" t="n">
-        <v>153211.6672</v>
+        <v>106865.9616</v>
       </c>
       <c r="G139" t="n">
-        <v>26.72666666666665</v>
+        <v>26.73166666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5283,22 +5355,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C140" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D140" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E140" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F140" t="n">
-        <v>106865.9616</v>
+        <v>1000</v>
       </c>
       <c r="G140" t="n">
-        <v>26.73166666666666</v>
+        <v>26.74333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5318,22 +5390,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C141" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D141" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E141" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F141" t="n">
-        <v>1000</v>
+        <v>11140.5075</v>
       </c>
       <c r="G141" t="n">
-        <v>26.74333333333333</v>
+        <v>26.74499999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5356,19 +5428,19 @@
         <v>27.3</v>
       </c>
       <c r="C142" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D142" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E142" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F142" t="n">
-        <v>11140.5075</v>
+        <v>22722.4973</v>
       </c>
       <c r="G142" t="n">
-        <v>26.74499999999999</v>
+        <v>26.75166666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5388,22 +5460,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C143" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="D143" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E143" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="F143" t="n">
-        <v>22722.4973</v>
+        <v>64082.2474</v>
       </c>
       <c r="G143" t="n">
-        <v>26.75166666666665</v>
+        <v>26.73999999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5423,22 +5495,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="C144" t="n">
         <v>26.9</v>
       </c>
       <c r="D144" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E144" t="n">
         <v>26.9</v>
       </c>
       <c r="F144" t="n">
-        <v>64082.2474</v>
+        <v>46213.1834</v>
       </c>
       <c r="G144" t="n">
-        <v>26.73999999999999</v>
+        <v>26.72833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5464,16 +5536,16 @@
         <v>26.9</v>
       </c>
       <c r="D145" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E145" t="n">
         <v>26.9</v>
       </c>
       <c r="F145" t="n">
-        <v>46213.1834</v>
+        <v>31821.3868</v>
       </c>
       <c r="G145" t="n">
-        <v>26.72833333333333</v>
+        <v>26.71833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5493,22 +5565,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C146" t="n">
         <v>26.9</v>
       </c>
       <c r="D146" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E146" t="n">
         <v>26.9</v>
       </c>
       <c r="F146" t="n">
-        <v>31821.3868</v>
+        <v>54054.9853</v>
       </c>
       <c r="G146" t="n">
-        <v>26.71833333333333</v>
+        <v>26.70666666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5528,22 +5600,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="C147" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="D147" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E147" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="F147" t="n">
-        <v>54054.9853</v>
+        <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>26.70666666666666</v>
+        <v>26.71333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5563,22 +5635,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="C148" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="D148" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="E148" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>4241.2634</v>
       </c>
       <c r="G148" t="n">
-        <v>26.71333333333333</v>
+        <v>26.71</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5598,22 +5670,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="C149" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D149" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E149" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F149" t="n">
-        <v>4241.2634</v>
+        <v>68195.24340000001</v>
       </c>
       <c r="G149" t="n">
-        <v>26.71</v>
+        <v>26.71166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5633,7 +5705,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C150" t="n">
         <v>26.7</v>
@@ -5642,13 +5714,13 @@
         <v>26.7</v>
       </c>
       <c r="E150" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="F150" t="n">
-        <v>68195.24340000001</v>
+        <v>51194.2703</v>
       </c>
       <c r="G150" t="n">
-        <v>26.71166666666667</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5668,22 +5740,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="C151" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D151" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E151" t="n">
-        <v>26.1</v>
+        <v>26.9</v>
       </c>
       <c r="F151" t="n">
-        <v>51194.2703</v>
+        <v>10</v>
       </c>
       <c r="G151" t="n">
-        <v>26.71666666666667</v>
+        <v>26.72666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5703,22 +5775,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="C152" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="D152" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="E152" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>4232.263</v>
       </c>
       <c r="G152" t="n">
-        <v>26.72666666666667</v>
+        <v>26.725</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5738,22 +5810,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C153" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D153" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E153" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F153" t="n">
-        <v>4232.263</v>
+        <v>1011</v>
       </c>
       <c r="G153" t="n">
-        <v>26.725</v>
+        <v>26.72666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5773,22 +5845,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C154" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E154" t="n">
         <v>26.4</v>
       </c>
-      <c r="D154" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E154" t="n">
-        <v>26.3</v>
-      </c>
       <c r="F154" t="n">
-        <v>1011</v>
+        <v>8000</v>
       </c>
       <c r="G154" t="n">
-        <v>26.72666666666667</v>
+        <v>26.73166666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5808,22 +5880,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="C155" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D155" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E155" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="F155" t="n">
-        <v>8000</v>
+        <v>30</v>
       </c>
       <c r="G155" t="n">
-        <v>26.73166666666667</v>
+        <v>26.74333333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5843,22 +5915,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C156" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D156" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E156" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F156" t="n">
-        <v>30</v>
+        <v>5910</v>
       </c>
       <c r="G156" t="n">
-        <v>26.74333333333334</v>
+        <v>26.75333333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5878,22 +5950,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C157" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D157" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E157" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F157" t="n">
-        <v>5910</v>
+        <v>1980</v>
       </c>
       <c r="G157" t="n">
-        <v>26.75333333333334</v>
+        <v>26.76166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5913,22 +5985,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C158" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="D158" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E158" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F158" t="n">
-        <v>1980</v>
+        <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>26.76166666666667</v>
+        <v>26.77333333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5948,22 +6020,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="C159" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="D159" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="E159" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="F159" t="n">
-        <v>10</v>
+        <v>1469.0477</v>
       </c>
       <c r="G159" t="n">
-        <v>26.77333333333334</v>
+        <v>26.77833333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5983,22 +6055,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="C160" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="D160" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="E160" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="F160" t="n">
-        <v>1469.0477</v>
+        <v>1688.0634</v>
       </c>
       <c r="G160" t="n">
-        <v>26.77833333333334</v>
+        <v>26.79000000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6018,22 +6090,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C161" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="D161" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="E161" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F161" t="n">
-        <v>1688.0634</v>
+        <v>70588.6951</v>
       </c>
       <c r="G161" t="n">
-        <v>26.79000000000001</v>
+        <v>26.80333333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6053,22 +6125,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C162" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D162" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E162" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="F162" t="n">
-        <v>70588.6951</v>
+        <v>22</v>
       </c>
       <c r="G162" t="n">
-        <v>26.80333333333334</v>
+        <v>26.80500000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6088,22 +6160,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C163" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D163" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E163" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F163" t="n">
-        <v>22</v>
+        <v>364.4102</v>
       </c>
       <c r="G163" t="n">
-        <v>26.80500000000001</v>
+        <v>26.80833333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6126,19 +6198,19 @@
         <v>27.3</v>
       </c>
       <c r="C164" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D164" t="n">
         <v>27.3</v>
       </c>
       <c r="E164" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F164" t="n">
-        <v>364.4102</v>
+        <v>1958.4798</v>
       </c>
       <c r="G164" t="n">
-        <v>26.80833333333334</v>
+        <v>26.82500000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6161,19 +6233,19 @@
         <v>27.3</v>
       </c>
       <c r="C165" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D165" t="n">
         <v>27.3</v>
       </c>
       <c r="E165" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F165" t="n">
-        <v>1958.4798</v>
+        <v>3341.6769</v>
       </c>
       <c r="G165" t="n">
-        <v>26.82500000000001</v>
+        <v>26.84500000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6205,10 +6277,10 @@
         <v>27.3</v>
       </c>
       <c r="F166" t="n">
-        <v>3341.6769</v>
+        <v>1147.8121</v>
       </c>
       <c r="G166" t="n">
-        <v>26.84500000000001</v>
+        <v>26.86333333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6231,19 +6303,19 @@
         <v>27.3</v>
       </c>
       <c r="C167" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D167" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E167" t="n">
         <v>27.3</v>
       </c>
       <c r="F167" t="n">
-        <v>1147.8121</v>
+        <v>46343.1862</v>
       </c>
       <c r="G167" t="n">
-        <v>26.86333333333334</v>
+        <v>26.88666666666668</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6263,22 +6335,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C168" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D168" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E168" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F168" t="n">
-        <v>46343.1862</v>
+        <v>11</v>
       </c>
       <c r="G168" t="n">
-        <v>26.88666666666668</v>
+        <v>26.90500000000002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6298,22 +6370,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C169" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="D169" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="E169" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F169" t="n">
-        <v>11</v>
+        <v>42328.1856</v>
       </c>
       <c r="G169" t="n">
-        <v>26.90500000000002</v>
+        <v>26.92333333333335</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6333,22 +6405,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C170" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="D170" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E170" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F170" t="n">
-        <v>42328.1856</v>
+        <v>19327.5117</v>
       </c>
       <c r="G170" t="n">
-        <v>26.92333333333335</v>
+        <v>26.95333333333335</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6368,22 +6440,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C171" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D171" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E171" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F171" t="n">
-        <v>19327.5117</v>
+        <v>10830.3249</v>
       </c>
       <c r="G171" t="n">
-        <v>26.95333333333335</v>
+        <v>26.97833333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6415,10 +6487,10 @@
         <v>27.7</v>
       </c>
       <c r="F172" t="n">
-        <v>10830.3249</v>
+        <v>85431.7001</v>
       </c>
       <c r="G172" t="n">
-        <v>26.97833333333335</v>
+        <v>26.99166666666668</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6438,22 +6510,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C173" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D173" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E173" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F173" t="n">
-        <v>85431.7001</v>
+        <v>11430.8606</v>
       </c>
       <c r="G173" t="n">
-        <v>26.99166666666668</v>
+        <v>27.00666666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6479,16 +6551,16 @@
         <v>27.8</v>
       </c>
       <c r="D174" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E174" t="n">
         <v>27.8</v>
       </c>
       <c r="F174" t="n">
-        <v>11430.8606</v>
+        <v>45935.0413</v>
       </c>
       <c r="G174" t="n">
-        <v>27.00666666666668</v>
+        <v>27.02833333333335</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6508,22 +6580,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="C175" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D175" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E175" t="n">
         <v>27.9</v>
       </c>
-      <c r="E175" t="n">
-        <v>27.8</v>
-      </c>
       <c r="F175" t="n">
-        <v>45935.0413</v>
+        <v>91695.5295</v>
       </c>
       <c r="G175" t="n">
-        <v>27.02833333333335</v>
+        <v>27.05666666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6543,22 +6615,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="C176" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="D176" t="n">
         <v>28.2</v>
       </c>
       <c r="E176" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="F176" t="n">
-        <v>91695.5295</v>
+        <v>3253.2624</v>
       </c>
       <c r="G176" t="n">
-        <v>27.05666666666668</v>
+        <v>27.09000000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6578,22 +6650,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="C177" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="D177" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E177" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="F177" t="n">
-        <v>3253.2624</v>
+        <v>56192.3214</v>
       </c>
       <c r="G177" t="n">
-        <v>27.09000000000001</v>
+        <v>27.11166666666668</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6613,22 +6685,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="C178" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D178" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E178" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="F178" t="n">
-        <v>56192.3214</v>
+        <v>1686.3078</v>
       </c>
       <c r="G178" t="n">
-        <v>27.11166666666668</v>
+        <v>27.13333333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6720,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C179" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="D179" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E179" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="F179" t="n">
-        <v>1686.3078</v>
+        <v>67082.43610000001</v>
       </c>
       <c r="G179" t="n">
-        <v>27.13333333333334</v>
+        <v>27.14833333333335</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6692,13 +6764,13 @@
         <v>28</v>
       </c>
       <c r="E180" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F180" t="n">
-        <v>67082.43610000001</v>
+        <v>9387.483200000001</v>
       </c>
       <c r="G180" t="n">
-        <v>27.14833333333335</v>
+        <v>27.16166666666668</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6718,22 +6790,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C181" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D181" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E181" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="F181" t="n">
-        <v>9387.483200000001</v>
+        <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>27.16166666666668</v>
+        <v>27.18333333333335</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6753,22 +6825,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C182" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D182" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E182" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="F182" t="n">
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>27.18333333333335</v>
+        <v>27.21166666666668</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6791,19 +6863,19 @@
         <v>28</v>
       </c>
       <c r="C183" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="D183" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E183" t="n">
         <v>28</v>
       </c>
       <c r="F183" t="n">
-        <v>10</v>
+        <v>99704.9767</v>
       </c>
       <c r="G183" t="n">
-        <v>27.21166666666668</v>
+        <v>27.24500000000002</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6818,41 +6890,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>28</v>
-      </c>
-      <c r="C184" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D184" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E184" t="n">
-        <v>28</v>
-      </c>
-      <c r="F184" t="n">
-        <v>99704.9767</v>
-      </c>
-      <c r="G184" t="n">
-        <v>27.24500000000002</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D2" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>9495.7233</v>
+        <v>58151.8033</v>
       </c>
       <c r="G2" t="n">
-        <v>26.07833333333334</v>
+        <v>26.07166666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>22185.4615</v>
+        <v>9495.7233</v>
       </c>
       <c r="G3" t="n">
-        <v>26.08333333333335</v>
+        <v>26.07833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F4" t="n">
-        <v>52965.9746</v>
+        <v>22185.4615</v>
       </c>
       <c r="G4" t="n">
-        <v>26.09333333333335</v>
+        <v>26.08333333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>47979.7896</v>
+        <v>52965.9746</v>
       </c>
       <c r="G5" t="n">
-        <v>26.10666666666668</v>
+        <v>26.09333333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>17586.7782</v>
+        <v>47979.7896</v>
       </c>
       <c r="G6" t="n">
-        <v>26.11166666666668</v>
+        <v>26.10666666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,16 +611,16 @@
         <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>115943.9089</v>
+        <v>17586.7782</v>
       </c>
       <c r="G7" t="n">
         <v>26.11166666666668</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>25.9</v>
       </c>
       <c r="D8" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>25.9</v>
       </c>
       <c r="F8" t="n">
-        <v>76440.969</v>
+        <v>115943.9089</v>
       </c>
       <c r="G8" t="n">
-        <v>26.10833333333335</v>
+        <v>26.11166666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D9" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F9" t="n">
-        <v>7418.9676</v>
+        <v>76440.969</v>
       </c>
       <c r="G9" t="n">
-        <v>26.10500000000001</v>
+        <v>26.10833333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C10" t="n">
         <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>1582.5196</v>
+        <v>7418.9676</v>
       </c>
       <c r="G10" t="n">
-        <v>26.11000000000001</v>
+        <v>26.10500000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>216747.3928</v>
+        <v>1582.5196</v>
       </c>
       <c r="G11" t="n">
-        <v>26.10833333333334</v>
+        <v>26.11000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="D12" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E12" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="F12" t="n">
-        <v>105475.9203</v>
+        <v>216747.3928</v>
       </c>
       <c r="G12" t="n">
-        <v>26.11666666666668</v>
+        <v>26.10833333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="D13" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E13" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="F13" t="n">
-        <v>233937.9898</v>
+        <v>105475.9203</v>
       </c>
       <c r="G13" t="n">
-        <v>26.12000000000001</v>
+        <v>26.11666666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C14" t="n">
         <v>25.4</v>
       </c>
-      <c r="C14" t="n">
-        <v>25.2</v>
-      </c>
       <c r="D14" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E14" t="n">
         <v>25.4</v>
       </c>
-      <c r="E14" t="n">
-        <v>25.2</v>
-      </c>
       <c r="F14" t="n">
-        <v>118032.9229</v>
+        <v>233937.9898</v>
       </c>
       <c r="G14" t="n">
-        <v>26.11833333333335</v>
+        <v>26.12000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="C15" t="n">
         <v>25.2</v>
       </c>
       <c r="D15" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="E15" t="n">
         <v>25.2</v>
       </c>
       <c r="F15" t="n">
-        <v>85211.2629</v>
+        <v>118032.9229</v>
       </c>
       <c r="G15" t="n">
-        <v>26.11500000000001</v>
+        <v>26.11833333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="F16" t="n">
-        <v>1787.1703</v>
+        <v>85211.2629</v>
       </c>
       <c r="G16" t="n">
-        <v>26.10666666666668</v>
+        <v>26.11500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D17" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E17" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F17" t="n">
-        <v>24086.7736</v>
+        <v>1787.1703</v>
       </c>
       <c r="G17" t="n">
-        <v>26.10000000000002</v>
+        <v>26.10666666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="C18" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="D18" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="E18" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>24086.7736</v>
       </c>
       <c r="G18" t="n">
-        <v>26.10166666666668</v>
+        <v>26.10000000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="C19" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D19" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E19" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="F19" t="n">
-        <v>16469.1216</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>26.09500000000002</v>
+        <v>26.10166666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D20" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="E20" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F20" t="n">
-        <v>7358.3157</v>
+        <v>16469.1216</v>
       </c>
       <c r="G20" t="n">
-        <v>26.08166666666668</v>
+        <v>26.09500000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C21" t="n">
         <v>25.3</v>
       </c>
-      <c r="C21" t="n">
-        <v>25.2</v>
-      </c>
       <c r="D21" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E21" t="n">
         <v>25.3</v>
       </c>
-      <c r="E21" t="n">
-        <v>25.2</v>
-      </c>
       <c r="F21" t="n">
-        <v>99586.3921</v>
+        <v>7358.3157</v>
       </c>
       <c r="G21" t="n">
-        <v>26.06666666666668</v>
+        <v>26.08166666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C22" t="n">
         <v>25.2</v>
       </c>
       <c r="D22" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E22" t="n">
         <v>25.2</v>
       </c>
       <c r="F22" t="n">
-        <v>2103.0497</v>
+        <v>99586.3921</v>
       </c>
       <c r="G22" t="n">
-        <v>26.05666666666669</v>
+        <v>26.06666666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="D23" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="E23" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>2103.0497</v>
       </c>
       <c r="G23" t="n">
-        <v>26.05333333333335</v>
+        <v>26.05666666666669</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
@@ -1221,17 +1221,13 @@
         <v>26.05333333333335</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1254,28 +1250,20 @@
         <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>22977</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>26.04166666666669</v>
+        <v>26.05333333333335</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>26</v>
-      </c>
-      <c r="K25" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="E26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>1037.409</v>
+        <v>22977</v>
       </c>
       <c r="G26" t="n">
-        <v>26.02333333333335</v>
+        <v>26.04166666666669</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1309,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1326,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C27" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="D27" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="E27" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1376.353707751938</v>
+        <v>1037.409</v>
       </c>
       <c r="G27" t="n">
-        <v>26.01166666666669</v>
+        <v>26.02333333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1361,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C28" t="n">
         <v>25.8</v>
       </c>
-      <c r="C28" t="n">
-        <v>25.9</v>
-      </c>
       <c r="D28" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E28" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>1376.353707751938</v>
       </c>
       <c r="G28" t="n">
-        <v>26.01000000000002</v>
+        <v>26.01166666666669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1396,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D29" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F29" t="n">
-        <v>400.0337</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>26.00166666666669</v>
+        <v>26.01000000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1431,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>400.0337</v>
       </c>
       <c r="G30" t="n">
-        <v>26.00333333333335</v>
+        <v>26.00166666666669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1466,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="C31" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="D31" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="E31" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="F31" t="n">
-        <v>1787.1704</v>
+        <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>26.00500000000002</v>
+        <v>26.00333333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1501,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="C32" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="D32" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1387.17</v>
+        <v>1787.1704</v>
       </c>
       <c r="G32" t="n">
-        <v>26.01500000000002</v>
+        <v>26.00500000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="C33" t="n">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="D33" t="n">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="E33" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="F33" t="n">
-        <v>2509.7656</v>
+        <v>1387.17</v>
       </c>
       <c r="G33" t="n">
-        <v>26.01333333333335</v>
+        <v>26.01500000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1571,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="E34" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>2509.7656</v>
       </c>
       <c r="G34" t="n">
-        <v>26.01666666666669</v>
+        <v>26.01333333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1606,19 +1588,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="C35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F35" t="n">
-        <v>248.9189</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
         <v>26.01666666666669</v>
@@ -1641,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="C36" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D36" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="E36" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F36" t="n">
-        <v>102541.7205</v>
+        <v>248.9189</v>
       </c>
       <c r="G36" t="n">
-        <v>26.01000000000002</v>
+        <v>26.01666666666669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1676,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="C37" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="D37" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="E37" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>102541.7205</v>
       </c>
       <c r="G37" t="n">
-        <v>26.00166666666668</v>
+        <v>26.01000000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1711,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C38" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D38" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E38" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F38" t="n">
-        <v>12384.9802</v>
+        <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>25.99833333333335</v>
+        <v>26.00166666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,10 +1740,10 @@
         <v>25.3</v>
       </c>
       <c r="F39" t="n">
-        <v>3937.1163</v>
+        <v>12384.9802</v>
       </c>
       <c r="G39" t="n">
-        <v>25.99000000000002</v>
+        <v>25.99833333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1793,10 +1775,10 @@
         <v>25.3</v>
       </c>
       <c r="F40" t="n">
-        <v>11623.0469</v>
+        <v>3937.1163</v>
       </c>
       <c r="G40" t="n">
-        <v>25.98000000000001</v>
+        <v>25.99000000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1828,10 +1810,10 @@
         <v>25.3</v>
       </c>
       <c r="F41" t="n">
-        <v>7088.713</v>
+        <v>11623.0469</v>
       </c>
       <c r="G41" t="n">
-        <v>25.97000000000001</v>
+        <v>25.98000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1851,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C42" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D42" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E42" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="F42" t="n">
-        <v>20333.933</v>
+        <v>7088.713</v>
       </c>
       <c r="G42" t="n">
-        <v>25.95833333333335</v>
+        <v>25.97000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="C43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="D43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>20333.933</v>
       </c>
       <c r="G43" t="n">
-        <v>25.95166666666668</v>
+        <v>25.95833333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1921,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C44" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D44" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E44" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F44" t="n">
-        <v>17.7555</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>25.94500000000001</v>
+        <v>25.95166666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1959,35 +1941,29 @@
         <v>25.5</v>
       </c>
       <c r="C45" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D45" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E45" t="n">
         <v>25.5</v>
       </c>
       <c r="F45" t="n">
-        <v>3908.75</v>
+        <v>17.7555</v>
       </c>
       <c r="G45" t="n">
-        <v>25.93166666666668</v>
+        <v>25.94500000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,38 +1973,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C46" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="D46" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="E46" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="F46" t="n">
-        <v>427.8882</v>
+        <v>3908.75</v>
       </c>
       <c r="G46" t="n">
-        <v>25.91666666666668</v>
+        <v>25.93166666666668</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2050,10 +2020,10 @@
         <v>25.4</v>
       </c>
       <c r="F47" t="n">
-        <v>14231.211</v>
+        <v>427.8882</v>
       </c>
       <c r="G47" t="n">
-        <v>25.89000000000001</v>
+        <v>25.91666666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2063,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2077,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C48" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D48" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E48" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F48" t="n">
-        <v>11243.4778</v>
+        <v>14231.211</v>
       </c>
       <c r="G48" t="n">
-        <v>25.86500000000001</v>
+        <v>25.89000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2102,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C49" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D49" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E49" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F49" t="n">
-        <v>23</v>
+        <v>11243.4778</v>
       </c>
       <c r="G49" t="n">
-        <v>25.84000000000001</v>
+        <v>25.86500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2141,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2155,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C50" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="D50" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E50" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="F50" t="n">
-        <v>30677.6175</v>
+        <v>23</v>
       </c>
       <c r="G50" t="n">
-        <v>25.81500000000001</v>
+        <v>25.84000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2180,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2197,19 +2151,19 @@
         <v>25.3</v>
       </c>
       <c r="C51" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D51" t="n">
         <v>25.3</v>
       </c>
       <c r="E51" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F51" t="n">
-        <v>1180</v>
+        <v>30677.6175</v>
       </c>
       <c r="G51" t="n">
-        <v>25.80000000000001</v>
+        <v>25.81500000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2219,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2245,10 +2195,10 @@
         <v>25.3</v>
       </c>
       <c r="F52" t="n">
-        <v>61.6625</v>
+        <v>1180</v>
       </c>
       <c r="G52" t="n">
-        <v>25.77666666666668</v>
+        <v>25.80000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2258,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2284,10 +2230,10 @@
         <v>25.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1626.7591</v>
+        <v>61.6625</v>
       </c>
       <c r="G53" t="n">
-        <v>25.75000000000001</v>
+        <v>25.77666666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2297,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2311,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C54" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D54" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E54" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F54" t="n">
-        <v>15.3732</v>
+        <v>1626.7591</v>
       </c>
       <c r="G54" t="n">
-        <v>25.72000000000001</v>
+        <v>25.75000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2336,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2362,10 +2300,10 @@
         <v>25.4</v>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>15.3732</v>
       </c>
       <c r="G55" t="n">
-        <v>25.69000000000001</v>
+        <v>25.72000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2375,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2392,35 +2326,29 @@
         <v>25.4</v>
       </c>
       <c r="C56" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D56" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="E56" t="n">
         <v>25.4</v>
       </c>
       <c r="F56" t="n">
-        <v>71910.96831328125</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>25.67166666666667</v>
+        <v>25.69000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2430,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="C57" t="n">
         <v>25.6</v>
@@ -2439,29 +2367,23 @@
         <v>25.6</v>
       </c>
       <c r="E57" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="F57" t="n">
-        <v>15.9319</v>
+        <v>71910.96831328125</v>
       </c>
       <c r="G57" t="n">
-        <v>25.65</v>
+        <v>25.67166666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2474,19 +2396,19 @@
         <v>25.6</v>
       </c>
       <c r="C58" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="D58" t="n">
-        <v>27.5</v>
+        <v>25.6</v>
       </c>
       <c r="E58" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="F58" t="n">
-        <v>287184.2196867188</v>
+        <v>15.9319</v>
       </c>
       <c r="G58" t="n">
-        <v>25.63833333333334</v>
+        <v>25.65</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2496,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2510,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="C59" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="D59" t="n">
         <v>27.5</v>
       </c>
       <c r="E59" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F59" t="n">
-        <v>16011</v>
+        <v>287184.2196867188</v>
       </c>
       <c r="G59" t="n">
-        <v>25.64833333333333</v>
+        <v>25.63833333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2535,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2552,19 +2466,19 @@
         <v>26.1</v>
       </c>
       <c r="C60" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D60" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E60" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F60" t="n">
-        <v>13000</v>
+        <v>16011</v>
       </c>
       <c r="G60" t="n">
-        <v>25.66</v>
+        <v>25.64833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2574,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="C61" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D61" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E61" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="F61" t="n">
-        <v>4011</v>
+        <v>13000</v>
       </c>
       <c r="G61" t="n">
-        <v>25.67333333333334</v>
+        <v>25.66</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2613,19 +2523,17 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="C62" t="n">
         <v>27.3</v>
@@ -2634,13 +2542,13 @@
         <v>27.3</v>
       </c>
       <c r="E62" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F62" t="n">
-        <v>21500</v>
+        <v>4011</v>
       </c>
       <c r="G62" t="n">
-        <v>25.695</v>
+        <v>25.67333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2660,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="D63" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E63" t="n">
         <v>26</v>
       </c>
       <c r="F63" t="n">
-        <v>42663</v>
+        <v>21500</v>
       </c>
       <c r="G63" t="n">
-        <v>25.69666666666667</v>
+        <v>25.695</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2695,19 +2603,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C64" t="n">
         <v>26</v>
       </c>
       <c r="D64" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="E64" t="n">
         <v>26</v>
       </c>
       <c r="F64" t="n">
-        <v>6000</v>
+        <v>42663</v>
       </c>
       <c r="G64" t="n">
         <v>25.69666666666667</v>
@@ -2730,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D65" t="n">
         <v>26.2</v>
       </c>
       <c r="E65" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="G65" t="n">
-        <v>25.7</v>
+        <v>25.69666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2765,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C66" t="n">
         <v>26.2</v>
       </c>
       <c r="D66" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E66" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F66" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="n">
-        <v>25.70333333333333</v>
+        <v>25.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2800,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C67" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="D67" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="E67" t="n">
         <v>26.2</v>
       </c>
       <c r="F67" t="n">
-        <v>14010</v>
+        <v>24000</v>
       </c>
       <c r="G67" t="n">
-        <v>25.71666666666667</v>
+        <v>25.70333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2835,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="C68" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D68" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E68" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F68" t="n">
-        <v>3668.16</v>
+        <v>14010</v>
       </c>
       <c r="G68" t="n">
-        <v>25.72666666666667</v>
+        <v>25.71666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2873,19 +2781,19 @@
         <v>26.5</v>
       </c>
       <c r="C69" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D69" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E69" t="n">
         <v>26.5</v>
       </c>
       <c r="F69" t="n">
-        <v>27617</v>
+        <v>3668.16</v>
       </c>
       <c r="G69" t="n">
-        <v>25.73833333333333</v>
+        <v>25.72666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2905,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="C70" t="n">
         <v>26.7</v>
@@ -2914,13 +2822,13 @@
         <v>26.7</v>
       </c>
       <c r="E70" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="F70" t="n">
-        <v>7762.9104</v>
+        <v>27617</v>
       </c>
       <c r="G70" t="n">
-        <v>25.75</v>
+        <v>25.73833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2940,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E71" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F71" t="n">
-        <v>3100</v>
+        <v>7762.9104</v>
       </c>
       <c r="G71" t="n">
-        <v>25.77333333333333</v>
+        <v>25.75</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2975,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="C72" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E72" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>3100</v>
       </c>
       <c r="G72" t="n">
-        <v>25.79666666666667</v>
+        <v>25.77333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3022,10 +2930,10 @@
         <v>27.1</v>
       </c>
       <c r="F73" t="n">
-        <v>89094.5202</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>25.825</v>
+        <v>25.79666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3045,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C74" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D74" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E74" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F74" t="n">
-        <v>1600</v>
+        <v>89094.5202</v>
       </c>
       <c r="G74" t="n">
-        <v>25.86</v>
+        <v>25.825</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3080,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C75" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="D75" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="E75" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="F75" t="n">
-        <v>17000</v>
+        <v>1600</v>
       </c>
       <c r="G75" t="n">
-        <v>25.88666666666666</v>
+        <v>25.86</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3115,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="C76" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="D76" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="E76" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="F76" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="G76" t="n">
-        <v>25.92666666666666</v>
+        <v>25.88666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3150,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C77" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D77" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E77" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F77" t="n">
-        <v>15800</v>
+        <v>24000</v>
       </c>
       <c r="G77" t="n">
-        <v>25.96833333333333</v>
+        <v>25.92666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3185,7 +3093,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C78" t="n">
         <v>27.7</v>
@@ -3194,13 +3102,13 @@
         <v>27.7</v>
       </c>
       <c r="E78" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F78" t="n">
-        <v>55662.0216</v>
+        <v>15800</v>
       </c>
       <c r="G78" t="n">
-        <v>26.00333333333333</v>
+        <v>25.96833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3220,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C79" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D79" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E79" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F79" t="n">
-        <v>43585.6434</v>
+        <v>55662.0216</v>
       </c>
       <c r="G79" t="n">
-        <v>26.04333333333333</v>
+        <v>26.00333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3255,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C80" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="D80" t="n">
         <v>27.6</v>
       </c>
       <c r="E80" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F80" t="n">
-        <v>9424.519899999999</v>
+        <v>43585.6434</v>
       </c>
       <c r="G80" t="n">
-        <v>26.07333333333333</v>
+        <v>26.04333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3290,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C81" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D81" t="n">
         <v>27.6</v>
       </c>
       <c r="E81" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F81" t="n">
-        <v>62665.966</v>
+        <v>9424.519899999999</v>
       </c>
       <c r="G81" t="n">
-        <v>26.10666666666666</v>
+        <v>26.07333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3337,10 +3245,10 @@
         <v>27.2</v>
       </c>
       <c r="F82" t="n">
-        <v>405.1101</v>
+        <v>62665.966</v>
       </c>
       <c r="G82" t="n">
-        <v>26.13999999999999</v>
+        <v>26.10666666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3360,10 +3268,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C83" t="n">
         <v>27.2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>27.6</v>
       </c>
       <c r="D83" t="n">
         <v>27.6</v>
@@ -3372,10 +3280,10 @@
         <v>27.2</v>
       </c>
       <c r="F83" t="n">
-        <v>321.0692</v>
+        <v>405.1101</v>
       </c>
       <c r="G83" t="n">
-        <v>26.17333333333333</v>
+        <v>26.13999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3407,10 +3315,10 @@
         <v>27.2</v>
       </c>
       <c r="F84" t="n">
-        <v>805.9122</v>
+        <v>321.0692</v>
       </c>
       <c r="G84" t="n">
-        <v>26.19999999999999</v>
+        <v>26.17333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3430,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C85" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D85" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F85" t="n">
-        <v>8584.235699999999</v>
+        <v>805.9122</v>
       </c>
       <c r="G85" t="n">
-        <v>26.22499999999999</v>
+        <v>26.19999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3465,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C86" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D86" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E86" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F86" t="n">
-        <v>11</v>
+        <v>8584.235699999999</v>
       </c>
       <c r="G86" t="n">
-        <v>26.25999999999999</v>
+        <v>26.22499999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3500,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C87" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="D87" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E87" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="F87" t="n">
-        <v>146492.479</v>
+        <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>26.27666666666666</v>
+        <v>26.25999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3535,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="C88" t="n">
         <v>26.8</v>
       </c>
       <c r="D88" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E88" t="n">
         <v>26.8</v>
       </c>
       <c r="F88" t="n">
-        <v>5094.1791</v>
+        <v>146492.479</v>
       </c>
       <c r="G88" t="n">
-        <v>26.29166666666665</v>
+        <v>26.27666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="C89" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="D89" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="E89" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F89" t="n">
-        <v>569</v>
+        <v>5094.1791</v>
       </c>
       <c r="G89" t="n">
-        <v>26.30166666666666</v>
+        <v>26.29166666666665</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3608,19 +3516,19 @@
         <v>26.6</v>
       </c>
       <c r="C90" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="D90" t="n">
         <v>26.6</v>
       </c>
       <c r="E90" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F90" t="n">
-        <v>19497.1593</v>
+        <v>569</v>
       </c>
       <c r="G90" t="n">
-        <v>26.30666666666666</v>
+        <v>26.30166666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3640,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="C91" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="D91" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="E91" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F91" t="n">
-        <v>405.6009</v>
+        <v>19497.1593</v>
       </c>
       <c r="G91" t="n">
-        <v>26.31666666666666</v>
+        <v>26.30666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3687,10 +3595,10 @@
         <v>26.3</v>
       </c>
       <c r="F92" t="n">
-        <v>8617.0299</v>
+        <v>405.6009</v>
       </c>
       <c r="G92" t="n">
-        <v>26.31999999999999</v>
+        <v>26.31666666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3722,10 +3630,10 @@
         <v>26.3</v>
       </c>
       <c r="F93" t="n">
-        <v>15403.3575</v>
+        <v>8617.0299</v>
       </c>
       <c r="G93" t="n">
-        <v>26.33166666666666</v>
+        <v>26.31999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3757,10 +3665,10 @@
         <v>26.3</v>
       </c>
       <c r="F94" t="n">
-        <v>20732.2402</v>
+        <v>15403.3575</v>
       </c>
       <c r="G94" t="n">
-        <v>26.33666666666666</v>
+        <v>26.33166666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3783,19 +3691,19 @@
         <v>26.3</v>
       </c>
       <c r="C95" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D95" t="n">
         <v>26.3</v>
       </c>
       <c r="E95" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F95" t="n">
-        <v>91864.9676</v>
+        <v>20732.2402</v>
       </c>
       <c r="G95" t="n">
-        <v>26.34166666666665</v>
+        <v>26.33666666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3815,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C96" t="n">
         <v>26.2</v>
       </c>
       <c r="D96" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E96" t="n">
         <v>26.2</v>
       </c>
       <c r="F96" t="n">
-        <v>14862.8059</v>
+        <v>91864.9676</v>
       </c>
       <c r="G96" t="n">
-        <v>26.35333333333332</v>
+        <v>26.34166666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3862,10 +3770,10 @@
         <v>26.2</v>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>14862.8059</v>
       </c>
       <c r="G97" t="n">
-        <v>26.36666666666666</v>
+        <v>26.35333333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3885,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F98" t="n">
-        <v>4858.7854</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>26.37999999999999</v>
+        <v>26.36666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3932,10 +3840,10 @@
         <v>26.1</v>
       </c>
       <c r="F99" t="n">
-        <v>2503.4912</v>
+        <v>4858.7854</v>
       </c>
       <c r="G99" t="n">
-        <v>26.39333333333332</v>
+        <v>26.37999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3967,10 +3875,10 @@
         <v>26.1</v>
       </c>
       <c r="F100" t="n">
-        <v>11057.1334</v>
+        <v>2503.4912</v>
       </c>
       <c r="G100" t="n">
-        <v>26.40666666666665</v>
+        <v>26.39333333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3990,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C101" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D101" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E101" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F101" t="n">
-        <v>135573.8106</v>
+        <v>11057.1334</v>
       </c>
       <c r="G101" t="n">
-        <v>26.42166666666666</v>
+        <v>26.40666666666665</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4025,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C102" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="D102" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="E102" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F102" t="n">
-        <v>16611.14920738007</v>
+        <v>135573.8106</v>
       </c>
       <c r="G102" t="n">
-        <v>26.45333333333332</v>
+        <v>26.42166666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4060,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="C103" t="n">
         <v>27.1</v>
@@ -4069,22 +3977,26 @@
         <v>27.1</v>
       </c>
       <c r="E103" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F103" t="n">
-        <v>16585.26929630996</v>
+        <v>16611.14920738007</v>
       </c>
       <c r="G103" t="n">
-        <v>26.48166666666665</v>
+        <v>26.45333333333332</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>26.2</v>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
@@ -4095,22 +4007,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C104" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="D104" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="E104" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F104" t="n">
-        <v>56922.7285</v>
+        <v>16585.26929630996</v>
       </c>
       <c r="G104" t="n">
-        <v>26.49333333333332</v>
+        <v>26.48166666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4119,8 +4031,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4130,22 +4048,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="C105" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D105" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="E105" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F105" t="n">
-        <v>28461.3642</v>
+        <v>56922.7285</v>
       </c>
       <c r="G105" t="n">
-        <v>26.50166666666665</v>
+        <v>26.49333333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4154,8 +4072,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4168,19 +4092,19 @@
         <v>26.2</v>
       </c>
       <c r="C106" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D106" t="n">
         <v>26.2</v>
       </c>
       <c r="E106" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F106" t="n">
-        <v>4955.2004</v>
+        <v>28461.3642</v>
       </c>
       <c r="G106" t="n">
-        <v>26.51499999999998</v>
+        <v>26.50166666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4189,8 +4113,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4200,22 +4130,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C107" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D107" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E107" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F107" t="n">
-        <v>23506.1639</v>
+        <v>4955.2004</v>
       </c>
       <c r="G107" t="n">
-        <v>26.52666666666665</v>
+        <v>26.51499999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4224,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4235,22 +4171,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C108" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="D108" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="E108" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F108" t="n">
-        <v>12315</v>
+        <v>23506.1639</v>
       </c>
       <c r="G108" t="n">
-        <v>26.54833333333331</v>
+        <v>26.52666666666665</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4259,8 +4195,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4270,22 +4212,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C109" t="n">
         <v>26.6</v>
       </c>
-      <c r="C109" t="n">
-        <v>27</v>
-      </c>
       <c r="D109" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="E109" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="F109" t="n">
-        <v>9404</v>
+        <v>12315</v>
       </c>
       <c r="G109" t="n">
-        <v>26.57499999999998</v>
+        <v>26.54833333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4294,8 +4236,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4305,22 +4253,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="C110" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="D110" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="E110" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="F110" t="n">
-        <v>67428.6361</v>
+        <v>9404</v>
       </c>
       <c r="G110" t="n">
-        <v>26.58999999999997</v>
+        <v>26.57499999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4329,8 +4277,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4294,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C111" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D111" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E111" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F111" t="n">
-        <v>18.7193</v>
+        <v>67428.6361</v>
       </c>
       <c r="G111" t="n">
-        <v>26.60499999999998</v>
+        <v>26.58999999999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4364,8 +4318,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4375,22 +4335,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="C112" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="D112" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="E112" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="F112" t="n">
-        <v>1980</v>
+        <v>18.7193</v>
       </c>
       <c r="G112" t="n">
-        <v>26.63166666666665</v>
+        <v>26.60499999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4399,8 +4359,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4422,10 +4388,10 @@
         <v>26.9</v>
       </c>
       <c r="F113" t="n">
-        <v>7010</v>
+        <v>1980</v>
       </c>
       <c r="G113" t="n">
-        <v>26.65833333333331</v>
+        <v>26.63166666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4434,8 +4400,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4445,22 +4417,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="D114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="E114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F114" t="n">
-        <v>3773.584</v>
+        <v>7010</v>
       </c>
       <c r="G114" t="n">
-        <v>26.67666666666664</v>
+        <v>26.65833333333331</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4469,8 +4441,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4480,22 +4458,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="C115" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D115" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="E115" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F115" t="n">
-        <v>4315.7579</v>
+        <v>3773.584</v>
       </c>
       <c r="G115" t="n">
-        <v>26.68999999999998</v>
+        <v>26.67666666666664</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4504,8 +4482,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4515,22 +4499,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C116" t="n">
         <v>26.2</v>
       </c>
       <c r="D116" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E116" t="n">
         <v>26.2</v>
       </c>
       <c r="F116" t="n">
-        <v>34075.3506</v>
+        <v>4315.7579</v>
       </c>
       <c r="G116" t="n">
-        <v>26.69999999999998</v>
+        <v>26.68999999999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4539,8 +4523,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4550,22 +4540,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="C117" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="D117" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E117" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="F117" t="n">
-        <v>4160.2326</v>
+        <v>34075.3506</v>
       </c>
       <c r="G117" t="n">
-        <v>26.71833333333332</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4574,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4585,22 +4581,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C118" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D118" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E118" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F118" t="n">
-        <v>100</v>
+        <v>4160.2326</v>
       </c>
       <c r="G118" t="n">
-        <v>26.73166666666665</v>
+        <v>26.71833333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4609,8 +4605,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C119" t="n">
         <v>26.8</v>
@@ -4629,13 +4631,13 @@
         <v>26.8</v>
       </c>
       <c r="E119" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F119" t="n">
-        <v>16578.04192089552</v>
+        <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>26.71999999999998</v>
+        <v>26.73166666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4644,8 +4646,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4655,22 +4663,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C120" t="n">
         <v>26.8</v>
       </c>
-      <c r="C120" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D120" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E120" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F120" t="n">
-        <v>27019.82335456916</v>
+        <v>16578.04192089552</v>
       </c>
       <c r="G120" t="n">
-        <v>26.71166666666665</v>
+        <v>26.71999999999998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4679,8 +4687,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4690,22 +4704,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C121" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D121" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E121" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F121" t="n">
-        <v>519.3223</v>
+        <v>27019.82335456916</v>
       </c>
       <c r="G121" t="n">
-        <v>26.69999999999998</v>
+        <v>26.71166666666665</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4714,8 +4728,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4725,22 +4745,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="C122" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D122" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="E122" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F122" t="n">
-        <v>15828.1662</v>
+        <v>519.3223</v>
       </c>
       <c r="G122" t="n">
-        <v>26.68333333333332</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4749,8 +4769,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4760,22 +4786,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C123" t="n">
         <v>26.3</v>
       </c>
-      <c r="C123" t="n">
-        <v>26.2</v>
-      </c>
       <c r="D123" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E123" t="n">
         <v>26.3</v>
       </c>
-      <c r="E123" t="n">
-        <v>26.2</v>
-      </c>
       <c r="F123" t="n">
-        <v>10000.2444</v>
+        <v>15828.1662</v>
       </c>
       <c r="G123" t="n">
-        <v>26.68666666666665</v>
+        <v>26.68333333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4784,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4795,22 +4827,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="C124" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="D124" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="E124" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F124" t="n">
-        <v>3067.3233</v>
+        <v>10000.2444</v>
       </c>
       <c r="G124" t="n">
-        <v>26.69499999999998</v>
+        <v>26.68666666666665</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4819,8 +4851,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4830,22 +4868,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C125" t="n">
         <v>26.5</v>
       </c>
       <c r="D125" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E125" t="n">
         <v>26.5</v>
       </c>
       <c r="F125" t="n">
-        <v>1013.2037</v>
+        <v>3067.3233</v>
       </c>
       <c r="G125" t="n">
-        <v>26.69999999999998</v>
+        <v>26.69499999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4854,8 +4892,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4865,22 +4909,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C126" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D126" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E126" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F126" t="n">
-        <v>8325</v>
+        <v>1013.2037</v>
       </c>
       <c r="G126" t="n">
-        <v>26.70833333333331</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4889,8 +4933,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4900,22 +4950,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C127" t="n">
         <v>26.7</v>
       </c>
-      <c r="C127" t="n">
-        <v>26.8</v>
-      </c>
       <c r="D127" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E127" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F127" t="n">
-        <v>780</v>
+        <v>8325</v>
       </c>
       <c r="G127" t="n">
-        <v>26.70999999999998</v>
+        <v>26.70833333333331</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4924,8 +4974,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4938,19 +4994,19 @@
         <v>26.7</v>
       </c>
       <c r="C128" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D128" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E128" t="n">
         <v>26.7</v>
       </c>
       <c r="F128" t="n">
-        <v>19751.52691561338</v>
+        <v>780</v>
       </c>
       <c r="G128" t="n">
-        <v>26.71666666666665</v>
+        <v>26.70999999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4959,8 +5015,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4970,7 +5032,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C129" t="n">
         <v>26.9</v>
@@ -4979,13 +5041,13 @@
         <v>26.9</v>
       </c>
       <c r="E129" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F129" t="n">
-        <v>33187.3977</v>
+        <v>19751.52691561338</v>
       </c>
       <c r="G129" t="n">
-        <v>26.71999999999998</v>
+        <v>26.71666666666665</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4994,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5017,10 +5085,10 @@
         <v>26.9</v>
       </c>
       <c r="F130" t="n">
-        <v>32065</v>
+        <v>33187.3977</v>
       </c>
       <c r="G130" t="n">
-        <v>26.72333333333331</v>
+        <v>26.71999999999998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5029,8 +5097,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5043,16 +5117,16 @@
         <v>26.9</v>
       </c>
       <c r="C131" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D131" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E131" t="n">
         <v>26.9</v>
       </c>
       <c r="F131" t="n">
-        <v>45575.2592</v>
+        <v>32065</v>
       </c>
       <c r="G131" t="n">
         <v>26.72333333333331</v>
@@ -5064,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5155,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C132" t="n">
         <v>27</v>
@@ -5084,13 +5164,13 @@
         <v>27</v>
       </c>
       <c r="E132" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="F132" t="n">
-        <v>15545.96870892193</v>
+        <v>45575.2592</v>
       </c>
       <c r="G132" t="n">
-        <v>26.72166666666665</v>
+        <v>26.72333333333331</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5099,8 +5179,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5110,22 +5196,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C133" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D133" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E133" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F133" t="n">
-        <v>49730.5955</v>
+        <v>15545.96870892193</v>
       </c>
       <c r="G133" t="n">
-        <v>26.72333333333332</v>
+        <v>26.72166666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5134,8 +5220,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5145,7 +5237,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C134" t="n">
         <v>27.2</v>
@@ -5154,13 +5246,13 @@
         <v>27.2</v>
       </c>
       <c r="E134" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F134" t="n">
-        <v>71359.0514</v>
+        <v>49730.5955</v>
       </c>
       <c r="G134" t="n">
-        <v>26.72166666666665</v>
+        <v>26.72333333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5169,8 +5261,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5183,19 +5281,19 @@
         <v>27.2</v>
       </c>
       <c r="C135" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D135" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E135" t="n">
         <v>27.2</v>
       </c>
       <c r="F135" t="n">
-        <v>17804.125</v>
+        <v>71359.0514</v>
       </c>
       <c r="G135" t="n">
-        <v>26.72999999999999</v>
+        <v>26.72166666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5204,8 +5302,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5215,22 +5319,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C136" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D136" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E136" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F136" t="n">
-        <v>109</v>
+        <v>17804.125</v>
       </c>
       <c r="G136" t="n">
-        <v>26.72833333333332</v>
+        <v>26.72999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5239,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5253,19 +5363,19 @@
         <v>27.4</v>
       </c>
       <c r="C137" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D137" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E137" t="n">
         <v>27.4</v>
       </c>
       <c r="F137" t="n">
-        <v>7000</v>
+        <v>109</v>
       </c>
       <c r="G137" t="n">
-        <v>26.72666666666665</v>
+        <v>26.72833333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5274,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5285,19 +5401,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C138" t="n">
         <v>27.6</v>
       </c>
-      <c r="C138" t="n">
-        <v>27.7</v>
-      </c>
       <c r="D138" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E138" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F138" t="n">
-        <v>153211.6672</v>
+        <v>7000</v>
       </c>
       <c r="G138" t="n">
         <v>26.72666666666665</v>
@@ -5309,8 +5425,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5320,22 +5442,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C139" t="n">
         <v>27.7</v>
       </c>
-      <c r="C139" t="n">
-        <v>27.9</v>
-      </c>
       <c r="D139" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="E139" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F139" t="n">
-        <v>106865.9616</v>
+        <v>153211.6672</v>
       </c>
       <c r="G139" t="n">
-        <v>26.73166666666666</v>
+        <v>26.72666666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5344,8 +5466,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5355,22 +5483,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C140" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D140" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="E140" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F140" t="n">
-        <v>1000</v>
+        <v>106865.9616</v>
       </c>
       <c r="G140" t="n">
-        <v>26.74333333333333</v>
+        <v>26.73166666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5379,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5390,22 +5524,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C141" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D141" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E141" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F141" t="n">
-        <v>11140.5075</v>
+        <v>1000</v>
       </c>
       <c r="G141" t="n">
-        <v>26.74499999999999</v>
+        <v>26.74333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5414,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5428,19 +5568,19 @@
         <v>27.3</v>
       </c>
       <c r="C142" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D142" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E142" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F142" t="n">
-        <v>22722.4973</v>
+        <v>11140.5075</v>
       </c>
       <c r="G142" t="n">
-        <v>26.75166666666665</v>
+        <v>26.74499999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5449,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5460,22 +5606,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E143" t="n">
         <v>27.2</v>
       </c>
-      <c r="C143" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>26.9</v>
-      </c>
       <c r="F143" t="n">
-        <v>64082.2474</v>
+        <v>22722.4973</v>
       </c>
       <c r="G143" t="n">
-        <v>26.73999999999999</v>
+        <v>26.75166666666665</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5484,8 +5630,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5495,22 +5647,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C144" t="n">
         <v>26.9</v>
       </c>
       <c r="D144" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E144" t="n">
         <v>26.9</v>
       </c>
       <c r="F144" t="n">
-        <v>46213.1834</v>
+        <v>64082.2474</v>
       </c>
       <c r="G144" t="n">
-        <v>26.72833333333333</v>
+        <v>26.73999999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5519,8 +5671,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5536,16 +5694,16 @@
         <v>26.9</v>
       </c>
       <c r="D145" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E145" t="n">
         <v>26.9</v>
       </c>
       <c r="F145" t="n">
-        <v>31821.3868</v>
+        <v>46213.1834</v>
       </c>
       <c r="G145" t="n">
-        <v>26.71833333333333</v>
+        <v>26.72833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5554,8 +5712,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5565,22 +5729,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C146" t="n">
         <v>26.9</v>
       </c>
       <c r="D146" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E146" t="n">
         <v>26.9</v>
       </c>
       <c r="F146" t="n">
-        <v>54054.9853</v>
+        <v>31821.3868</v>
       </c>
       <c r="G146" t="n">
-        <v>26.70666666666666</v>
+        <v>26.71833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5589,8 +5753,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5600,22 +5770,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C147" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D147" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E147" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>54054.9853</v>
       </c>
       <c r="G147" t="n">
-        <v>26.71333333333333</v>
+        <v>26.70666666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5624,8 +5794,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5635,22 +5811,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="C148" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="D148" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="E148" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="F148" t="n">
-        <v>4241.2634</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>26.71</v>
+        <v>26.71333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5659,8 +5835,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5670,22 +5852,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C149" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D149" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E149" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F149" t="n">
-        <v>68195.24340000001</v>
+        <v>4241.2634</v>
       </c>
       <c r="G149" t="n">
-        <v>26.71166666666667</v>
+        <v>26.71</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5694,8 +5876,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5705,7 +5893,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="C150" t="n">
         <v>26.7</v>
@@ -5714,13 +5902,13 @@
         <v>26.7</v>
       </c>
       <c r="E150" t="n">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="F150" t="n">
-        <v>51194.2703</v>
+        <v>68195.24340000001</v>
       </c>
       <c r="G150" t="n">
-        <v>26.71666666666667</v>
+        <v>26.71166666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5729,8 +5917,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5740,22 +5934,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="C151" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="D151" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E151" t="n">
-        <v>26.9</v>
+        <v>26.1</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>51194.2703</v>
       </c>
       <c r="G151" t="n">
-        <v>26.72666666666667</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5764,8 +5958,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5775,22 +5975,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="C152" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="D152" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="E152" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F152" t="n">
-        <v>4232.263</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>26.725</v>
+        <v>26.72666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5799,8 +5999,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5810,22 +6016,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C153" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D153" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E153" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F153" t="n">
-        <v>1011</v>
+        <v>4232.263</v>
       </c>
       <c r="G153" t="n">
-        <v>26.72666666666667</v>
+        <v>26.725</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5834,8 +6040,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5845,22 +6057,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C154" t="n">
         <v>26.4</v>
       </c>
-      <c r="C154" t="n">
-        <v>26.6</v>
-      </c>
       <c r="D154" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="E154" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F154" t="n">
-        <v>8000</v>
+        <v>1011</v>
       </c>
       <c r="G154" t="n">
-        <v>26.73166666666667</v>
+        <v>26.72666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5869,8 +6081,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5880,22 +6098,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C155" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="D155" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="E155" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F155" t="n">
-        <v>30</v>
+        <v>8000</v>
       </c>
       <c r="G155" t="n">
-        <v>26.74333333333334</v>
+        <v>26.73166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5904,8 +6122,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5915,22 +6139,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C156" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D156" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E156" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F156" t="n">
-        <v>5910</v>
+        <v>30</v>
       </c>
       <c r="G156" t="n">
-        <v>26.75333333333334</v>
+        <v>26.74333333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5939,8 +6163,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5950,22 +6180,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C157" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="D157" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E157" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F157" t="n">
-        <v>1980</v>
+        <v>5910</v>
       </c>
       <c r="G157" t="n">
-        <v>26.76166666666667</v>
+        <v>26.75333333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5974,8 +6204,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5985,22 +6221,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C158" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D158" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E158" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>1980</v>
       </c>
       <c r="G158" t="n">
-        <v>26.77333333333334</v>
+        <v>26.76166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6009,8 +6245,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6020,22 +6262,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C159" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="D159" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="E159" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="F159" t="n">
-        <v>1469.0477</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>26.77833333333334</v>
+        <v>26.77333333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6044,8 +6286,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6055,22 +6303,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C160" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="D160" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="E160" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F160" t="n">
-        <v>1688.0634</v>
+        <v>1469.0477</v>
       </c>
       <c r="G160" t="n">
-        <v>26.79000000000001</v>
+        <v>26.77833333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6079,8 +6327,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6090,22 +6344,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C161" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="D161" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E161" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F161" t="n">
-        <v>70588.6951</v>
+        <v>1688.0634</v>
       </c>
       <c r="G161" t="n">
-        <v>26.80333333333334</v>
+        <v>26.79000000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6114,8 +6368,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6125,22 +6385,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="C162" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D162" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E162" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="F162" t="n">
-        <v>22</v>
+        <v>70588.6951</v>
       </c>
       <c r="G162" t="n">
-        <v>26.80500000000001</v>
+        <v>26.80333333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6149,8 +6409,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6160,22 +6426,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C163" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D163" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E163" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F163" t="n">
-        <v>364.4102</v>
+        <v>22</v>
       </c>
       <c r="G163" t="n">
-        <v>26.80833333333334</v>
+        <v>26.80500000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6184,8 +6450,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6198,19 +6470,19 @@
         <v>27.3</v>
       </c>
       <c r="C164" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D164" t="n">
         <v>27.3</v>
       </c>
       <c r="E164" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F164" t="n">
-        <v>1958.4798</v>
+        <v>364.4102</v>
       </c>
       <c r="G164" t="n">
-        <v>26.82500000000001</v>
+        <v>26.80833333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6219,8 +6491,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6233,19 +6511,19 @@
         <v>27.3</v>
       </c>
       <c r="C165" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D165" t="n">
         <v>27.3</v>
       </c>
       <c r="E165" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F165" t="n">
-        <v>3341.6769</v>
+        <v>1958.4798</v>
       </c>
       <c r="G165" t="n">
-        <v>26.84500000000001</v>
+        <v>26.82500000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6254,8 +6532,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6277,10 +6561,10 @@
         <v>27.3</v>
       </c>
       <c r="F166" t="n">
-        <v>1147.8121</v>
+        <v>3341.6769</v>
       </c>
       <c r="G166" t="n">
-        <v>26.86333333333334</v>
+        <v>26.84500000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6289,8 +6573,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6303,19 +6593,19 @@
         <v>27.3</v>
       </c>
       <c r="C167" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D167" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E167" t="n">
         <v>27.3</v>
       </c>
       <c r="F167" t="n">
-        <v>46343.1862</v>
+        <v>1147.8121</v>
       </c>
       <c r="G167" t="n">
-        <v>26.88666666666668</v>
+        <v>26.86333333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6324,8 +6614,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6335,22 +6631,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C168" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D168" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E168" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F168" t="n">
-        <v>11</v>
+        <v>46343.1862</v>
       </c>
       <c r="G168" t="n">
-        <v>26.90500000000002</v>
+        <v>26.88666666666668</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6359,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6370,22 +6672,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C169" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="D169" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="E169" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F169" t="n">
-        <v>42328.1856</v>
+        <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>26.92333333333335</v>
+        <v>26.90500000000002</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6394,8 +6696,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6405,22 +6713,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C170" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="D170" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E170" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F170" t="n">
-        <v>19327.5117</v>
+        <v>42328.1856</v>
       </c>
       <c r="G170" t="n">
-        <v>26.95333333333335</v>
+        <v>26.92333333333335</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6429,8 +6737,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6440,22 +6754,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C171" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D171" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E171" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F171" t="n">
-        <v>10830.3249</v>
+        <v>19327.5117</v>
       </c>
       <c r="G171" t="n">
-        <v>26.97833333333335</v>
+        <v>26.95333333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6464,8 +6778,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6487,10 +6807,10 @@
         <v>27.7</v>
       </c>
       <c r="F172" t="n">
-        <v>85431.7001</v>
+        <v>10830.3249</v>
       </c>
       <c r="G172" t="n">
-        <v>26.99166666666668</v>
+        <v>26.97833333333335</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6499,8 +6819,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6510,22 +6836,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C173" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D173" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E173" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F173" t="n">
-        <v>11430.8606</v>
+        <v>85431.7001</v>
       </c>
       <c r="G173" t="n">
-        <v>27.00666666666668</v>
+        <v>26.99166666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6534,8 +6860,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6551,16 +6883,16 @@
         <v>27.8</v>
       </c>
       <c r="D174" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E174" t="n">
         <v>27.8</v>
       </c>
       <c r="F174" t="n">
-        <v>45935.0413</v>
+        <v>11430.8606</v>
       </c>
       <c r="G174" t="n">
-        <v>27.02833333333335</v>
+        <v>27.00666666666668</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6569,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6580,22 +6918,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C175" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D175" t="n">
         <v>27.9</v>
       </c>
-      <c r="D175" t="n">
-        <v>28.2</v>
-      </c>
       <c r="E175" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F175" t="n">
-        <v>91695.5295</v>
+        <v>45935.0413</v>
       </c>
       <c r="G175" t="n">
-        <v>27.05666666666668</v>
+        <v>27.02833333333335</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6604,8 +6942,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6615,22 +6959,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="C176" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="D176" t="n">
         <v>28.2</v>
       </c>
       <c r="E176" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="F176" t="n">
-        <v>3253.2624</v>
+        <v>91695.5295</v>
       </c>
       <c r="G176" t="n">
-        <v>27.09000000000001</v>
+        <v>27.05666666666668</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6639,8 +6983,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6650,22 +7000,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="C177" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="D177" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E177" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="F177" t="n">
-        <v>56192.3214</v>
+        <v>3253.2624</v>
       </c>
       <c r="G177" t="n">
-        <v>27.11166666666668</v>
+        <v>27.09000000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6674,8 +7024,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6685,22 +7041,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="C178" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D178" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E178" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="F178" t="n">
-        <v>1686.3078</v>
+        <v>56192.3214</v>
       </c>
       <c r="G178" t="n">
-        <v>27.13333333333334</v>
+        <v>27.11166666666668</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6709,8 +7065,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6720,22 +7082,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C179" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="D179" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E179" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="F179" t="n">
-        <v>67082.43610000001</v>
+        <v>1686.3078</v>
       </c>
       <c r="G179" t="n">
-        <v>27.14833333333335</v>
+        <v>27.13333333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6744,8 +7106,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6764,13 +7132,13 @@
         <v>28</v>
       </c>
       <c r="E180" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F180" t="n">
-        <v>9387.483200000001</v>
+        <v>67082.43610000001</v>
       </c>
       <c r="G180" t="n">
-        <v>27.16166666666668</v>
+        <v>27.14833333333335</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6779,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6790,22 +7164,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C181" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D181" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E181" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="F181" t="n">
-        <v>10</v>
+        <v>9387.483200000001</v>
       </c>
       <c r="G181" t="n">
-        <v>27.18333333333335</v>
+        <v>27.16166666666668</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6814,8 +7188,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6825,22 +7205,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C182" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D182" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E182" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F182" t="n">
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>27.21166666666668</v>
+        <v>27.18333333333335</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6849,8 +7229,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6863,30 +7249,77 @@
         <v>28</v>
       </c>
       <c r="C183" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="D183" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E183" t="n">
         <v>28</v>
       </c>
       <c r="F183" t="n">
+        <v>10</v>
+      </c>
+      <c r="G183" t="n">
+        <v>27.21166666666668</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>28</v>
+      </c>
+      <c r="C184" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>28</v>
+      </c>
+      <c r="F184" t="n">
         <v>99704.9767</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G184" t="n">
         <v>27.24500000000002</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>58151.8033</v>
       </c>
       <c r="G2" t="n">
+        <v>26.79999999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>26.07166666666668</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>9495.7233</v>
       </c>
       <c r="G3" t="n">
+        <v>26.73333333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>26.07833333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>22185.4615</v>
       </c>
       <c r="G4" t="n">
+        <v>26.67333333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>26.08333333333335</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>52965.9746</v>
       </c>
       <c r="G5" t="n">
+        <v>26.61333333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>26.09333333333335</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>47979.7896</v>
       </c>
       <c r="G6" t="n">
+        <v>26.56666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>26.10666666666668</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>17586.7782</v>
       </c>
       <c r="G7" t="n">
+        <v>26.55333333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>26.11166666666668</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>115943.9089</v>
       </c>
       <c r="G8" t="n">
+        <v>26.49999999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>26.11166666666668</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>76440.969</v>
       </c>
       <c r="G9" t="n">
+        <v>26.43333333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>26.10833333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>7418.9676</v>
       </c>
       <c r="G10" t="n">
+        <v>26.35333333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>26.10500000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1582.5196</v>
       </c>
       <c r="G11" t="n">
+        <v>26.27333333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>26.11000000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>216747.3928</v>
       </c>
       <c r="G12" t="n">
+        <v>26.19999999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>26.10833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>105475.9203</v>
       </c>
       <c r="G13" t="n">
+        <v>26.11999999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>26.11666666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>233937.9898</v>
       </c>
       <c r="G14" t="n">
+        <v>26.03333333333332</v>
+      </c>
+      <c r="H14" t="n">
         <v>26.12000000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>118032.9229</v>
       </c>
       <c r="G15" t="n">
+        <v>25.91999999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>26.11833333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>85211.2629</v>
       </c>
       <c r="G16" t="n">
+        <v>25.81999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>26.11500000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1787.1703</v>
       </c>
       <c r="G17" t="n">
+        <v>25.72666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>26.10666666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>24086.7736</v>
       </c>
       <c r="G18" t="n">
+        <v>25.67333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>26.10000000000002</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
+        <v>25.65333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>26.10166666666668</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>16469.1216</v>
       </c>
       <c r="G20" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H20" t="n">
         <v>26.09500000000002</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,25 @@
         <v>7358.3157</v>
       </c>
       <c r="G21" t="n">
+        <v>25.55333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>26.08166666666668</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1217,29 @@
         <v>99586.3921</v>
       </c>
       <c r="G22" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H22" t="n">
         <v>26.06666666666668</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1263,29 @@
         <v>2103.0497</v>
       </c>
       <c r="G23" t="n">
+        <v>25.45333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>26.05666666666669</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1309,29 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>25.43333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>26.05333333333335</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1355,29 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
+        <v>25.43333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>26.05333333333335</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1401,27 @@
         <v>22977</v>
       </c>
       <c r="G26" t="n">
+        <v>25.43333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>26.04166666666669</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1445,27 @@
         <v>1037.409</v>
       </c>
       <c r="G27" t="n">
+        <v>25.42666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>26.02333333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1489,27 @@
         <v>1376.353707751938</v>
       </c>
       <c r="G28" t="n">
+        <v>25.43333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>26.01166666666669</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1533,27 @@
         <v>100</v>
       </c>
       <c r="G29" t="n">
+        <v>25.46666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>26.01000000000002</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1577,27 @@
         <v>400.0337</v>
       </c>
       <c r="G30" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="H30" t="n">
         <v>26.00166666666669</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1621,27 @@
         <v>400</v>
       </c>
       <c r="G31" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="H31" t="n">
         <v>26.00333333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1665,27 @@
         <v>1787.1704</v>
       </c>
       <c r="G32" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="H32" t="n">
         <v>26.00500000000002</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1709,27 @@
         <v>1387.17</v>
       </c>
       <c r="G33" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="H33" t="n">
         <v>26.01500000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1753,27 @@
         <v>2509.7656</v>
       </c>
       <c r="G34" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="H34" t="n">
         <v>26.01333333333335</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1797,27 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
+        <v>25.73333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>26.01666666666669</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1841,27 @@
         <v>248.9189</v>
       </c>
       <c r="G36" t="n">
+        <v>25.77333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>26.01666666666669</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1885,27 @@
         <v>102541.7205</v>
       </c>
       <c r="G37" t="n">
+        <v>25.79333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>26.01000000000002</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1929,27 @@
         <v>26</v>
       </c>
       <c r="G38" t="n">
+        <v>25.80666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>26.00166666666668</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1973,29 @@
         <v>12384.9802</v>
       </c>
       <c r="G39" t="n">
+        <v>25.78666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>25.99833333333335</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2019,27 @@
         <v>3937.1163</v>
       </c>
       <c r="G40" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="H40" t="n">
         <v>25.99000000000002</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2063,27 @@
         <v>11623.0469</v>
       </c>
       <c r="G41" t="n">
+        <v>25.69333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>25.98000000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2107,27 @@
         <v>7088.713</v>
       </c>
       <c r="G42" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="H42" t="n">
         <v>25.97000000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2151,27 @@
         <v>20333.933</v>
       </c>
       <c r="G43" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="H43" t="n">
         <v>25.95833333333335</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2195,27 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
+        <v>25.60666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>25.95166666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2239,27 @@
         <v>17.7555</v>
       </c>
       <c r="G45" t="n">
+        <v>25.57333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>25.94500000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2283,27 @@
         <v>3908.75</v>
       </c>
       <c r="G46" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="H46" t="n">
         <v>25.93166666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2327,27 @@
         <v>427.8882</v>
       </c>
       <c r="G47" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="H47" t="n">
         <v>25.91666666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2371,29 @@
         <v>14231.211</v>
       </c>
       <c r="G48" t="n">
+        <v>25.47333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>25.89000000000001</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2417,27 @@
         <v>11243.4778</v>
       </c>
       <c r="G49" t="n">
+        <v>25.45333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>25.86500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2461,29 @@
         <v>23</v>
       </c>
       <c r="G50" t="n">
+        <v>25.41333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>25.84000000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2507,29 @@
         <v>30677.6175</v>
       </c>
       <c r="G51" t="n">
+        <v>25.36666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>25.81500000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2553,29 @@
         <v>1180</v>
       </c>
       <c r="G52" t="n">
+        <v>25.35333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>25.80000000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2599,29 @@
         <v>61.6625</v>
       </c>
       <c r="G53" t="n">
+        <v>25.34666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>25.77666666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L53" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2645,29 @@
         <v>1626.7591</v>
       </c>
       <c r="G54" t="n">
+        <v>25.34666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>25.75000000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2691,29 @@
         <v>15.3732</v>
       </c>
       <c r="G55" t="n">
+        <v>25.35333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>25.72000000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2737,29 @@
         <v>30</v>
       </c>
       <c r="G56" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="H56" t="n">
         <v>25.69000000000001</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2783,29 @@
         <v>71910.96831328125</v>
       </c>
       <c r="G57" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="H57" t="n">
         <v>25.67166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L57" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2829,29 @@
         <v>15.9319</v>
       </c>
       <c r="G58" t="n">
+        <v>25.40666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>25.65</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2875,29 @@
         <v>287184.2196867188</v>
       </c>
       <c r="G59" t="n">
+        <v>25.44666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>25.63833333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L59" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2921,27 @@
         <v>16011</v>
       </c>
       <c r="G60" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="H60" t="n">
         <v>25.64833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2965,27 @@
         <v>13000</v>
       </c>
       <c r="G61" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="H61" t="n">
         <v>25.66</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3009,27 @@
         <v>4011</v>
       </c>
       <c r="G62" t="n">
+        <v>25.82666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>25.67333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3053,27 @@
         <v>21500</v>
       </c>
       <c r="G63" t="n">
+        <v>25.95333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>25.695</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3097,27 @@
         <v>42663</v>
       </c>
       <c r="G64" t="n">
+        <v>26</v>
+      </c>
+      <c r="H64" t="n">
         <v>25.69666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3141,27 @@
         <v>6000</v>
       </c>
       <c r="G65" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="H65" t="n">
         <v>25.69666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3185,27 @@
         <v>10000</v>
       </c>
       <c r="G66" t="n">
+        <v>26.10666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>25.7</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3229,27 @@
         <v>24000</v>
       </c>
       <c r="G67" t="n">
+        <v>26.16666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>25.70333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3273,27 @@
         <v>14010</v>
       </c>
       <c r="G68" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="H68" t="n">
         <v>25.71666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3317,27 @@
         <v>3668.16</v>
       </c>
       <c r="G69" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="H69" t="n">
         <v>25.72666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3361,27 @@
         <v>27617</v>
       </c>
       <c r="G70" t="n">
+        <v>26.42666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>25.73833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3405,27 @@
         <v>7762.9104</v>
       </c>
       <c r="G71" t="n">
+        <v>26.51333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>25.75</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3449,27 @@
         <v>3100</v>
       </c>
       <c r="G72" t="n">
+        <v>26.60666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>25.77333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3493,27 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
+        <v>26.70666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>25.79666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3537,27 @@
         <v>89094.5202</v>
       </c>
       <c r="G74" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="H74" t="n">
         <v>25.825</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3581,27 @@
         <v>1600</v>
       </c>
       <c r="G75" t="n">
+        <v>26.76666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>25.86</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3625,27 @@
         <v>17000</v>
       </c>
       <c r="G76" t="n">
+        <v>26.72666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>25.88666666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3669,27 @@
         <v>24000</v>
       </c>
       <c r="G77" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="H77" t="n">
         <v>25.92666666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3713,27 @@
         <v>15800</v>
       </c>
       <c r="G78" t="n">
+        <v>26.76666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>25.96833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3757,27 @@
         <v>55662.0216</v>
       </c>
       <c r="G79" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="H79" t="n">
         <v>26.00333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3801,27 @@
         <v>43585.6434</v>
       </c>
       <c r="G80" t="n">
+        <v>26.98666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>26.04333333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3845,27 @@
         <v>9424.519899999999</v>
       </c>
       <c r="G81" t="n">
+        <v>27.04666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>26.07333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3889,27 @@
         <v>62665.966</v>
       </c>
       <c r="G82" t="n">
+        <v>27.11333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>26.10666666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3933,27 @@
         <v>405.1101</v>
       </c>
       <c r="G83" t="n">
+        <v>27.14666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>26.13999999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3977,27 @@
         <v>321.0692</v>
       </c>
       <c r="G84" t="n">
+        <v>27.22000000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>26.17333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4021,27 @@
         <v>805.9122</v>
       </c>
       <c r="G85" t="n">
+        <v>27.28000000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>26.19999999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4065,27 @@
         <v>8584.235699999999</v>
       </c>
       <c r="G86" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>26.22499999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4109,27 @@
         <v>11</v>
       </c>
       <c r="G87" t="n">
+        <v>27.37333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>26.25999999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4153,27 @@
         <v>146492.479</v>
       </c>
       <c r="G88" t="n">
+        <v>27.35333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>26.27666666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4197,27 @@
         <v>5094.1791</v>
       </c>
       <c r="G89" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>26.29166666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4241,27 @@
         <v>569</v>
       </c>
       <c r="G90" t="n">
+        <v>27.28666666666668</v>
+      </c>
+      <c r="H90" t="n">
         <v>26.30166666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4285,27 @@
         <v>19497.1593</v>
       </c>
       <c r="G91" t="n">
+        <v>27.26000000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>26.30666666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4329,27 @@
         <v>405.6009</v>
       </c>
       <c r="G92" t="n">
+        <v>27.18000000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>26.31666666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4373,27 @@
         <v>8617.0299</v>
       </c>
       <c r="G93" t="n">
+        <v>27.08666666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>26.31999999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4417,27 @@
         <v>15403.3575</v>
       </c>
       <c r="G94" t="n">
+        <v>26.99333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>26.33166666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4461,27 @@
         <v>20732.2402</v>
       </c>
       <c r="G95" t="n">
+        <v>26.90666666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>26.33666666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4505,27 @@
         <v>91864.9676</v>
       </c>
       <c r="G96" t="n">
+        <v>26.84666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>26.34166666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4549,27 @@
         <v>14862.8059</v>
       </c>
       <c r="G97" t="n">
+        <v>26.78000000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>26.35333333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4593,27 @@
         <v>1000</v>
       </c>
       <c r="G98" t="n">
+        <v>26.71333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>26.36666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4637,27 @@
         <v>4858.7854</v>
       </c>
       <c r="G99" t="n">
+        <v>26.61333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>26.37999999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4681,27 @@
         <v>2503.4912</v>
       </c>
       <c r="G100" t="n">
+        <v>26.51333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>26.39333333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4725,27 @@
         <v>11057.1334</v>
       </c>
       <c r="G101" t="n">
+        <v>26.42000000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>26.40666666666665</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4769,27 @@
         <v>135573.8106</v>
       </c>
       <c r="G102" t="n">
+        <v>26.32666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>26.42166666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,22 +4813,27 @@
         <v>16611.14920738007</v>
       </c>
       <c r="G103" t="n">
+        <v>26.34666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>26.45333333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K103" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,24 +4857,27 @@
         <v>16585.26929630996</v>
       </c>
       <c r="G104" t="n">
+        <v>26.36666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>26.48166666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4063,24 +4901,27 @@
         <v>56922.7285</v>
       </c>
       <c r="G105" t="n">
+        <v>26.34000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>26.49333333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,24 +4945,27 @@
         <v>28461.3642</v>
       </c>
       <c r="G106" t="n">
+        <v>26.32000000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>26.50166666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4145,24 +4989,27 @@
         <v>4955.2004</v>
       </c>
       <c r="G107" t="n">
+        <v>26.31333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>26.51499999999998</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,24 +5033,27 @@
         <v>23506.1639</v>
       </c>
       <c r="G108" t="n">
+        <v>26.30000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>26.52666666666665</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,24 +5077,27 @@
         <v>12315</v>
       </c>
       <c r="G109" t="n">
+        <v>26.32000000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>26.54833333333331</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,24 +5121,27 @@
         <v>9404</v>
       </c>
       <c r="G110" t="n">
+        <v>26.36666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>26.57499999999998</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4309,24 +5165,27 @@
         <v>67428.6361</v>
       </c>
       <c r="G111" t="n">
+        <v>26.36000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>26.58999999999997</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,24 +5209,27 @@
         <v>18.7193</v>
       </c>
       <c r="G112" t="n">
+        <v>26.36000000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>26.60499999999998</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4391,24 +5253,27 @@
         <v>1980</v>
       </c>
       <c r="G113" t="n">
+        <v>26.40666666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>26.63166666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,24 +5297,27 @@
         <v>7010</v>
       </c>
       <c r="G114" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="H114" t="n">
         <v>26.65833333333331</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,24 +5341,27 @@
         <v>3773.584</v>
       </c>
       <c r="G115" t="n">
+        <v>26.48666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>26.67666666666664</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,24 +5385,27 @@
         <v>4315.7579</v>
       </c>
       <c r="G116" t="n">
+        <v>26.49333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>26.68999999999998</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4555,24 +5429,27 @@
         <v>34075.3506</v>
       </c>
       <c r="G117" t="n">
+        <v>26.49333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>26.69999999999998</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,24 +5473,27 @@
         <v>4160.2326</v>
       </c>
       <c r="G118" t="n">
+        <v>26.46666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>26.71833333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4637,24 +5517,27 @@
         <v>100</v>
       </c>
       <c r="G119" t="n">
+        <v>26.44666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>26.73166666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,24 +5561,27 @@
         <v>16578.04192089552</v>
       </c>
       <c r="G120" t="n">
+        <v>26.48666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>26.71999999999998</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4719,24 +5605,27 @@
         <v>27019.82335456916</v>
       </c>
       <c r="G121" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="H121" t="n">
         <v>26.71166666666665</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,24 +5649,27 @@
         <v>519.3223</v>
       </c>
       <c r="G122" t="n">
+        <v>26.56666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>26.69999999999998</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4801,24 +5693,27 @@
         <v>15828.1662</v>
       </c>
       <c r="G123" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="H123" t="n">
         <v>26.68333333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,24 +5737,27 @@
         <v>10000.2444</v>
       </c>
       <c r="G124" t="n">
+        <v>26.55333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>26.68666666666665</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,24 +5781,27 @@
         <v>3067.3233</v>
       </c>
       <c r="G125" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="H125" t="n">
         <v>26.69499999999998</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,24 +5825,27 @@
         <v>1013.2037</v>
       </c>
       <c r="G126" t="n">
+        <v>26.54666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>26.69999999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4965,24 +5869,27 @@
         <v>8325</v>
       </c>
       <c r="G127" t="n">
+        <v>26.57999999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>26.70833333333331</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,24 +5913,27 @@
         <v>780</v>
       </c>
       <c r="G128" t="n">
+        <v>26.57333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>26.70999999999998</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5047,24 +5957,27 @@
         <v>19751.52691561338</v>
       </c>
       <c r="G129" t="n">
+        <v>26.57333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>26.71666666666665</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,24 +6001,27 @@
         <v>33187.3977</v>
       </c>
       <c r="G130" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H130" t="n">
         <v>26.71999999999998</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5129,24 +6045,27 @@
         <v>32065</v>
       </c>
       <c r="G131" t="n">
+        <v>26.64666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>26.72333333333331</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,24 +6089,27 @@
         <v>45575.2592</v>
       </c>
       <c r="G132" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H132" t="n">
         <v>26.72333333333331</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5211,24 +6133,27 @@
         <v>15545.96870892193</v>
       </c>
       <c r="G133" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="H133" t="n">
         <v>26.72166666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,24 +6177,27 @@
         <v>49730.5955</v>
       </c>
       <c r="G134" t="n">
+        <v>26.74666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>26.72333333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,24 +6221,27 @@
         <v>71359.0514</v>
       </c>
       <c r="G135" t="n">
+        <v>26.77333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>26.72166666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5334,24 +6265,27 @@
         <v>17804.125</v>
       </c>
       <c r="G136" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>26.72999999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5375,24 +6309,27 @@
         <v>109</v>
       </c>
       <c r="G137" t="n">
+        <v>26.85333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>26.72833333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,24 +6353,27 @@
         <v>7000</v>
       </c>
       <c r="G138" t="n">
+        <v>26.93999999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>26.72666666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5457,24 +6397,27 @@
         <v>153211.6672</v>
       </c>
       <c r="G139" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="H139" t="n">
         <v>26.72666666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,24 +6441,27 @@
         <v>106865.9616</v>
       </c>
       <c r="G140" t="n">
+        <v>27.13333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>26.73166666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,24 +6485,27 @@
         <v>1000</v>
       </c>
       <c r="G141" t="n">
+        <v>27.21999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>26.74333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,24 +6529,27 @@
         <v>11140.5075</v>
       </c>
       <c r="G142" t="n">
+        <v>27.25999999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>26.74499999999999</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5621,24 +6573,27 @@
         <v>22722.4973</v>
       </c>
       <c r="G143" t="n">
+        <v>27.31333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>26.75166666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,24 +6617,27 @@
         <v>64082.2474</v>
       </c>
       <c r="G144" t="n">
+        <v>27.31333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>26.73999999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5703,24 +6661,27 @@
         <v>46213.1834</v>
       </c>
       <c r="G145" t="n">
+        <v>27.31333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>26.72833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,24 +6705,27 @@
         <v>31821.3868</v>
       </c>
       <c r="G146" t="n">
+        <v>27.31333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>26.71833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,24 +6749,27 @@
         <v>54054.9853</v>
       </c>
       <c r="G147" t="n">
+        <v>27.30666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>26.70666666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,24 +6793,27 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
+        <v>27.31999999999999</v>
+      </c>
+      <c r="H148" t="n">
         <v>26.71333333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5867,24 +6837,27 @@
         <v>4241.2634</v>
       </c>
       <c r="G149" t="n">
+        <v>27.27999999999999</v>
+      </c>
+      <c r="H149" t="n">
         <v>26.71</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,24 +6881,27 @@
         <v>68195.24340000001</v>
       </c>
       <c r="G150" t="n">
+        <v>27.24666666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>26.71166666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5949,24 +6925,27 @@
         <v>51194.2703</v>
       </c>
       <c r="G151" t="n">
+        <v>27.20666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>26.71666666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,24 +6969,27 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
+        <v>27.17333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>26.72666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,24 +7013,27 @@
         <v>4232.263</v>
       </c>
       <c r="G153" t="n">
+        <v>27.07999999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>26.725</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6072,24 +7057,27 @@
         <v>1011</v>
       </c>
       <c r="G154" t="n">
+        <v>26.99333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>26.72666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6113,24 +7101,27 @@
         <v>8000</v>
       </c>
       <c r="G155" t="n">
+        <v>26.90666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>26.73166666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,24 +7145,27 @@
         <v>30</v>
       </c>
       <c r="G156" t="n">
+        <v>26.84666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>26.74333333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6195,24 +7189,27 @@
         <v>5910</v>
       </c>
       <c r="G157" t="n">
+        <v>26.81333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>26.75333333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6236,24 +7233,27 @@
         <v>1980</v>
       </c>
       <c r="G158" t="n">
+        <v>26.75333333333332</v>
+      </c>
+      <c r="H158" t="n">
         <v>26.76166666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,24 +7277,27 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
+        <v>26.74666666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>26.77333333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6318,24 +7321,27 @@
         <v>1469.0477</v>
       </c>
       <c r="G160" t="n">
+        <v>26.71333333333332</v>
+      </c>
+      <c r="H160" t="n">
         <v>26.77833333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6359,24 +7365,27 @@
         <v>1688.0634</v>
       </c>
       <c r="G161" t="n">
+        <v>26.70666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>26.79000000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6400,24 +7409,27 @@
         <v>70588.6951</v>
       </c>
       <c r="G162" t="n">
+        <v>26.71333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>26.80333333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6441,24 +7453,27 @@
         <v>22</v>
       </c>
       <c r="G163" t="n">
+        <v>26.71333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>26.80500000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6482,24 +7497,27 @@
         <v>364.4102</v>
       </c>
       <c r="G164" t="n">
+        <v>26.75999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>26.80833333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,24 +7541,27 @@
         <v>1958.4798</v>
       </c>
       <c r="G165" t="n">
+        <v>26.79333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>26.82500000000001</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,24 +7585,27 @@
         <v>3341.6769</v>
       </c>
       <c r="G166" t="n">
+        <v>26.83333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>26.84500000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6605,24 +7629,27 @@
         <v>1147.8121</v>
       </c>
       <c r="G167" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="H167" t="n">
         <v>26.86333333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6646,24 +7673,27 @@
         <v>46343.1862</v>
       </c>
       <c r="G168" t="n">
+        <v>26.94666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>26.88666666666668</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6687,24 +7717,27 @@
         <v>11</v>
       </c>
       <c r="G169" t="n">
+        <v>27.03333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>26.90500000000002</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6728,24 +7761,27 @@
         <v>42328.1856</v>
       </c>
       <c r="G170" t="n">
+        <v>27.13333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>26.92333333333335</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6769,24 +7805,27 @@
         <v>19327.5117</v>
       </c>
       <c r="G171" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="H171" t="n">
         <v>26.95333333333335</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6810,24 +7849,27 @@
         <v>10830.3249</v>
       </c>
       <c r="G172" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="H172" t="n">
         <v>26.97833333333335</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6851,24 +7893,27 @@
         <v>85431.7001</v>
       </c>
       <c r="G173" t="n">
+        <v>27.32666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>26.99166666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6892,24 +7937,27 @@
         <v>11430.8606</v>
       </c>
       <c r="G174" t="n">
+        <v>27.39333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>27.00666666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6933,24 +7981,27 @@
         <v>45935.0413</v>
       </c>
       <c r="G175" t="n">
+        <v>27.48666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>27.02833333333335</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,24 +8025,27 @@
         <v>91695.5295</v>
       </c>
       <c r="G176" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="H176" t="n">
         <v>27.05666666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7015,24 +8069,27 @@
         <v>3253.2624</v>
       </c>
       <c r="G177" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="H177" t="n">
         <v>27.09000000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7056,24 +8113,27 @@
         <v>56192.3214</v>
       </c>
       <c r="G178" t="n">
+        <v>27.69333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>27.11166666666668</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,25 +8157,28 @@
         <v>1686.3078</v>
       </c>
       <c r="G179" t="n">
+        <v>27.74666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>27.13333333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1.110079365079365</v>
       </c>
     </row>
     <row r="180">
@@ -7138,24 +8201,21 @@
         <v>67082.43610000001</v>
       </c>
       <c r="G180" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="H180" t="n">
         <v>27.14833333333335</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7179,24 +8239,21 @@
         <v>9387.483200000001</v>
       </c>
       <c r="G181" t="n">
+        <v>27.80666666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>27.16166666666668</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,24 +8277,21 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
+        <v>27.84666666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>27.18333333333335</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7261,24 +8315,21 @@
         <v>10</v>
       </c>
       <c r="G183" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="H183" t="n">
         <v>27.21166666666668</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7302,24 +8353,401 @@
         <v>99704.9767</v>
       </c>
       <c r="G184" t="n">
+        <v>27.91333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>27.24500000000002</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3872.064056939502</v>
+      </c>
+      <c r="G185" t="n">
+        <v>27.91333333333333</v>
+      </c>
+      <c r="H185" t="n">
+        <v>27.27166666666668</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C186" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10924.5981</v>
+      </c>
+      <c r="G186" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H186" t="n">
+        <v>27.29166666666668</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D187" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>14816.4799</v>
+      </c>
+      <c r="G187" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H187" t="n">
+        <v>27.30833333333335</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C188" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F188" t="n">
+        <v>22944.7613</v>
+      </c>
+      <c r="G188" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H188" t="n">
+        <v>27.32333333333335</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>363.1679</v>
+      </c>
+      <c r="G189" t="n">
+        <v>27.88666666666666</v>
+      </c>
+      <c r="H189" t="n">
+        <v>27.33500000000002</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>11684.8393</v>
+      </c>
+      <c r="G190" t="n">
+        <v>27.87333333333333</v>
+      </c>
+      <c r="H190" t="n">
+        <v>27.34666666666668</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F191" t="n">
+        <v>144631.7688</v>
+      </c>
+      <c r="G191" t="n">
+        <v>27.80666666666666</v>
+      </c>
+      <c r="H191" t="n">
+        <v>27.34666666666668</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E192" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>40494.8199</v>
+      </c>
+      <c r="G192" t="n">
+        <v>27.77333333333333</v>
+      </c>
+      <c r="H192" t="n">
+        <v>27.35833333333334</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>28</v>
+      </c>
+      <c r="D193" t="n">
+        <v>28</v>
+      </c>
+      <c r="E193" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>38974.6574</v>
+      </c>
+      <c r="G193" t="n">
+        <v>27.77333333333333</v>
+      </c>
+      <c r="H193" t="n">
+        <v>27.37500000000001</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E194" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1243.7275</v>
+      </c>
+      <c r="G194" t="n">
+        <v>27.75999999999999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>27.38666666666668</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N252"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-655102.1795999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-658339.6991999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>-709651.4809999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>-694420.4809999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,22 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,24 +616,19 @@
         <v>-687722.7348999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,22 +655,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +694,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +733,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,22 +772,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,22 +811,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,22 +850,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,22 +889,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1000,22 +928,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,22 +967,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,22 +1006,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,22 +1045,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,22 +1084,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,22 +1123,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,22 +1162,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,22 +1201,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1240,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,22 +1279,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1318,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,22 +1357,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1396,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,22 +1435,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,22 +1474,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1630,22 +1513,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1672,22 +1552,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,22 +1591,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1756,22 +1630,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,22 +1669,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1840,22 +1708,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1882,22 +1747,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1924,22 +1786,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,22 +1825,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2008,22 +1864,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,22 +1903,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,22 +1942,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2134,22 +1981,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,22 +2020,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +2059,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,22 +2098,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,22 +2137,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,22 +2176,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2386,22 +2215,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2428,22 +2254,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,22 +2293,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2512,22 +2332,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2554,22 +2371,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2596,22 +2410,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2638,22 +2449,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,22 +2488,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2722,22 +2527,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2764,22 +2566,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2806,22 +2605,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2848,22 +2644,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2890,22 +2683,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2932,22 +2722,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2974,22 +2761,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3016,22 +2800,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3058,22 +2839,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3100,22 +2878,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3142,22 +2917,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3184,22 +2956,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3226,22 +2995,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3268,22 +3034,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3310,22 +3073,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3352,22 +3112,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3394,22 +3151,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3436,22 +3190,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3478,22 +3229,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3520,22 +3268,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3562,22 +3307,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3604,22 +3346,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3646,22 +3385,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3688,22 +3424,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3730,22 +3463,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3772,22 +3502,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3814,22 +3541,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3856,22 +3580,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3898,22 +3619,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3940,22 +3658,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3982,22 +3697,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4024,22 +3736,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4066,22 +3775,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4108,22 +3814,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4150,22 +3853,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4192,22 +3892,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4234,22 +3931,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4276,22 +3970,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4318,22 +4009,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4360,22 +4048,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4402,22 +4087,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4444,22 +4126,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4486,22 +4165,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4528,22 +4204,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4570,22 +4243,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4612,22 +4282,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4654,22 +4321,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4696,22 +4360,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4738,22 +4399,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4780,22 +4438,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4822,22 +4477,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4864,22 +4516,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4906,22 +4555,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4948,22 +4594,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4988,26 +4631,23 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="J110" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K110" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5032,26 +4672,23 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="J111" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K111" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5076,26 +4713,23 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="J112" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K112" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5120,26 +4754,23 @@
         <v>-1495072.262292248</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="J113" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K113" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5164,26 +4795,23 @@
         <v>-1495072.262292248</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="J114" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5208,26 +4836,23 @@
         <v>-1423161.293978967</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="J115" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5252,26 +4877,23 @@
         <v>-1423161.293978967</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J116" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K116" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5296,26 +4918,21 @@
         <v>-1135977.074292248</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K117" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5342,22 +4959,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5384,22 +4998,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5426,22 +5037,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5468,22 +5076,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5510,22 +5115,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5552,22 +5154,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5594,22 +5193,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5636,22 +5232,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5676,24 +5269,23 @@
         <v>-1155630.074292248</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5718,24 +5310,23 @@
         <v>-1159298.234292248</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J127" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5760,24 +5351,23 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>26.5</v>
+      </c>
+      <c r="J128" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5804,22 +5394,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5846,22 +5433,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5888,22 +5472,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5930,22 +5511,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5972,22 +5550,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6014,22 +5589,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6056,22 +5628,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6098,22 +5667,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6140,22 +5706,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6182,22 +5745,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6224,22 +5784,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6266,22 +5823,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6308,22 +5862,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6350,22 +5901,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6392,22 +5940,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6434,22 +5979,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6476,22 +6018,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6518,22 +6057,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6560,22 +6096,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6602,22 +6135,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6644,22 +6174,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6686,22 +6213,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6728,22 +6252,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6770,22 +6291,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6812,22 +6330,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6854,22 +6369,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6894,26 +6406,21 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K155" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6940,22 +6447,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6982,22 +6486,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7024,22 +6525,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7064,26 +6562,21 @@
         <v>-1366454.590292248</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K159" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7110,22 +6603,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7152,22 +6642,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7194,22 +6681,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7236,22 +6720,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7278,22 +6759,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7320,22 +6798,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7360,24 +6835,21 @@
         <v>-1318204.686684868</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7404,22 +6876,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7446,22 +6915,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7488,22 +6954,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7530,22 +6993,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7572,22 +7032,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7614,22 +7071,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7656,22 +7110,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7698,22 +7149,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7740,22 +7188,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7782,22 +7227,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7824,22 +7266,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7866,22 +7305,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7908,22 +7344,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7950,22 +7383,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7992,22 +7422,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8034,22 +7461,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8076,22 +7500,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8118,22 +7539,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8160,22 +7578,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8202,22 +7617,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8244,22 +7656,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8286,22 +7695,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8328,22 +7734,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8370,22 +7773,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8412,22 +7812,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8454,22 +7851,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8496,22 +7890,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8538,22 +7929,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8580,22 +7968,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8622,22 +8007,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8664,22 +8046,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8706,22 +8085,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8748,22 +8124,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8790,22 +8163,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8832,22 +8202,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8874,22 +8241,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8916,22 +8280,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8958,22 +8319,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9000,22 +8358,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9042,22 +8397,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9084,22 +8436,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9126,22 +8475,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9168,22 +8514,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9210,22 +8553,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9252,22 +8592,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9294,22 +8631,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9336,22 +8670,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9378,22 +8709,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9420,22 +8748,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9462,22 +8787,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9504,22 +8826,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9546,22 +8865,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9588,22 +8904,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9630,22 +8943,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9672,22 +8982,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9714,22 +9021,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9756,22 +9060,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9798,22 +9099,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9840,22 +9138,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9882,22 +9177,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9924,22 +9216,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9966,24 +9255,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1.09265625</v>
-      </c>
-      <c r="N228" t="n">
-        <v>1.007874015748032</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10010,16 +9294,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10046,16 +9333,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10082,16 +9372,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10118,16 +9411,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10154,16 +9450,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10190,16 +9489,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10226,16 +9528,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10262,16 +9567,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10296,18 +9604,23 @@
         <v>-762474.2120146854</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1.079942084942085</v>
+      </c>
       <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>1.03968253968254</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10332,18 +9645,15 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10368,18 +9678,15 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10404,18 +9711,15 @@
         <v>-829546.6481146854</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10440,18 +9744,15 @@
         <v>-829536.6481146854</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10476,18 +9777,15 @@
         <v>-729831.6714146854</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10512,18 +9810,15 @@
         <v>-733703.7354716249</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10548,18 +9843,15 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10584,18 +9876,15 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10620,18 +9909,15 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10658,16 +9944,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10694,16 +9977,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10730,16 +10010,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10766,16 +10043,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10802,16 +10076,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10838,18 +10109,15 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,14 +616,10 @@
         <v>-687722.7348999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -656,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -695,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -734,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -773,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -812,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -851,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -890,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -929,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -968,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1007,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1046,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1085,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1124,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1163,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1202,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1241,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1280,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1319,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1358,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1397,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1436,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1475,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1514,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1553,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1592,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1631,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1670,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1709,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1748,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1787,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1826,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1865,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1904,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1943,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1982,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2021,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2060,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2099,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2138,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2177,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2216,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2255,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2294,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2333,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2372,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2450,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2489,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2528,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2567,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2606,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2645,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2684,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2723,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2762,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2801,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2840,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2879,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2918,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2957,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2996,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3035,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3074,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3113,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3191,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3230,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3269,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3308,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3347,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3386,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3425,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3464,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3542,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3581,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3620,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3698,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3932,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4010,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4049,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4088,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4127,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4205,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4244,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4283,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4322,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4400,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4439,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4478,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4517,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4556,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4595,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4631,19 +4015,11 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4672,19 +4048,15 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>25.3</v>
       </c>
       <c r="J111" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>25.3</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4713,17 +4085,15 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
         <v>25.3</v>
       </c>
-      <c r="J112" t="n">
-        <v>25.9</v>
-      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4754,17 +4124,15 @@
         <v>-1495072.262292248</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
         <v>25.3</v>
       </c>
-      <c r="J113" t="n">
-        <v>25.9</v>
-      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4795,19 +4163,15 @@
         <v>-1495072.262292248</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>25.4</v>
       </c>
       <c r="J114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>25.4</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4836,17 +4200,17 @@
         <v>-1423161.293978967</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>25.4</v>
       </c>
       <c r="J115" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4877,13 +4241,13 @@
         <v>-1423161.293978967</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>25.6</v>
       </c>
       <c r="J116" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4918,11 +4282,13 @@
         <v>-1135977.074292248</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J117" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4961,7 +4327,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5000,7 +4366,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5039,7 +4405,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5078,7 +4444,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5117,7 +4483,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5156,7 +4522,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5195,7 +4561,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5234,7 +4600,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5269,13 +4635,11 @@
         <v>-1155630.074292248</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5310,13 +4674,11 @@
         <v>-1159298.234292248</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5351,13 +4713,11 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5396,7 +4756,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5435,7 +4795,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5474,7 +4834,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5513,7 +4873,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5552,7 +4912,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5591,7 +4951,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5630,7 +4990,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5669,7 +5029,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5708,7 +5068,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5747,7 +5107,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5786,7 +5146,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5825,7 +5185,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5864,7 +5224,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5903,7 +5263,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5942,7 +5302,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5981,7 +5341,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6020,7 +5380,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6059,7 +5419,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6098,7 +5458,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6137,7 +5497,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6176,7 +5536,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6215,7 +5575,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6250,11 +5610,13 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J151" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6289,11 +5651,13 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J152" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6328,11 +5692,13 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J153" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6367,11 +5733,13 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J154" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6406,11 +5774,13 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J155" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6445,11 +5815,13 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J156" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6484,11 +5856,13 @@
         <v>-1366454.590292248</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J157" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6523,11 +5897,13 @@
         <v>-1366454.590292248</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J158" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6562,11 +5938,13 @@
         <v>-1366454.590292248</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J159" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6601,11 +5979,13 @@
         <v>-1230880.779692248</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J160" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6640,11 +6020,13 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J161" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6683,7 +6065,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6722,7 +6104,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6761,7 +6143,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6800,7 +6182,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6835,11 +6217,11 @@
         <v>-1318204.686684868</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6878,7 +6260,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6917,7 +6299,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6956,7 +6338,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6995,7 +6377,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7034,7 +6416,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7073,7 +6455,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7112,7 +6494,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7151,7 +6533,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7190,7 +6572,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7229,7 +6611,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7268,7 +6650,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7307,7 +6689,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7346,7 +6728,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7385,7 +6767,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7424,7 +6806,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7463,7 +6845,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7502,7 +6884,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7541,7 +6923,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7580,7 +6962,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7619,7 +7001,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7658,7 +7040,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7697,7 +7079,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7736,7 +7118,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7775,7 +7157,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7814,7 +7196,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7853,7 +7235,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7892,7 +7274,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7931,7 +7313,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7970,7 +7352,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8009,7 +7391,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8048,7 +7430,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8087,7 +7469,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8126,7 +7508,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8165,7 +7547,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8204,7 +7586,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8243,7 +7625,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8282,7 +7664,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8321,7 +7703,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8360,7 +7742,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8399,7 +7781,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8438,7 +7820,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8477,7 +7859,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8516,7 +7898,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8555,7 +7937,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8594,7 +7976,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8633,7 +8015,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8672,7 +8054,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8711,7 +8093,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8750,7 +8132,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8789,7 +8171,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8828,7 +8210,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8867,7 +8249,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8906,7 +8288,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8945,7 +8327,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8984,7 +8366,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9023,7 +8405,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9062,7 +8444,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9101,7 +8483,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9140,7 +8522,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9179,7 +8561,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9218,7 +8600,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9257,7 +8639,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9296,7 +8678,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9335,7 +8717,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9374,7 +8756,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9413,7 +8795,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9452,7 +8834,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9491,7 +8873,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9530,7 +8912,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9565,21 +8947,23 @@
         <v>-764160.5198146853</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>1.09736220472441</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.087649402390438</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9604,23 +8988,15 @@
         <v>-762474.2120146854</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>1.079942084942085</v>
-      </c>
-      <c r="M237" t="n">
-        <v>1.03968253968254</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9645,7 +9021,7 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9678,7 +9054,7 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9711,7 +9087,7 @@
         <v>-829546.6481146854</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9744,7 +9120,7 @@
         <v>-829536.6481146854</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9777,7 +9153,7 @@
         <v>-729831.6714146854</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9810,7 +9186,7 @@
         <v>-733703.7354716249</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9843,7 +9219,7 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9876,7 +9252,7 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9909,7 +9285,7 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9942,7 +9318,7 @@
         <v>-744991.5014716248</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9975,7 +9351,7 @@
         <v>-744991.5014716248</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10008,7 +9384,7 @@
         <v>-889623.2702716248</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10041,7 +9417,7 @@
         <v>-849128.4503716248</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10074,7 +9450,7 @@
         <v>-810153.7929716248</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10107,7 +9483,7 @@
         <v>-811397.5204716248</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10118,6 +9494,6 @@
       <c r="M252" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1936,7 +1936,7 @@
         <v>-640622.0391999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-633226.4096999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-633346.0500999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-651030.8151999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-646494.4257999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-641853.6444999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-639993.1618999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-639993.1618999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-640587.9596999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-617442.8952999997</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-626030.4373999997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-625717.6541999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-625769.8825999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-683921.6858999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-693417.4091999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-715602.8706999997</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3949,10 +3949,14 @@
         <v>-1465590.017992248</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>25.3</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -3982,11 +3986,19 @@
         <v>-1496267.635492248</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J109" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4027,19 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4056,7 +4076,11 @@
       <c r="J111" t="n">
         <v>25.3</v>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,15 +4109,17 @@
         <v>-1495087.635492248</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>25.3</v>
+      </c>
       <c r="J112" t="n">
         <v>25.3</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4124,15 +4150,17 @@
         <v>-1495072.262292248</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>25.3</v>
+      </c>
       <c r="J113" t="n">
         <v>25.3</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4169,9 +4197,13 @@
         <v>25.4</v>
       </c>
       <c r="J114" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+        <v>25.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4206,11 +4238,11 @@
         <v>25.4</v>
       </c>
       <c r="J115" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4241,13 +4273,11 @@
         <v>-1423161.293978967</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4282,13 +4312,11 @@
         <v>-1135977.074292248</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4327,7 +4355,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4362,11 +4390,11 @@
         <v>-1132966.074292248</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4401,21 +4429,23 @@
         <v>-1136977.074292248</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>1.07405138339921</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.087649402390438</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4440,17 +4470,11 @@
         <v>-1136977.074292248</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4479,17 +4503,11 @@
         <v>-1179640.074292248</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4518,17 +4536,11 @@
         <v>-1179640.074292248</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4557,17 +4569,11 @@
         <v>-1169640.074292248</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4599,14 +4605,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4638,14 +4638,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4674,17 +4668,11 @@
         <v>-1159298.234292248</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4713,17 +4701,11 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4752,17 +4734,11 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4770,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4833,14 +4803,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4872,14 +4836,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4911,14 +4869,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4950,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4989,14 +4935,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5028,14 +4968,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5067,14 +5001,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +5034,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5145,14 +5067,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5184,14 +5100,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5223,14 +5133,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5262,14 +5166,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5298,17 +5196,11 @@
         <v>-1094193.362392248</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5340,14 +5232,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5379,14 +5265,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5418,14 +5298,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5457,14 +5331,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5496,14 +5364,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5535,14 +5397,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5574,14 +5430,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5610,19 +5460,11 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J151" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5651,19 +5493,11 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5692,19 +5526,11 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J153" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5733,19 +5559,11 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J154" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5774,19 +5592,11 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J155" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5815,19 +5625,11 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J156" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5856,19 +5658,11 @@
         <v>-1366454.590292248</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J157" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5897,19 +5691,11 @@
         <v>-1366454.590292248</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5938,19 +5724,11 @@
         <v>-1366454.590292248</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J159" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5979,19 +5757,11 @@
         <v>-1230880.779692248</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6020,19 +5790,11 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J161" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6061,17 +5823,11 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6103,14 +5859,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6139,17 +5889,11 @@
         <v>-1299653.723184868</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6181,14 +5925,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6220,14 +5958,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6259,14 +5991,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6298,14 +6024,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6337,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6376,14 +6090,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6415,14 +6123,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6454,14 +6156,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6493,14 +6189,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6532,14 +6222,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6571,14 +6255,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6610,14 +6288,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6649,14 +6321,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6688,14 +6354,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6727,14 +6387,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6766,14 +6420,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6805,14 +6453,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6844,14 +6486,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6883,14 +6519,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6922,14 +6552,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6961,14 +6585,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7000,14 +6618,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7039,14 +6651,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7075,17 +6681,15 @@
         <v>-1333148.772114686</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J188" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.9</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7118,11 +6722,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -7157,11 +6761,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -7196,7 +6800,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7235,7 +6839,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7274,7 +6878,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7313,7 +6917,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7352,7 +6956,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7391,7 +6995,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7430,7 +7034,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7469,7 +7073,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7508,7 +7112,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7547,7 +7151,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7586,7 +7190,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7625,7 +7229,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7664,7 +7268,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7703,7 +7307,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7742,7 +7346,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7781,7 +7385,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7820,7 +7424,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7859,7 +7463,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7898,7 +7502,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7937,7 +7541,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7976,7 +7580,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8015,7 +7619,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8054,7 +7658,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8093,7 +7697,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8132,7 +7736,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8171,7 +7775,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8210,7 +7814,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8249,7 +7853,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8288,7 +7892,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8327,7 +7931,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8366,7 +7970,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8405,7 +8009,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8444,7 +8048,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8483,7 +8087,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8522,7 +8126,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8561,7 +8165,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8600,7 +8204,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8639,7 +8243,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8678,7 +8282,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8717,7 +8321,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8756,7 +8360,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8795,7 +8399,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8834,7 +8438,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8873,7 +8477,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8912,7 +8516,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8947,23 +8551,21 @@
         <v>-764160.5198146853</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1.09736220472441</v>
-      </c>
-      <c r="M236" t="n">
-        <v>1.087649402390438</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8988,11 +8590,17 @@
         <v>-762474.2120146854</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9021,11 +8629,17 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9054,11 +8668,17 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9087,11 +8707,17 @@
         <v>-829546.6481146854</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9120,11 +8746,17 @@
         <v>-829536.6481146854</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +8785,17 @@
         <v>-729831.6714146854</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9186,11 +8824,17 @@
         <v>-733703.7354716249</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9219,11 +8863,17 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9252,11 +8902,17 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9285,11 +8941,17 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +8980,17 @@
         <v>-744991.5014716248</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9351,11 +9019,17 @@
         <v>-744991.5014716248</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +9058,17 @@
         <v>-889623.2702716248</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9417,11 +9097,17 @@
         <v>-849128.4503716248</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9450,11 +9136,17 @@
         <v>-810153.7929716248</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9483,17 +9175,23 @@
         <v>-811397.5204716248</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
       <c r="M252" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -1936,7 +1936,7 @@
         <v>-640622.0391999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-633226.4096999998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-633346.0500999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-651030.8151999998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-646494.4257999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-641853.6444999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-639993.1618999998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-639993.1618999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-640587.9596999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-617442.8952999997</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-626030.4373999997</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-625717.6541999998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-625769.8825999998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-683921.6858999998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-693417.4091999998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-715602.8706999997</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3949,14 +3949,10 @@
         <v>-1465590.017992248</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>25.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -3986,19 +3982,11 @@
         <v>-1496267.635492248</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J109" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4033,13 +4021,9 @@
         <v>25.2</v>
       </c>
       <c r="J110" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>25.2</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4074,11 +4058,11 @@
         <v>25.3</v>
       </c>
       <c r="J111" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4115,11 +4099,11 @@
         <v>25.3</v>
       </c>
       <c r="J112" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4158,11 +4142,7 @@
       <c r="J113" t="n">
         <v>25.3</v>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4201,7 +4181,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4242,7 +4222,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4273,17 +4253,15 @@
         <v>-1423161.293978967</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J116" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>25.6</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4312,15 +4290,17 @@
         <v>-1135977.074292248</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J117" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4355,7 +4335,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4390,11 +4370,11 @@
         <v>-1132966.074292248</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4429,23 +4409,21 @@
         <v>-1136977.074292248</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.07405138339921</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1.087649402390438</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4470,11 +4448,17 @@
         <v>-1136977.074292248</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4487,17 @@
         <v>-1179640.074292248</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4536,11 +4526,17 @@
         <v>-1179640.074292248</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4569,11 +4565,17 @@
         <v>-1169640.074292248</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4605,8 +4607,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4638,8 +4646,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4668,11 +4682,17 @@
         <v>-1159298.234292248</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4701,11 +4721,17 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4734,11 +4760,17 @@
         <v>-1131681.234292248</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4770,8 +4802,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4803,8 +4841,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4836,8 +4880,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4869,8 +4919,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +4958,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4935,8 +4997,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4968,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5001,8 +5075,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5034,8 +5114,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5067,8 +5153,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5100,8 +5192,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5133,8 +5231,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5166,8 +5270,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5196,11 +5306,17 @@
         <v>-1094193.362392248</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5232,8 +5348,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5265,8 +5387,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5298,8 +5426,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5331,8 +5465,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5364,8 +5504,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5397,8 +5543,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5430,8 +5582,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5460,11 +5618,17 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5493,11 +5657,17 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5526,11 +5696,17 @@
         <v>-1269730.837292248</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5559,11 +5735,17 @@
         <v>-1361595.804892248</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5595,8 +5777,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5628,8 +5816,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5661,8 +5855,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5694,8 +5894,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5727,8 +5933,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5757,11 +5969,17 @@
         <v>-1230880.779692248</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +6008,17 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5823,11 +6047,17 @@
         <v>-1214269.630484868</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5859,8 +6089,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5889,11 +6125,17 @@
         <v>-1299653.723184868</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5925,8 +6167,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5958,8 +6206,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5991,8 +6245,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6024,8 +6284,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6057,8 +6323,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6090,8 +6362,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6123,8 +6401,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6156,8 +6440,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6189,8 +6479,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6222,8 +6518,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6255,8 +6557,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6288,8 +6596,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6321,8 +6635,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6354,8 +6674,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6387,8 +6713,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6420,8 +6752,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6453,8 +6791,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6486,8 +6830,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6519,8 +6869,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6552,8 +6908,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6585,8 +6947,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6618,8 +6986,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6651,8 +7025,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6681,15 +7061,17 @@
         <v>-1333148.772114686</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+        <v>25.6</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +7104,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -6761,11 +7143,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -6800,7 +7182,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6839,7 +7221,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6878,7 +7260,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6917,7 +7299,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6956,7 +7338,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6995,7 +7377,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7034,7 +7416,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7073,7 +7455,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7112,7 +7494,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7151,7 +7533,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7190,7 +7572,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7229,7 +7611,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7268,7 +7650,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7307,7 +7689,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7346,7 +7728,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7385,7 +7767,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7424,7 +7806,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7463,7 +7845,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7502,7 +7884,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7541,7 +7923,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7580,7 +7962,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7619,7 +8001,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7658,7 +8040,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7697,7 +8079,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7736,7 +8118,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7775,7 +8157,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7814,7 +8196,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7853,7 +8235,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7892,7 +8274,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7931,7 +8313,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7970,7 +8352,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8009,7 +8391,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8048,7 +8430,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8087,7 +8469,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8126,7 +8508,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8165,7 +8547,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8204,7 +8586,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8243,7 +8625,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8278,21 +8660,23 @@
         <v>-803517.5260146854</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>1.08484375</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1.087649402390438</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8317,17 +8701,11 @@
         <v>-814347.8509146854</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8356,17 +8734,11 @@
         <v>-814347.8509146854</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8398,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8437,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8473,17 +8833,11 @@
         <v>-711221.4608146853</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8512,17 +8866,11 @@
         <v>-707968.1984146853</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8551,17 +8899,11 @@
         <v>-764160.5198146853</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8590,17 +8932,11 @@
         <v>-762474.2120146854</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8629,17 +8965,11 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8668,17 +8998,11 @@
         <v>-829556.6481146854</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8707,17 +9031,11 @@
         <v>-829546.6481146854</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8746,17 +9064,11 @@
         <v>-829536.6481146854</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8785,17 +9097,11 @@
         <v>-729831.6714146854</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8824,17 +9130,11 @@
         <v>-733703.7354716249</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8863,17 +9163,11 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8902,17 +9196,11 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8941,17 +9229,11 @@
         <v>-744628.3335716248</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8980,17 +9262,11 @@
         <v>-744991.5014716248</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9019,17 +9295,11 @@
         <v>-744991.5014716248</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9058,17 +9328,11 @@
         <v>-889623.2702716248</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9100,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9139,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9175,17 +9427,11 @@
         <v>-811397.5204716248</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-05 BackTest CMT.xlsx
+++ b/BackTest/2019-10-05 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:L252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>303.1411</v>
       </c>
       <c r="G2" t="n">
-        <v>-655102.1795999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3237.5196</v>
       </c>
       <c r="G3" t="n">
-        <v>-658339.6991999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>51311.7818</v>
       </c>
       <c r="G4" t="n">
-        <v>-709651.4809999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>15231</v>
       </c>
       <c r="G5" t="n">
-        <v>-694420.4809999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>581.1506000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-693839.3303999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6116.5955</v>
       </c>
       <c r="G7" t="n">
-        <v>-687722.7348999998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>-687710.7348999998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>4936.7018</v>
       </c>
       <c r="G9" t="n">
-        <v>-692647.4366999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>622.5681</v>
       </c>
       <c r="G10" t="n">
-        <v>-692647.4366999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>5938.7824</v>
       </c>
       <c r="G11" t="n">
-        <v>-698586.2190999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>60336.9948</v>
       </c>
       <c r="G12" t="n">
-        <v>-698586.2190999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>154036.1146</v>
       </c>
       <c r="G13" t="n">
-        <v>-544550.1044999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>400</v>
       </c>
       <c r="G14" t="n">
-        <v>-544150.1044999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1516.7041</v>
       </c>
       <c r="G15" t="n">
-        <v>-542633.4003999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1500</v>
       </c>
       <c r="G16" t="n">
-        <v>-542633.4003999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2700</v>
       </c>
       <c r="G17" t="n">
-        <v>-545333.4003999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>585.9375</v>
       </c>
       <c r="G18" t="n">
-        <v>-544747.4628999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>6518.9389</v>
       </c>
       <c r="G19" t="n">
-        <v>-538228.524</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>14.63</v>
       </c>
       <c r="G20" t="n">
-        <v>-538228.524</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1900.7771</v>
       </c>
       <c r="G21" t="n">
-        <v>-540129.3010999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>8995.530699999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-540129.3010999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>37445.6433</v>
       </c>
       <c r="G23" t="n">
-        <v>-502683.6577999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3246.7129</v>
       </c>
       <c r="G24" t="n">
-        <v>-499436.9448999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2958.2853</v>
       </c>
       <c r="G25" t="n">
-        <v>-502395.2301999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>119021.9881</v>
       </c>
       <c r="G26" t="n">
-        <v>-621417.2182999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>645.4771</v>
       </c>
       <c r="G27" t="n">
-        <v>-622062.6954</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>93132</v>
       </c>
       <c r="G28" t="n">
-        <v>-528930.6954</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>104397.1562</v>
       </c>
       <c r="G29" t="n">
-        <v>-633327.8515999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>113191.8704</v>
       </c>
       <c r="G30" t="n">
-        <v>-746519.722</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>37144.7733</v>
       </c>
       <c r="G31" t="n">
-        <v>-783664.4953</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3540</v>
       </c>
       <c r="G32" t="n">
-        <v>-780124.4953</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>196</v>
       </c>
       <c r="G33" t="n">
-        <v>-779928.4953</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2770</v>
       </c>
       <c r="G34" t="n">
-        <v>-777158.4953</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2000</v>
       </c>
       <c r="G35" t="n">
-        <v>-777158.4953</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>200000</v>
       </c>
       <c r="G36" t="n">
-        <v>-777158.4953</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>218000</v>
       </c>
       <c r="G37" t="n">
-        <v>-995158.4953</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>32272.0263</v>
       </c>
       <c r="G38" t="n">
-        <v>-962886.4689999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>15.3474</v>
       </c>
       <c r="G39" t="n">
-        <v>-962871.1216</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>78182.0463</v>
       </c>
       <c r="G40" t="n">
-        <v>-962871.1216</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>200000</v>
       </c>
       <c r="G41" t="n">
-        <v>-962871.1216</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3810</v>
       </c>
       <c r="G42" t="n">
-        <v>-966681.1216</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>101207</v>
       </c>
       <c r="G43" t="n">
-        <v>-865474.1216</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>72892.724</v>
       </c>
       <c r="G44" t="n">
-        <v>-792581.3975999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>301</v>
       </c>
       <c r="G45" t="n">
-        <v>-792882.3975999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>179944.1253</v>
       </c>
       <c r="G46" t="n">
-        <v>-612938.2722999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>27683.7669</v>
       </c>
       <c r="G47" t="n">
-        <v>-640622.0391999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>7395.6295</v>
       </c>
       <c r="G48" t="n">
-        <v>-633226.4096999998</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>119.6404</v>
       </c>
       <c r="G49" t="n">
-        <v>-633346.0500999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>17684.7651</v>
       </c>
       <c r="G50" t="n">
-        <v>-651030.8151999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>4536.3894</v>
       </c>
       <c r="G51" t="n">
-        <v>-646494.4257999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>4640.7813</v>
       </c>
       <c r="G52" t="n">
-        <v>-641853.6444999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1860.4826</v>
       </c>
       <c r="G53" t="n">
-        <v>-639993.1618999998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>37665.772</v>
       </c>
       <c r="G54" t="n">
-        <v>-639993.1618999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>594.7978000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-640587.9596999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>23145.0644</v>
       </c>
       <c r="G56" t="n">
-        <v>-617442.8952999997</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>8587.542100000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-626030.4373999997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>312.7832</v>
       </c>
       <c r="G58" t="n">
-        <v>-625717.6541999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>52.2284</v>
       </c>
       <c r="G59" t="n">
-        <v>-625769.8825999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>58151.8033</v>
       </c>
       <c r="G60" t="n">
-        <v>-683921.6858999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>9495.7233</v>
       </c>
       <c r="G61" t="n">
-        <v>-693417.4091999998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>22185.4615</v>
       </c>
       <c r="G62" t="n">
-        <v>-715602.8706999997</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>52965.9746</v>
       </c>
       <c r="G63" t="n">
-        <v>-662636.8960999998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>47979.7896</v>
       </c>
       <c r="G64" t="n">
-        <v>-662636.8960999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>17586.7782</v>
       </c>
       <c r="G65" t="n">
-        <v>-662636.8960999998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>115943.9089</v>
       </c>
       <c r="G66" t="n">
-        <v>-778580.8049999998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>76440.969</v>
       </c>
       <c r="G67" t="n">
-        <v>-778580.8049999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>7418.9676</v>
       </c>
       <c r="G68" t="n">
-        <v>-771161.8373999998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1582.5196</v>
       </c>
       <c r="G69" t="n">
-        <v>-771161.8373999998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>216747.3928</v>
       </c>
       <c r="G70" t="n">
-        <v>-987909.2301999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>105475.9203</v>
       </c>
       <c r="G71" t="n">
-        <v>-882433.3098999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>233937.9898</v>
       </c>
       <c r="G72" t="n">
-        <v>-1116371.2997</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>118032.9229</v>
       </c>
       <c r="G73" t="n">
-        <v>-1234404.2226</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>85211.2629</v>
       </c>
       <c r="G74" t="n">
-        <v>-1234404.2226</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1787.1703</v>
       </c>
       <c r="G75" t="n">
-        <v>-1236191.3929</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>24086.7736</v>
       </c>
       <c r="G76" t="n">
-        <v>-1212104.6193</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-1212094.6193</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>16469.1216</v>
       </c>
       <c r="G78" t="n">
-        <v>-1228563.7409</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>7358.3157</v>
       </c>
       <c r="G79" t="n">
-        <v>-1221205.4252</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>99586.3921</v>
       </c>
       <c r="G80" t="n">
-        <v>-1320791.8173</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2103.0497</v>
       </c>
       <c r="G81" t="n">
-        <v>-1320791.8173</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>-1320781.8173</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,19 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-1320771.8173</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>25.6</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2907,21 @@
         <v>22977</v>
       </c>
       <c r="G84" t="n">
-        <v>-1320771.8173</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2943,21 @@
         <v>1037.409</v>
       </c>
       <c r="G85" t="n">
-        <v>-1321809.2263</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2979,15 @@
         <v>1376.353707751938</v>
       </c>
       <c r="G86" t="n">
-        <v>-1320432.872592248</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3009,15 @@
         <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>-1320332.872592248</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3039,15 @@
         <v>400.0337</v>
       </c>
       <c r="G88" t="n">
-        <v>-1319932.838892248</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3069,15 @@
         <v>400</v>
       </c>
       <c r="G89" t="n">
-        <v>-1319532.838892248</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3099,15 @@
         <v>1787.1704</v>
       </c>
       <c r="G90" t="n">
-        <v>-1321320.009292248</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3129,15 @@
         <v>1387.17</v>
       </c>
       <c r="G91" t="n">
-        <v>-1319932.839292248</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,15 @@
         <v>2509.7656</v>
       </c>
       <c r="G92" t="n">
-        <v>-1322442.604892248</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3189,15 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>-1322342.604892248</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3219,15 @@
         <v>248.9189</v>
       </c>
       <c r="G94" t="n">
-        <v>-1322591.523792248</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3249,15 @@
         <v>102541.7205</v>
       </c>
       <c r="G95" t="n">
-        <v>-1425133.244292248</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3279,15 @@
         <v>26</v>
       </c>
       <c r="G96" t="n">
-        <v>-1425159.244292248</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3309,15 @@
         <v>12384.9802</v>
       </c>
       <c r="G97" t="n">
-        <v>-1437544.224492248</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3339,15 @@
         <v>3937.1163</v>
       </c>
       <c r="G98" t="n">
-        <v>-1437544.224492248</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3369,15 @@
         <v>11623.0469</v>
       </c>
       <c r="G99" t="n">
-        <v>-1437544.224492248</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3399,15 @@
         <v>7088.713</v>
       </c>
       <c r="G100" t="n">
-        <v>-1437544.224492248</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3429,15 @@
         <v>20333.933</v>
       </c>
       <c r="G101" t="n">
-        <v>-1457878.157492248</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3459,15 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>-1457868.157492248</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3489,19 @@
         <v>17.7555</v>
       </c>
       <c r="G103" t="n">
-        <v>-1457850.401992248</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="I103" t="n">
+        <v>25.4</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3523,21 @@
         <v>3908.75</v>
       </c>
       <c r="G104" t="n">
-        <v>-1453941.651992248</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3559,23 @@
         <v>427.8882</v>
       </c>
       <c r="G105" t="n">
-        <v>-1454369.540192248</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>25.6</v>
+      </c>
+      <c r="I105" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3597,19 @@
         <v>14231.211</v>
       </c>
       <c r="G106" t="n">
-        <v>-1454369.540192248</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="I106" t="n">
+        <v>25.4</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3631,23 @@
         <v>11243.4778</v>
       </c>
       <c r="G107" t="n">
-        <v>-1465613.017992248</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="I107" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3669,23 @@
         <v>23</v>
       </c>
       <c r="G108" t="n">
-        <v>-1465590.017992248</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>25.3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3707,15 @@
         <v>30677.6175</v>
       </c>
       <c r="G109" t="n">
-        <v>-1496267.635492248</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,22 +3737,15 @@
         <v>1180</v>
       </c>
       <c r="G110" t="n">
-        <v>-1495087.635492248</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4049,186 +3767,151 @@
         <v>61.6625</v>
       </c>
       <c r="G111" t="n">
-        <v>-1495087.635492248</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
         <v>25.3</v>
       </c>
-      <c r="J111" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
+      <c r="C112" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1626.7591</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15.3732</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>30</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>71910.96831328125</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
         <v>25.3</v>
       </c>
-      <c r="C112" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1626.7591</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1495087.635492248</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>15.3732</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1495072.262292248</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D114" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>30</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1495072.262292248</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E115" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>71910.96831328125</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1423161.293978967</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4250,22 +3933,15 @@
         <v>15.9319</v>
       </c>
       <c r="G116" t="n">
-        <v>-1423161.293978967</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J116" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4287,26 +3963,15 @@
         <v>287184.2196867188</v>
       </c>
       <c r="G117" t="n">
-        <v>-1135977.074292248</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J117" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4328,24 +3993,15 @@
         <v>16011</v>
       </c>
       <c r="G118" t="n">
-        <v>-1119966.074292248</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4367,24 +4023,15 @@
         <v>13000</v>
       </c>
       <c r="G119" t="n">
-        <v>-1132966.074292248</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4406,24 +4053,15 @@
         <v>4011</v>
       </c>
       <c r="G120" t="n">
-        <v>-1136977.074292248</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4445,24 +4083,15 @@
         <v>21500</v>
       </c>
       <c r="G121" t="n">
-        <v>-1136977.074292248</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4484,24 +4113,15 @@
         <v>42663</v>
       </c>
       <c r="G122" t="n">
-        <v>-1179640.074292248</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4523,24 +4143,15 @@
         <v>6000</v>
       </c>
       <c r="G123" t="n">
-        <v>-1179640.074292248</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4562,24 +4173,15 @@
         <v>10000</v>
       </c>
       <c r="G124" t="n">
-        <v>-1169640.074292248</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4601,24 +4203,15 @@
         <v>24000</v>
       </c>
       <c r="G125" t="n">
-        <v>-1169640.074292248</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4640,24 +4233,15 @@
         <v>14010</v>
       </c>
       <c r="G126" t="n">
-        <v>-1155630.074292248</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4679,24 +4263,15 @@
         <v>3668.16</v>
       </c>
       <c r="G127" t="n">
-        <v>-1159298.234292248</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4718,24 +4293,15 @@
         <v>27617</v>
       </c>
       <c r="G128" t="n">
-        <v>-1131681.234292248</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4757,24 +4323,15 @@
         <v>7762.9104</v>
       </c>
       <c r="G129" t="n">
-        <v>-1131681.234292248</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4796,24 +4353,15 @@
         <v>3100</v>
       </c>
       <c r="G130" t="n">
-        <v>-1128581.234292248</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4835,24 +4383,15 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>-1128570.234292248</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4874,24 +4413,15 @@
         <v>89094.5202</v>
       </c>
       <c r="G132" t="n">
-        <v>-1128570.234292248</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4913,24 +4443,15 @@
         <v>1600</v>
       </c>
       <c r="G133" t="n">
-        <v>-1126970.234292248</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4952,24 +4473,15 @@
         <v>17000</v>
       </c>
       <c r="G134" t="n">
-        <v>-1143970.234292248</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4991,24 +4503,15 @@
         <v>24000</v>
       </c>
       <c r="G135" t="n">
-        <v>-1119970.234292248</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5030,24 +4533,15 @@
         <v>15800</v>
       </c>
       <c r="G136" t="n">
-        <v>-1104170.234292248</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5069,24 +4563,15 @@
         <v>55662.0216</v>
       </c>
       <c r="G137" t="n">
-        <v>-1104170.234292248</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5108,24 +4593,15 @@
         <v>43585.6434</v>
       </c>
       <c r="G138" t="n">
-        <v>-1147755.877692248</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5147,24 +4623,15 @@
         <v>9424.519899999999</v>
       </c>
       <c r="G139" t="n">
-        <v>-1157180.397592248</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5186,24 +4653,15 @@
         <v>62665.966</v>
       </c>
       <c r="G140" t="n">
-        <v>-1094514.431592248</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5225,24 +4683,15 @@
         <v>405.1101</v>
       </c>
       <c r="G141" t="n">
-        <v>-1094514.431592248</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5264,24 +4713,15 @@
         <v>321.0692</v>
       </c>
       <c r="G142" t="n">
-        <v>-1094193.362392248</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5303,24 +4743,15 @@
         <v>805.9122</v>
       </c>
       <c r="G143" t="n">
-        <v>-1094193.362392248</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5342,24 +4773,15 @@
         <v>8584.235699999999</v>
       </c>
       <c r="G144" t="n">
-        <v>-1102777.598092248</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5381,24 +4803,15 @@
         <v>11</v>
       </c>
       <c r="G145" t="n">
-        <v>-1102766.598092248</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5420,24 +4833,15 @@
         <v>146492.479</v>
       </c>
       <c r="G146" t="n">
-        <v>-1249259.077092248</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5459,24 +4863,15 @@
         <v>5094.1791</v>
       </c>
       <c r="G147" t="n">
-        <v>-1249259.077092248</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5498,24 +4893,15 @@
         <v>569</v>
       </c>
       <c r="G148" t="n">
-        <v>-1249828.077092248</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5537,24 +4923,15 @@
         <v>19497.1593</v>
       </c>
       <c r="G149" t="n">
-        <v>-1269325.236392248</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5576,24 +4953,15 @@
         <v>405.6009</v>
       </c>
       <c r="G150" t="n">
-        <v>-1269730.837292248</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5615,24 +4983,15 @@
         <v>8617.0299</v>
       </c>
       <c r="G151" t="n">
-        <v>-1269730.837292248</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5654,24 +5013,15 @@
         <v>15403.3575</v>
       </c>
       <c r="G152" t="n">
-        <v>-1269730.837292248</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5693,24 +5043,15 @@
         <v>20732.2402</v>
       </c>
       <c r="G153" t="n">
-        <v>-1269730.837292248</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5732,24 +5073,15 @@
         <v>91864.9676</v>
       </c>
       <c r="G154" t="n">
-        <v>-1361595.804892248</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5771,24 +5103,15 @@
         <v>14862.8059</v>
       </c>
       <c r="G155" t="n">
-        <v>-1361595.804892248</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5810,24 +5133,15 @@
         <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>-1361595.804892248</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5849,24 +5163,15 @@
         <v>4858.7854</v>
       </c>
       <c r="G157" t="n">
-        <v>-1366454.590292248</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5888,24 +5193,15 @@
         <v>2503.4912</v>
       </c>
       <c r="G158" t="n">
-        <v>-1366454.590292248</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5927,24 +5223,15 @@
         <v>11057.1334</v>
       </c>
       <c r="G159" t="n">
-        <v>-1366454.590292248</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5966,24 +5253,15 @@
         <v>135573.8106</v>
       </c>
       <c r="G160" t="n">
-        <v>-1230880.779692248</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6005,24 +5283,15 @@
         <v>16611.14920738007</v>
       </c>
       <c r="G161" t="n">
-        <v>-1214269.630484868</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6044,24 +5313,15 @@
         <v>16585.26929630996</v>
       </c>
       <c r="G162" t="n">
-        <v>-1214269.630484868</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6083,24 +5343,15 @@
         <v>56922.7285</v>
       </c>
       <c r="G163" t="n">
-        <v>-1271192.358984868</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6122,24 +5373,15 @@
         <v>28461.3642</v>
       </c>
       <c r="G164" t="n">
-        <v>-1299653.723184868</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6161,24 +5403,15 @@
         <v>4955.2004</v>
       </c>
       <c r="G165" t="n">
-        <v>-1294698.522784868</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6200,24 +5433,15 @@
         <v>23506.1639</v>
       </c>
       <c r="G166" t="n">
-        <v>-1318204.686684868</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6239,24 +5463,15 @@
         <v>12315</v>
       </c>
       <c r="G167" t="n">
-        <v>-1305889.686684868</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6278,24 +5493,15 @@
         <v>9404</v>
       </c>
       <c r="G168" t="n">
-        <v>-1296485.686684868</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6317,24 +5523,15 @@
         <v>67428.6361</v>
       </c>
       <c r="G169" t="n">
-        <v>-1363914.322784868</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6356,24 +5553,15 @@
         <v>18.7193</v>
       </c>
       <c r="G170" t="n">
-        <v>-1363895.603484868</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6395,24 +5583,15 @@
         <v>1980</v>
       </c>
       <c r="G171" t="n">
-        <v>-1361915.603484868</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6434,24 +5613,15 @@
         <v>7010</v>
       </c>
       <c r="G172" t="n">
-        <v>-1361915.603484868</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6473,24 +5643,15 @@
         <v>3773.584</v>
       </c>
       <c r="G173" t="n">
-        <v>-1365689.187484868</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6512,24 +5673,15 @@
         <v>4315.7579</v>
       </c>
       <c r="G174" t="n">
-        <v>-1370004.945384868</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6551,24 +5703,15 @@
         <v>34075.3506</v>
       </c>
       <c r="G175" t="n">
-        <v>-1370004.945384868</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6590,24 +5733,15 @@
         <v>4160.2326</v>
       </c>
       <c r="G176" t="n">
-        <v>-1365844.712784868</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6629,24 +5763,15 @@
         <v>100</v>
       </c>
       <c r="G177" t="n">
-        <v>-1365744.712784868</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6668,24 +5793,15 @@
         <v>16578.04192089552</v>
       </c>
       <c r="G178" t="n">
-        <v>-1365744.712784868</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6707,24 +5823,15 @@
         <v>27019.82335456916</v>
       </c>
       <c r="G179" t="n">
-        <v>-1338724.889430299</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6746,24 +5853,15 @@
         <v>519.3223</v>
       </c>
       <c r="G180" t="n">
-        <v>-1339244.211730299</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6785,24 +5883,15 @@
         <v>15828.1662</v>
       </c>
       <c r="G181" t="n">
-        <v>-1355072.377930299</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6824,24 +5913,15 @@
         <v>10000.2444</v>
       </c>
       <c r="G182" t="n">
-        <v>-1365072.622330299</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6863,24 +5943,15 @@
         <v>3067.3233</v>
       </c>
       <c r="G183" t="n">
-        <v>-1362005.299030299</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6902,24 +5973,15 @@
         <v>1013.2037</v>
       </c>
       <c r="G184" t="n">
-        <v>-1362005.299030299</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6941,24 +6003,15 @@
         <v>8325</v>
       </c>
       <c r="G185" t="n">
-        <v>-1353680.299030299</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6980,24 +6033,15 @@
         <v>780</v>
       </c>
       <c r="G186" t="n">
-        <v>-1352900.299030299</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7019,24 +6063,15 @@
         <v>19751.52691561338</v>
       </c>
       <c r="G187" t="n">
-        <v>-1333148.772114686</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7058,24 +6093,15 @@
         <v>33187.3977</v>
       </c>
       <c r="G188" t="n">
-        <v>-1333148.772114686</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7097,24 +6123,15 @@
         <v>32065</v>
       </c>
       <c r="G189" t="n">
-        <v>-1333148.772114686</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7136,24 +6153,15 @@
         <v>45575.2592</v>
       </c>
       <c r="G190" t="n">
-        <v>-1287573.512914686</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7175,24 +6183,15 @@
         <v>15545.96870892193</v>
       </c>
       <c r="G191" t="n">
-        <v>-1287573.512914686</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7214,24 +6213,15 @@
         <v>49730.5955</v>
       </c>
       <c r="G192" t="n">
-        <v>-1237842.917414685</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7253,24 +6243,15 @@
         <v>71359.0514</v>
       </c>
       <c r="G193" t="n">
-        <v>-1237842.917414685</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7292,24 +6273,15 @@
         <v>17804.125</v>
       </c>
       <c r="G194" t="n">
-        <v>-1220038.792414685</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7331,24 +6303,15 @@
         <v>109</v>
       </c>
       <c r="G195" t="n">
-        <v>-1219929.792414685</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7370,24 +6333,15 @@
         <v>7000</v>
       </c>
       <c r="G196" t="n">
-        <v>-1212929.792414685</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7409,24 +6363,15 @@
         <v>153211.6672</v>
       </c>
       <c r="G197" t="n">
-        <v>-1059718.125214685</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7448,24 +6393,15 @@
         <v>106865.9616</v>
       </c>
       <c r="G198" t="n">
-        <v>-952852.1636146854</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7487,24 +6423,15 @@
         <v>1000</v>
       </c>
       <c r="G199" t="n">
-        <v>-953852.1636146854</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7526,24 +6453,15 @@
         <v>11140.5075</v>
       </c>
       <c r="G200" t="n">
-        <v>-964992.6711146854</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7565,24 +6483,15 @@
         <v>22722.4973</v>
       </c>
       <c r="G201" t="n">
-        <v>-942270.1738146853</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7604,24 +6513,15 @@
         <v>64082.2474</v>
       </c>
       <c r="G202" t="n">
-        <v>-1006352.421214685</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7643,24 +6543,15 @@
         <v>46213.1834</v>
       </c>
       <c r="G203" t="n">
-        <v>-1006352.421214685</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7682,24 +6573,15 @@
         <v>31821.3868</v>
       </c>
       <c r="G204" t="n">
-        <v>-1006352.421214685</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7721,24 +6603,15 @@
         <v>54054.9853</v>
       </c>
       <c r="G205" t="n">
-        <v>-1006352.421214685</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7760,24 +6633,15 @@
         <v>10</v>
       </c>
       <c r="G206" t="n">
-        <v>-1006342.421214685</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7799,24 +6663,15 @@
         <v>4241.2634</v>
       </c>
       <c r="G207" t="n">
-        <v>-1010583.684614685</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7838,24 +6693,15 @@
         <v>68195.24340000001</v>
       </c>
       <c r="G208" t="n">
-        <v>-942388.4412146853</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7877,24 +6723,15 @@
         <v>51194.2703</v>
       </c>
       <c r="G209" t="n">
-        <v>-942388.4412146853</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7916,24 +6753,15 @@
         <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>-942378.4412146853</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7955,24 +6783,15 @@
         <v>4232.263</v>
       </c>
       <c r="G211" t="n">
-        <v>-946610.7042146854</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7994,24 +6813,15 @@
         <v>1011</v>
       </c>
       <c r="G212" t="n">
-        <v>-945599.7042146854</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8033,24 +6843,15 @@
         <v>8000</v>
       </c>
       <c r="G213" t="n">
-        <v>-937599.7042146854</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8072,24 +6873,15 @@
         <v>30</v>
       </c>
       <c r="G214" t="n">
-        <v>-937569.7042146854</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8111,24 +6903,15 @@
         <v>5910</v>
       </c>
       <c r="G215" t="n">
-        <v>-943479.7042146854</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8150,24 +6933,15 @@
         <v>1980</v>
       </c>
       <c r="G216" t="n">
-        <v>-945459.7042146854</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8189,24 +6963,15 @@
         <v>10</v>
       </c>
       <c r="G217" t="n">
-        <v>-945449.7042146854</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8228,24 +6993,15 @@
         <v>1469.0477</v>
       </c>
       <c r="G218" t="n">
-        <v>-946918.7519146854</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8267,24 +7023,15 @@
         <v>1688.0634</v>
       </c>
       <c r="G219" t="n">
-        <v>-945230.6885146854</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,24 +7053,15 @@
         <v>70588.6951</v>
       </c>
       <c r="G220" t="n">
-        <v>-874641.9934146854</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8345,24 +7083,15 @@
         <v>22</v>
       </c>
       <c r="G221" t="n">
-        <v>-874619.9934146854</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8384,24 +7113,15 @@
         <v>364.4102</v>
       </c>
       <c r="G222" t="n">
-        <v>-874255.5832146853</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8423,24 +7143,15 @@
         <v>1958.4798</v>
       </c>
       <c r="G223" t="n">
-        <v>-876214.0630146853</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8462,24 +7173,15 @@
         <v>3341.6769</v>
       </c>
       <c r="G224" t="n">
-        <v>-872872.3861146853</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8501,24 +7203,15 @@
         <v>1147.8121</v>
       </c>
       <c r="G225" t="n">
-        <v>-872872.3861146853</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8540,24 +7233,15 @@
         <v>46343.1862</v>
       </c>
       <c r="G226" t="n">
-        <v>-826529.1999146853</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8579,24 +7263,15 @@
         <v>11</v>
       </c>
       <c r="G227" t="n">
-        <v>-826518.1999146853</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8618,24 +7293,15 @@
         <v>42328.1856</v>
       </c>
       <c r="G228" t="n">
-        <v>-784190.0143146854</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8657,26 +7323,15 @@
         <v>19327.5117</v>
       </c>
       <c r="G229" t="n">
-        <v>-803517.5260146854</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1.08484375</v>
-      </c>
-      <c r="M229" t="n">
-        <v>1.087649402390438</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8698,18 +7353,15 @@
         <v>10830.3249</v>
       </c>
       <c r="G230" t="n">
-        <v>-814347.8509146854</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8731,18 +7383,15 @@
         <v>85431.7001</v>
       </c>
       <c r="G231" t="n">
-        <v>-814347.8509146854</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8764,18 +7413,15 @@
         <v>11430.8606</v>
       </c>
       <c r="G232" t="n">
-        <v>-802916.9903146854</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8797,18 +7443,15 @@
         <v>45935.0413</v>
       </c>
       <c r="G233" t="n">
-        <v>-802916.9903146854</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8830,18 +7473,15 @@
         <v>91695.5295</v>
       </c>
       <c r="G234" t="n">
-        <v>-711221.4608146853</v>
-      </c>
-      <c r="H234" t="n">
         <v>2</v>
       </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8863,18 +7503,15 @@
         <v>3253.2624</v>
       </c>
       <c r="G235" t="n">
-        <v>-707968.1984146853</v>
-      </c>
-      <c r="H235" t="n">
         <v>2</v>
       </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8896,18 +7533,15 @@
         <v>56192.3214</v>
       </c>
       <c r="G236" t="n">
-        <v>-764160.5198146853</v>
-      </c>
-      <c r="H236" t="n">
         <v>2</v>
       </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8929,18 +7563,15 @@
         <v>1686.3078</v>
       </c>
       <c r="G237" t="n">
-        <v>-762474.2120146854</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8962,18 +7593,15 @@
         <v>67082.43610000001</v>
       </c>
       <c r="G238" t="n">
-        <v>-829556.6481146854</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8995,18 +7623,15 @@
         <v>9387.483200000001</v>
       </c>
       <c r="G239" t="n">
-        <v>-829556.6481146854</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9028,18 +7653,15 @@
         <v>10</v>
       </c>
       <c r="G240" t="n">
-        <v>-829546.6481146854</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9061,18 +7683,15 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>-829536.6481146854</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9094,18 +7713,15 @@
         <v>99704.9767</v>
       </c>
       <c r="G242" t="n">
-        <v>-729831.6714146854</v>
-      </c>
-      <c r="H242" t="n">
         <v>2</v>
       </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9127,18 +7743,15 @@
         <v>3872.064056939502</v>
       </c>
       <c r="G243" t="n">
-        <v>-733703.7354716249</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9160,18 +7773,15 @@
         <v>10924.5981</v>
       </c>
       <c r="G244" t="n">
-        <v>-744628.3335716248</v>
-      </c>
-      <c r="H244" t="n">
         <v>2</v>
       </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9193,18 +7803,15 @@
         <v>14816.4799</v>
       </c>
       <c r="G245" t="n">
-        <v>-744628.3335716248</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9226,18 +7833,15 @@
         <v>22944.7613</v>
       </c>
       <c r="G246" t="n">
-        <v>-744628.3335716248</v>
-      </c>
-      <c r="H246" t="n">
         <v>2</v>
       </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9259,18 +7863,15 @@
         <v>363.1679</v>
       </c>
       <c r="G247" t="n">
-        <v>-744991.5014716248</v>
-      </c>
-      <c r="H247" t="n">
         <v>2</v>
       </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9292,18 +7893,15 @@
         <v>11684.8393</v>
       </c>
       <c r="G248" t="n">
-        <v>-744991.5014716248</v>
-      </c>
-      <c r="H248" t="n">
         <v>2</v>
       </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9325,18 +7923,15 @@
         <v>144631.7688</v>
       </c>
       <c r="G249" t="n">
-        <v>-889623.2702716248</v>
-      </c>
-      <c r="H249" t="n">
         <v>2</v>
       </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9358,18 +7953,15 @@
         <v>40494.8199</v>
       </c>
       <c r="G250" t="n">
-        <v>-849128.4503716248</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9391,18 +7983,15 @@
         <v>38974.6574</v>
       </c>
       <c r="G251" t="n">
-        <v>-810153.7929716248</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9424,18 +8013,15 @@
         <v>1243.7275</v>
       </c>
       <c r="G252" t="n">
-        <v>-811397.5204716248</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
